--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -211,10 +211,10 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
   </si>
   <si>
     <t>Cronenberger SC</t>
@@ -1963,7 +1963,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4989,73 +4989,73 @@
         <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48">
+        <v>3.25</v>
+      </c>
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>134</v>
-      </c>
-      <c r="K48">
-        <v>1.909</v>
-      </c>
-      <c r="L48">
-        <v>3.75</v>
-      </c>
       <c r="M48">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5078,73 +5078,73 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
+        <v>3.1</v>
+      </c>
+      <c r="N49">
+        <v>2.2</v>
+      </c>
+      <c r="O49">
+        <v>3.6</v>
+      </c>
+      <c r="P49">
+        <v>2.625</v>
+      </c>
+      <c r="Q49">
+        <v>-0.25</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
-      </c>
-      <c r="N49">
-        <v>2.9</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>1.95</v>
-      </c>
-      <c r="Q49">
-        <v>0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.8</v>
-      </c>
-      <c r="S49">
-        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
         <v>0.8</v>
       </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -6235,7 +6235,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -8089,7 +8089,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8101,40 +8101,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>133</v>
+      </c>
+      <c r="K83">
+        <v>2.75</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>2.1</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>1.6</v>
+      </c>
+      <c r="Q83">
         <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>135</v>
-      </c>
-      <c r="K83">
-        <v>3.4</v>
-      </c>
-      <c r="L83">
-        <v>4.2</v>
-      </c>
-      <c r="M83">
-        <v>1.727</v>
-      </c>
-      <c r="N83">
-        <v>2.8</v>
-      </c>
-      <c r="O83">
-        <v>4.2</v>
-      </c>
-      <c r="P83">
-        <v>1.95</v>
-      </c>
-      <c r="Q83">
-        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.8</v>
@@ -8146,16 +8146,16 @@
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8167,7 +8167,7 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8178,7 +8178,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8190,40 +8190,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K84">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
         <v>1.8</v>
@@ -8235,16 +8235,16 @@
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
@@ -8256,7 +8256,7 @@
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>SV Helpenstein</t>
+  </si>
+  <si>
     <t>BSV Schuren</t>
   </si>
   <si>
-    <t>SV Helpenstein</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -214,18 +214,18 @@
     <t>SG Unterrath</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -277,6 +277,9 @@
     <t>DJK Arminia Klosterhardt</t>
   </si>
   <si>
+    <t>VfB Fortuna Chemnitz</t>
+  </si>
+  <si>
     <t>FC Voran Ohe</t>
   </si>
   <si>
@@ -301,12 +304,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>FC Germania Teveren</t>
+  </si>
+  <si>
     <t>Turkspor Dortmund 2000</t>
   </si>
   <si>
-    <t>FC Germania Teveren</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -364,12 +367,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -413,6 +416,9 @@
   </si>
   <si>
     <t>SF Niederwenigern</t>
+  </si>
+  <si>
+    <t>SG Taucha 99</t>
   </si>
   <si>
     <t>D</t>
@@ -783,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC92"/>
+  <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +901,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K2">
         <v>2.4</v>
@@ -993,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1073,7 +1079,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1082,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K4">
         <v>1.083</v>
@@ -1162,7 +1168,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1171,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5">
         <v>5.5</v>
@@ -1251,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1260,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6">
         <v>21</v>
@@ -1340,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1349,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7">
         <v>3.6</v>
@@ -1429,7 +1435,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1438,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1518,7 +1524,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1527,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1616,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K10">
         <v>3.4</v>
@@ -1705,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1785,7 +1791,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1874,7 +1880,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1883,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1963,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1972,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14">
         <v>3.2</v>
@@ -2052,7 +2058,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2061,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2126,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2141,70 +2147,70 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2215,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2230,70 +2236,70 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>1.4</v>
+      </c>
+      <c r="N17">
+        <v>7.5</v>
+      </c>
+      <c r="O17">
+        <v>5.25</v>
+      </c>
+      <c r="P17">
+        <v>1.25</v>
+      </c>
+      <c r="Q17">
+        <v>1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3.5</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>0.25</v>
+      </c>
+      <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.425</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>2.1</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
-      <c r="P17">
-        <v>2.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.9</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2319,7 +2325,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2328,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2408,7 +2414,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2417,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2497,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2506,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20">
         <v>1.8</v>
@@ -2586,7 +2592,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2595,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21">
         <v>2.625</v>
@@ -2684,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K22">
         <v>1.363</v>
@@ -2764,7 +2770,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2773,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23">
         <v>1.333</v>
@@ -2853,7 +2859,7 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2862,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2942,7 +2948,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2951,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K25">
         <v>1.909</v>
@@ -3031,7 +3037,7 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -3120,7 +3126,7 @@
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3129,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -3209,7 +3215,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3218,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3298,7 +3304,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3307,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K29">
         <v>1.4</v>
@@ -3396,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3476,7 +3482,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3485,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K31">
         <v>3.4</v>
@@ -3565,7 +3571,7 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3574,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K32">
         <v>3.5</v>
@@ -3654,7 +3660,7 @@
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3663,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3743,7 +3749,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3752,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K34">
         <v>2.5</v>
@@ -3832,7 +3838,7 @@
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3841,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3930,7 +3936,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -4010,7 +4016,7 @@
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4019,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K37">
         <v>2.625</v>
@@ -4099,7 +4105,7 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4108,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K38">
         <v>2.4</v>
@@ -4188,7 +4194,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4197,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K39">
         <v>2.6</v>
@@ -4277,7 +4283,7 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4286,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K40">
         <v>2.25</v>
@@ -4366,7 +4372,7 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4375,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4464,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4553,7 +4559,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>1.833</v>
@@ -4642,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K44">
         <v>2.25</v>
@@ -4722,7 +4728,7 @@
         <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4731,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4811,7 +4817,7 @@
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4820,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K46">
         <v>1.666</v>
@@ -4900,7 +4906,7 @@
         <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4909,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K47">
         <v>1.833</v>
@@ -4998,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K48">
         <v>3.25</v>
@@ -5063,7 +5069,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5078,52 +5084,52 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>3.6</v>
+      </c>
+      <c r="M49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49" t="s">
-        <v>134</v>
-      </c>
-      <c r="K49">
-        <v>1.909</v>
-      </c>
-      <c r="L49">
-        <v>3.75</v>
-      </c>
-      <c r="M49">
-        <v>3.1</v>
-      </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
         <v>1.8</v>
       </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>1.825</v>
-      </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -5132,19 +5138,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5152,7 +5158,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5167,52 +5173,52 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
         <v>3.6</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.8</v>
       </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -5221,19 +5227,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5241,7 +5247,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5256,56 +5262,56 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K51">
+        <v>3.25</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>135</v>
-      </c>
-      <c r="K51">
+      <c r="M51">
+        <v>1.8</v>
+      </c>
+      <c r="N51">
+        <v>3.25</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>1.8</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
+        <v>1.825</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
+        <v>1.85</v>
+      </c>
+      <c r="V51">
+        <v>1.95</v>
+      </c>
+      <c r="W51">
         <v>2.25</v>
       </c>
-      <c r="L51">
-        <v>3.75</v>
-      </c>
-      <c r="M51">
-        <v>2.5</v>
-      </c>
-      <c r="N51">
-        <v>2.25</v>
-      </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>1.25</v>
-      </c>
       <c r="X51">
         <v>-1</v>
       </c>
@@ -5313,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5330,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5345,55 +5351,55 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
+        <v>2.5</v>
+      </c>
+      <c r="N52">
+        <v>2.25</v>
+      </c>
+      <c r="O52">
+        <v>3.75</v>
+      </c>
+      <c r="P52">
+        <v>2.5</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>1.8</v>
       </c>
-      <c r="N52">
-        <v>3.25</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
-      </c>
-      <c r="P52">
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>3.5</v>
+      </c>
+      <c r="U52">
         <v>1.8</v>
       </c>
-      <c r="Q52">
-        <v>0.5</v>
-      </c>
-      <c r="R52">
-        <v>1.975</v>
-      </c>
-      <c r="S52">
-        <v>1.825</v>
-      </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5402,16 +5408,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5443,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5523,7 +5529,7 @@
         <v>71</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5532,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K54">
         <v>1.909</v>
@@ -5609,10 +5615,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5621,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K55">
         <v>1.615</v>
@@ -5701,7 +5707,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5710,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5790,7 +5796,7 @@
         <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5799,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K57">
         <v>2.25</v>
@@ -5876,7 +5882,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5888,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K58">
         <v>2.25</v>
@@ -5968,7 +5974,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H59">
         <v>6</v>
@@ -5977,7 +5983,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K59">
         <v>1.5</v>
@@ -6066,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -6143,10 +6149,10 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6155,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K61">
         <v>2.75</v>
@@ -6235,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -6244,7 +6250,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6324,7 +6330,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6333,7 +6339,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6410,7 +6416,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
         <v>64</v>
@@ -6422,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K64">
         <v>3.4</v>
@@ -6511,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K65">
         <v>1.4</v>
@@ -6591,7 +6597,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6600,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K66">
         <v>2.7</v>
@@ -6680,7 +6686,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6689,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6769,7 +6775,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6778,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6867,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K69">
         <v>1.222</v>
@@ -6947,7 +6953,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6956,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -7036,7 +7042,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7045,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K71">
         <v>5</v>
@@ -7134,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -7223,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K73">
         <v>1.666</v>
@@ -7303,7 +7309,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7312,7 +7318,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K74">
         <v>1.333</v>
@@ -7392,7 +7398,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7401,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K75">
         <v>4.2</v>
@@ -7481,7 +7487,7 @@
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7490,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K76">
         <v>2.4</v>
@@ -7570,7 +7576,7 @@
         <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7579,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K77">
         <v>1.909</v>
@@ -7659,7 +7665,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7668,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7757,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K79">
         <v>2.7</v>
@@ -7846,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K80">
         <v>4.5</v>
@@ -7926,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -7935,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -8015,7 +8021,7 @@
         <v>74</v>
       </c>
       <c r="G82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -8024,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -8113,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K83">
         <v>2.75</v>
@@ -8202,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8282,7 +8288,7 @@
         <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8291,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8368,10 +8374,10 @@
         <v>45261.625</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8380,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8460,7 +8466,7 @@
         <v>64</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8469,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8558,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K88">
         <v>2.1</v>
@@ -8647,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K89">
         <v>1.8</v>
@@ -8727,7 +8733,7 @@
         <v>86</v>
       </c>
       <c r="G90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8736,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8825,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8902,10 +8908,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8914,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K92">
         <v>2.5</v>
@@ -8972,6 +8978,95 @@
       </c>
       <c r="AC92">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7847639</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F93" t="s">
+        <v>87</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+      <c r="K93">
+        <v>2.15</v>
+      </c>
+      <c r="L93">
+        <v>3.75</v>
+      </c>
+      <c r="M93">
+        <v>2.6</v>
+      </c>
+      <c r="N93">
+        <v>2.15</v>
+      </c>
+      <c r="O93">
+        <v>3.75</v>
+      </c>
+      <c r="P93">
+        <v>2.625</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.975</v>
+      </c>
+      <c r="S93">
+        <v>1.825</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
+        <v>1.85</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>1.625</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.825</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>BSV Schuren</t>
+  </si>
+  <si>
     <t>SV Helpenstein</t>
   </si>
   <si>
-    <t>BSV Schuren</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>TSV Grunwald</t>
   </si>
   <si>
+    <t>Rather SV</t>
+  </si>
+  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>Rather SV</t>
-  </si>
-  <si>
     <t>SC Germania Reusrath</t>
   </si>
   <si>
@@ -181,24 +181,24 @@
     <t>FV Bad Honnef 1919</t>
   </si>
   <si>
+    <t>Arminia Eilendorf</t>
+  </si>
+  <si>
     <t>SV Wachtberg</t>
   </si>
   <si>
-    <t>Arminia Eilendorf</t>
-  </si>
-  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SSV Markranstadt</t>
+  </si>
+  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>DJK Dilkrath</t>
   </si>
   <si>
@@ -211,21 +211,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>Turkspor Dortmund 2000</t>
+  </si>
+  <si>
     <t>FC Germania Teveren</t>
   </si>
   <si>
-    <t>Turkspor Dortmund 2000</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -367,10 +367,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -1969,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2150,67 +2150,67 @@
         <v>96</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+      <c r="N16">
+        <v>7.5</v>
+      </c>
+      <c r="O16">
+        <v>5.25</v>
+      </c>
+      <c r="P16">
+        <v>1.25</v>
+      </c>
+      <c r="Q16">
+        <v>1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.95</v>
+      </c>
+      <c r="S16">
+        <v>1.85</v>
+      </c>
+      <c r="T16">
+        <v>3.5</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>0.25</v>
+      </c>
+      <c r="Z16">
+        <v>-0.5</v>
+      </c>
+      <c r="AA16">
+        <v>0.425</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>3.25</v>
-      </c>
-      <c r="M16">
-        <v>2.1</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3.25</v>
-      </c>
-      <c r="P16">
-        <v>2.1</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>3.25</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2239,67 +2239,67 @@
         <v>97</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6548653</v>
+        <v>6548724</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3304,53 +3304,53 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>136</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
+        <v>4.333</v>
+      </c>
+      <c r="M29">
+        <v>2.35</v>
+      </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>6.5</v>
-      </c>
-      <c r="N29">
-        <v>1.533</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
       <c r="P29">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
+        <v>3.75</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
         <v>1.825</v>
       </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.8</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB29">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6548724</v>
+        <v>6548653</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3393,73 +3393,73 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>136</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.8</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>3.75</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB30">
         <v>0</v>
       </c>
-      <c r="R30">
-        <v>1.9</v>
-      </c>
-      <c r="S30">
-        <v>1.9</v>
-      </c>
-      <c r="T30">
-        <v>3.75</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.825</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>1.3</v>
-      </c>
-      <c r="Z30">
-        <v>-1</v>
-      </c>
-      <c r="AA30">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB30">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6688581</v>
+        <v>6690896</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4016,73 +4016,73 @@
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N37">
         <v>2.8</v>
       </c>
       <c r="O37">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6690896</v>
+        <v>6688581</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4105,73 +4105,73 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>2.8</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC38">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L41">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M41">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N41">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P41">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q41">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4461,73 +4461,73 @@
         <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K42">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N42">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O42">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4995,73 +4995,73 @@
         <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
+        <v>3.1</v>
+      </c>
+      <c r="N48">
+        <v>2.2</v>
+      </c>
+      <c r="O48">
+        <v>3.6</v>
+      </c>
+      <c r="P48">
+        <v>2.625</v>
+      </c>
+      <c r="Q48">
+        <v>-0.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
         <v>1.8</v>
-      </c>
-      <c r="N48">
-        <v>2.9</v>
-      </c>
-      <c r="O48">
-        <v>4</v>
-      </c>
-      <c r="P48">
-        <v>1.95</v>
-      </c>
-      <c r="Q48">
-        <v>0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.8</v>
-      </c>
-      <c r="S48">
-        <v>2</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
         <v>0.8</v>
       </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5173,73 +5173,73 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>137</v>
+      </c>
+      <c r="K50">
+        <v>3.25</v>
+      </c>
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="J50" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50">
-        <v>1.909</v>
-      </c>
-      <c r="L50">
-        <v>3.75</v>
-      </c>
       <c r="M50">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5262,55 +5262,55 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>137</v>
       </c>
       <c r="K51">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
+        <v>2.5</v>
+      </c>
+      <c r="N51">
+        <v>2.25</v>
+      </c>
+      <c r="O51">
+        <v>3.75</v>
+      </c>
+      <c r="P51">
+        <v>2.5</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>1.8</v>
       </c>
-      <c r="N51">
-        <v>3.25</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
-      <c r="P51">
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>3.5</v>
+      </c>
+      <c r="U51">
         <v>1.8</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
-      <c r="T51">
-        <v>3.25</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5319,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5351,56 +5351,56 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>137</v>
       </c>
       <c r="K52">
+        <v>3.25</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1.8</v>
+      </c>
+      <c r="N52">
+        <v>3.25</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>1.8</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.825</v>
+      </c>
+      <c r="T52">
+        <v>3.25</v>
+      </c>
+      <c r="U52">
+        <v>1.85</v>
+      </c>
+      <c r="V52">
+        <v>1.95</v>
+      </c>
+      <c r="W52">
         <v>2.25</v>
       </c>
-      <c r="L52">
-        <v>3.75</v>
-      </c>
-      <c r="M52">
-        <v>2.5</v>
-      </c>
-      <c r="N52">
-        <v>2.25</v>
-      </c>
-      <c r="O52">
-        <v>3.75</v>
-      </c>
-      <c r="P52">
-        <v>2.5</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>1.8</v>
-      </c>
-      <c r="S52">
-        <v>2</v>
-      </c>
-      <c r="T52">
-        <v>3.5</v>
-      </c>
-      <c r="U52">
-        <v>1.8</v>
-      </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
-      <c r="W52">
-        <v>1.25</v>
-      </c>
       <c r="X52">
         <v>-1</v>
       </c>
@@ -5408,16 +5408,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
         <v>116</v>
@@ -5882,7 +5882,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -6149,7 +6149,7 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>122</v>
@@ -6241,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -6416,7 +6416,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
         <v>64</v>
@@ -7220,7 +7220,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7484,7 +7484,7 @@
         <v>45234.375</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G76" t="s">
         <v>128</v>
@@ -7561,7 +7561,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7573,13 +7573,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7588,43 +7588,43 @@
         <v>137</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N77">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7633,16 +7633,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7650,7 +7650,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7662,13 +7662,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7677,43 +7677,43 @@
         <v>137</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L78">
         <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7722,16 +7722,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8107,40 +8107,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.8</v>
@@ -8152,16 +8152,16 @@
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8184,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8196,40 +8196,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K84">
+        <v>2.75</v>
+      </c>
+      <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
+        <v>2.1</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>1.6</v>
+      </c>
+      <c r="Q84">
         <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>137</v>
-      </c>
-      <c r="K84">
-        <v>3.4</v>
-      </c>
-      <c r="L84">
-        <v>4.2</v>
-      </c>
-      <c r="M84">
-        <v>1.727</v>
-      </c>
-      <c r="N84">
-        <v>2.8</v>
-      </c>
-      <c r="O84">
-        <v>4.2</v>
-      </c>
-      <c r="P84">
-        <v>1.95</v>
-      </c>
-      <c r="Q84">
-        <v>0.5</v>
       </c>
       <c r="R84">
         <v>1.8</v>
@@ -8241,16 +8241,16 @@
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
@@ -8262,7 +8262,7 @@
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8374,7 +8374,7 @@
         <v>45261.625</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G86" t="s">
         <v>132</v>
@@ -8911,7 +8911,7 @@
         <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H92">
         <v>0</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>SV Helpenstein</t>
+  </si>
+  <si>
     <t>BSV Schuren</t>
   </si>
   <si>
-    <t>SV Helpenstein</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>TSV Grunwald</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>Rather SV</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>SC Germania Reusrath</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>FV Bad Honnef 1919</t>
   </si>
   <si>
+    <t>SV Wachtberg</t>
+  </si>
+  <si>
     <t>Arminia Eilendorf</t>
   </si>
   <si>
-    <t>SV Wachtberg</t>
-  </si>
-  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>FC Germania Teveren</t>
+  </si>
+  <si>
     <t>Turkspor Dortmund 2000</t>
   </si>
   <si>
-    <t>FC Germania Teveren</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -367,10 +367,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -1969,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2150,67 +2150,67 @@
         <v>96</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2239,67 +2239,67 @@
         <v>97</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>1.4</v>
+      </c>
+      <c r="N17">
+        <v>7.5</v>
+      </c>
+      <c r="O17">
+        <v>5.25</v>
+      </c>
+      <c r="P17">
+        <v>1.25</v>
+      </c>
+      <c r="Q17">
+        <v>1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3.5</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>0.25</v>
+      </c>
+      <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.425</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>2.1</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
-      <c r="P17">
-        <v>2.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.9</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6548724</v>
+        <v>6548653</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>136</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="R29">
+        <v>1.825</v>
+      </c>
+      <c r="S29">
+        <v>1.975</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.8</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>3.75</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB29">
         <v>0</v>
       </c>
-      <c r="R29">
-        <v>1.9</v>
-      </c>
-      <c r="S29">
-        <v>1.9</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
-      <c r="V29">
-        <v>1.825</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>1.3</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB29">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6548653</v>
+        <v>6548724</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3393,53 +3393,53 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
         <v>136</v>
       </c>
       <c r="K30">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
+        <v>4.333</v>
+      </c>
+      <c r="M30">
+        <v>2.35</v>
+      </c>
+      <c r="N30">
+        <v>2.3</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="M30">
-        <v>6.5</v>
-      </c>
-      <c r="N30">
-        <v>1.533</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
       <c r="P30">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.9</v>
+      </c>
+      <c r="T30">
+        <v>3.75</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>1.975</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3447,19 +3447,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB30">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6690896</v>
+        <v>6688581</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4016,73 +4016,73 @@
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M37">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>2.8</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC37">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6688581</v>
+        <v>6690896</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4105,73 +4105,73 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K38">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N38">
         <v>2.8</v>
       </c>
       <c r="O38">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4998,49 +4998,49 @@
         <v>117</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>136</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
         <v>1.8</v>
       </c>
-      <c r="T48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>1.825</v>
-      </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -5049,19 +5049,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5087,49 +5087,49 @@
         <v>118</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>136</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
       </c>
-      <c r="S49">
-        <v>2</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -5138,19 +5138,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -6149,7 +6149,7 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>122</v>
@@ -6241,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -7220,7 +7220,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -8908,10 +8908,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H92">
         <v>0</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>BSV Schuren</t>
+  </si>
+  <si>
     <t>SV Helpenstein</t>
   </si>
   <si>
-    <t>BSV Schuren</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>TSV Grunwald</t>
   </si>
   <si>
+    <t>Rather SV</t>
+  </si>
+  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>Rather SV</t>
-  </si>
-  <si>
     <t>SC Germania Reusrath</t>
   </si>
   <si>
@@ -187,18 +187,18 @@
     <t>Arminia Eilendorf</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>DJK Dilkrath</t>
   </si>
   <si>
@@ -211,21 +211,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>Turkspor Dortmund 2000</t>
+  </si>
+  <si>
     <t>FC Germania Teveren</t>
   </si>
   <si>
-    <t>Turkspor Dortmund 2000</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -367,10 +367,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2150,67 +2150,67 @@
         <v>96</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+      <c r="N16">
+        <v>7.5</v>
+      </c>
+      <c r="O16">
+        <v>5.25</v>
+      </c>
+      <c r="P16">
+        <v>1.25</v>
+      </c>
+      <c r="Q16">
+        <v>1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.95</v>
+      </c>
+      <c r="S16">
+        <v>1.85</v>
+      </c>
+      <c r="T16">
+        <v>3.5</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>0.25</v>
+      </c>
+      <c r="Z16">
+        <v>-0.5</v>
+      </c>
+      <c r="AA16">
+        <v>0.425</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>3.25</v>
-      </c>
-      <c r="M16">
-        <v>2.1</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3.25</v>
-      </c>
-      <c r="P16">
-        <v>2.1</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>3.25</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2239,67 +2239,67 @@
         <v>97</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6548653</v>
+        <v>6548724</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3304,53 +3304,53 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>136</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
+        <v>4.333</v>
+      </c>
+      <c r="M29">
+        <v>2.35</v>
+      </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>6.5</v>
-      </c>
-      <c r="N29">
-        <v>1.533</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
       <c r="P29">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
+        <v>3.75</v>
+      </c>
+      <c r="U29">
+        <v>1.975</v>
+      </c>
+      <c r="V29">
         <v>1.825</v>
       </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.8</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
@@ -3358,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB29">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6548724</v>
+        <v>6548653</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3393,73 +3393,73 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>136</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.8</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>3.75</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB30">
         <v>0</v>
       </c>
-      <c r="R30">
-        <v>1.9</v>
-      </c>
-      <c r="S30">
-        <v>1.9</v>
-      </c>
-      <c r="T30">
-        <v>3.75</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.825</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>1.3</v>
-      </c>
-      <c r="Z30">
-        <v>-1</v>
-      </c>
-      <c r="AA30">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB30">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4194,55 +4194,55 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N39">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4251,16 +4251,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N40">
+        <v>2.6</v>
+      </c>
+      <c r="O40">
+        <v>3.5</v>
+      </c>
+      <c r="P40">
+        <v>2.25</v>
+      </c>
+      <c r="Q40">
+        <v>0.25</v>
+      </c>
+      <c r="R40">
         <v>1.75</v>
       </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>3.8</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
+        <v>1.775</v>
+      </c>
+      <c r="V40">
+        <v>2.025</v>
+      </c>
+      <c r="W40">
+        <v>1.6</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0.75</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>-0.5</v>
       </c>
-      <c r="R40">
-        <v>1.8</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>0.75</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.8</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.8</v>
-      </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K41">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N41">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O41">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q41">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4461,73 +4461,73 @@
         <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P42">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
         <v>1.8</v>
@@ -5034,34 +5034,34 @@
         <v>2</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5158,7 +5158,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5173,37 +5173,37 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
         <v>1.8</v>
@@ -5212,34 +5212,34 @@
         <v>2</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5262,56 +5262,56 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>137</v>
       </c>
       <c r="K51">
+        <v>3.25</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1.8</v>
+      </c>
+      <c r="N51">
+        <v>3.25</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>1.8</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
+        <v>1.825</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
+        <v>1.85</v>
+      </c>
+      <c r="V51">
+        <v>1.95</v>
+      </c>
+      <c r="W51">
         <v>2.25</v>
       </c>
-      <c r="L51">
-        <v>3.75</v>
-      </c>
-      <c r="M51">
-        <v>2.5</v>
-      </c>
-      <c r="N51">
-        <v>2.25</v>
-      </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>1.25</v>
-      </c>
       <c r="X51">
         <v>-1</v>
       </c>
@@ -5319,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5351,55 +5351,55 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>137</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
+        <v>2.5</v>
+      </c>
+      <c r="N52">
+        <v>2.25</v>
+      </c>
+      <c r="O52">
+        <v>3.75</v>
+      </c>
+      <c r="P52">
+        <v>2.5</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>1.8</v>
       </c>
-      <c r="N52">
-        <v>3.25</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
-      </c>
-      <c r="P52">
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>3.5</v>
+      </c>
+      <c r="U52">
         <v>1.8</v>
       </c>
-      <c r="Q52">
-        <v>0.5</v>
-      </c>
-      <c r="R52">
-        <v>1.975</v>
-      </c>
-      <c r="S52">
-        <v>1.825</v>
-      </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5408,16 +5408,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
         <v>116</v>
@@ -6149,7 +6149,7 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>122</v>
@@ -6416,7 +6416,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
         <v>64</v>
@@ -7484,7 +7484,7 @@
         <v>45234.375</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
         <v>128</v>
@@ -8374,7 +8374,7 @@
         <v>45261.625</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
         <v>132</v>
@@ -8908,10 +8908,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H92">
         <v>0</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>SV Helpenstein</t>
+  </si>
+  <si>
     <t>BSV Schuren</t>
   </si>
   <si>
-    <t>SV Helpenstein</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Arminia Eilendorf</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -211,21 +211,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>FC Germania Teveren</t>
+  </si>
+  <si>
     <t>Turkspor Dortmund 2000</t>
   </si>
   <si>
-    <t>FC Germania Teveren</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -367,10 +367,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -789,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC93"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2150,67 +2150,67 @@
         <v>96</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2239,67 +2239,67 @@
         <v>97</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>1.4</v>
+      </c>
+      <c r="N17">
+        <v>7.5</v>
+      </c>
+      <c r="O17">
+        <v>5.25</v>
+      </c>
+      <c r="P17">
+        <v>1.25</v>
+      </c>
+      <c r="Q17">
+        <v>1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3.5</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>0.25</v>
+      </c>
+      <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.425</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>2.1</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
-      <c r="P17">
-        <v>2.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.9</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N39">
+        <v>2.6</v>
+      </c>
+      <c r="O39">
+        <v>3.5</v>
+      </c>
+      <c r="P39">
+        <v>2.25</v>
+      </c>
+      <c r="Q39">
+        <v>0.25</v>
+      </c>
+      <c r="R39">
         <v>1.75</v>
       </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>3.8</v>
-      </c>
-      <c r="Q39">
+      <c r="S39">
+        <v>2.05</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
+        <v>1.775</v>
+      </c>
+      <c r="V39">
+        <v>2.025</v>
+      </c>
+      <c r="W39">
+        <v>1.6</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>0.75</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
       </c>
-      <c r="R39">
-        <v>1.8</v>
-      </c>
-      <c r="S39">
-        <v>2</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.8</v>
-      </c>
-      <c r="V39">
-        <v>2</v>
-      </c>
-      <c r="W39">
-        <v>0.75</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>0.8</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.8</v>
-      </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4283,55 +4283,55 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N40">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4995,37 +4995,37 @@
         <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
         <v>1.8</v>
@@ -5034,34 +5034,34 @@
         <v>2</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5084,73 +5084,73 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>137</v>
+      </c>
+      <c r="K49">
+        <v>3.25</v>
+      </c>
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="J49" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49">
-        <v>1.909</v>
-      </c>
-      <c r="L49">
-        <v>3.75</v>
-      </c>
       <c r="M49">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5176,49 +5176,49 @@
         <v>118</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
         <v>136</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
         <v>3.6</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.8</v>
       </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -5227,19 +5227,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5262,55 +5262,55 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>137</v>
       </c>
       <c r="K51">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
+        <v>2.5</v>
+      </c>
+      <c r="N51">
+        <v>2.25</v>
+      </c>
+      <c r="O51">
+        <v>3.75</v>
+      </c>
+      <c r="P51">
+        <v>2.5</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>1.8</v>
       </c>
-      <c r="N51">
-        <v>3.25</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
-      <c r="P51">
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>3.5</v>
+      </c>
+      <c r="U51">
         <v>1.8</v>
       </c>
-      <c r="Q51">
-        <v>0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
-      <c r="T51">
-        <v>3.25</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5319,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5351,56 +5351,56 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>137</v>
       </c>
       <c r="K52">
+        <v>3.25</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1.8</v>
+      </c>
+      <c r="N52">
+        <v>3.25</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>1.8</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.825</v>
+      </c>
+      <c r="T52">
+        <v>3.25</v>
+      </c>
+      <c r="U52">
+        <v>1.85</v>
+      </c>
+      <c r="V52">
+        <v>1.95</v>
+      </c>
+      <c r="W52">
         <v>2.25</v>
       </c>
-      <c r="L52">
-        <v>3.75</v>
-      </c>
-      <c r="M52">
-        <v>2.5</v>
-      </c>
-      <c r="N52">
-        <v>2.25</v>
-      </c>
-      <c r="O52">
-        <v>3.75</v>
-      </c>
-      <c r="P52">
-        <v>2.5</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>1.8</v>
-      </c>
-      <c r="S52">
-        <v>2</v>
-      </c>
-      <c r="T52">
-        <v>3.5</v>
-      </c>
-      <c r="U52">
-        <v>1.8</v>
-      </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
-      <c r="W52">
-        <v>1.25</v>
-      </c>
       <c r="X52">
         <v>-1</v>
       </c>
@@ -5408,16 +5408,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
         <v>116</v>
@@ -5882,7 +5882,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -6149,7 +6149,7 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>122</v>
@@ -6241,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -6416,7 +6416,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
         <v>64</v>
@@ -7561,7 +7561,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7573,13 +7573,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7588,43 +7588,43 @@
         <v>137</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L77">
         <v>3.75</v>
       </c>
       <c r="M77">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7633,16 +7633,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7650,7 +7650,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7662,13 +7662,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7677,43 +7677,43 @@
         <v>137</v>
       </c>
       <c r="K78">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N78">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7722,16 +7722,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8374,7 +8374,7 @@
         <v>45261.625</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G86" t="s">
         <v>132</v>
@@ -8908,10 +8908,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9067,6 +9067,95 @@
       </c>
       <c r="AC93">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7865257</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45344.64583333334</v>
+      </c>
+      <c r="F94" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" t="s">
+        <v>131</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>137</v>
+      </c>
+      <c r="K94">
+        <v>3.5</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>1.727</v>
+      </c>
+      <c r="N94">
+        <v>2.7</v>
+      </c>
+      <c r="O94">
+        <v>4.2</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
+        <v>4.25</v>
+      </c>
+      <c r="U94">
+        <v>1.85</v>
+      </c>
+      <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>1.7</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.95</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>BSV Schuren</t>
+  </si>
+  <si>
     <t>SV Helpenstein</t>
   </si>
   <si>
-    <t>BSV Schuren</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Arminia Eilendorf</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -211,21 +211,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>Turkspor Dortmund 2000</t>
+  </si>
+  <si>
     <t>FC Germania Teveren</t>
   </si>
   <si>
-    <t>Turkspor Dortmund 2000</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -367,10 +367,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -789,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2132,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2150,67 +2150,67 @@
         <v>96</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+      <c r="N16">
+        <v>7.5</v>
+      </c>
+      <c r="O16">
+        <v>5.25</v>
+      </c>
+      <c r="P16">
+        <v>1.25</v>
+      </c>
+      <c r="Q16">
+        <v>1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.95</v>
+      </c>
+      <c r="S16">
+        <v>1.85</v>
+      </c>
+      <c r="T16">
+        <v>3.5</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>0.25</v>
+      </c>
+      <c r="Z16">
+        <v>-0.5</v>
+      </c>
+      <c r="AA16">
+        <v>0.425</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>3.25</v>
-      </c>
-      <c r="M16">
-        <v>2.1</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3.25</v>
-      </c>
-      <c r="P16">
-        <v>2.1</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.9</v>
-      </c>
-      <c r="S16">
-        <v>1.9</v>
-      </c>
-      <c r="T16">
-        <v>3.25</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2239,67 +2239,67 @@
         <v>97</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2503,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4194,55 +4194,55 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N39">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4251,16 +4251,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>137</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N40">
+        <v>2.6</v>
+      </c>
+      <c r="O40">
+        <v>3.5</v>
+      </c>
+      <c r="P40">
+        <v>2.25</v>
+      </c>
+      <c r="Q40">
+        <v>0.25</v>
+      </c>
+      <c r="R40">
         <v>1.75</v>
       </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>3.8</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
+        <v>1.775</v>
+      </c>
+      <c r="V40">
+        <v>2.025</v>
+      </c>
+      <c r="W40">
+        <v>1.6</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0.75</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>-0.5</v>
       </c>
-      <c r="R40">
-        <v>1.8</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>0.75</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.8</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.8</v>
-      </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4998,49 +4998,49 @@
         <v>117</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
         <v>136</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
         <v>1.8</v>
       </c>
-      <c r="S48">
-        <v>2</v>
-      </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -5049,19 +5049,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5176,49 +5176,49 @@
         <v>118</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>136</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O50">
         <v>3.6</v>
       </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>2.75</v>
+      </c>
+      <c r="U50">
         <v>1.8</v>
       </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.825</v>
-      </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -5227,19 +5227,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5262,56 +5262,56 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>137</v>
       </c>
       <c r="K51">
+        <v>3.25</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1.8</v>
+      </c>
+      <c r="N51">
+        <v>3.25</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>1.8</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
+        <v>1.825</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
+        <v>1.85</v>
+      </c>
+      <c r="V51">
+        <v>1.95</v>
+      </c>
+      <c r="W51">
         <v>2.25</v>
       </c>
-      <c r="L51">
-        <v>3.75</v>
-      </c>
-      <c r="M51">
-        <v>2.5</v>
-      </c>
-      <c r="N51">
-        <v>2.25</v>
-      </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>1.25</v>
-      </c>
       <c r="X51">
         <v>-1</v>
       </c>
@@ -5319,16 +5319,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5351,55 +5351,55 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>137</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
+        <v>2.5</v>
+      </c>
+      <c r="N52">
+        <v>2.25</v>
+      </c>
+      <c r="O52">
+        <v>3.75</v>
+      </c>
+      <c r="P52">
+        <v>2.5</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>1.8</v>
       </c>
-      <c r="N52">
-        <v>3.25</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
-      </c>
-      <c r="P52">
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>3.5</v>
+      </c>
+      <c r="U52">
         <v>1.8</v>
       </c>
-      <c r="Q52">
-        <v>0.5</v>
-      </c>
-      <c r="R52">
-        <v>1.975</v>
-      </c>
-      <c r="S52">
-        <v>1.825</v>
-      </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5408,16 +5408,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
         <v>116</v>
@@ -5882,7 +5882,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -6149,7 +6149,7 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>122</v>
@@ -6241,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -6416,7 +6416,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
         <v>64</v>
@@ -8095,7 +8095,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8107,40 +8107,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>135</v>
+      </c>
+      <c r="K83">
+        <v>2.75</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>2.1</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>1.6</v>
+      </c>
+      <c r="Q83">
         <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>137</v>
-      </c>
-      <c r="K83">
-        <v>3.4</v>
-      </c>
-      <c r="L83">
-        <v>4.2</v>
-      </c>
-      <c r="M83">
-        <v>1.727</v>
-      </c>
-      <c r="N83">
-        <v>2.8</v>
-      </c>
-      <c r="O83">
-        <v>4.2</v>
-      </c>
-      <c r="P83">
-        <v>1.95</v>
-      </c>
-      <c r="Q83">
-        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.8</v>
@@ -8152,16 +8152,16 @@
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8184,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8196,40 +8196,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K84">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
         <v>1.8</v>
@@ -8241,16 +8241,16 @@
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
@@ -8262,7 +8262,7 @@
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8374,7 +8374,7 @@
         <v>45261.625</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
         <v>132</v>
@@ -8908,10 +8908,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9156,6 +9156,95 @@
       </c>
       <c r="AC94">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7871297</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45345.64583333334</v>
+      </c>
+      <c r="F95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G95" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+      <c r="K95">
+        <v>1.6</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>4.2</v>
+      </c>
+      <c r="N95">
+        <v>1.6</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>4.2</v>
+      </c>
+      <c r="Q95">
+        <v>-1</v>
+      </c>
+      <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.775</v>
+      </c>
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>1.025</v>
+      </c>
+      <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -280,6 +280,9 @@
     <t>VfB Fortuna Chemnitz</t>
   </si>
   <si>
+    <t>SG 2000 MulheimKarlich</t>
+  </si>
+  <si>
     <t>FC Voran Ohe</t>
   </si>
   <si>
@@ -419,6 +422,9 @@
   </si>
   <si>
     <t>SG Taucha 99</t>
+  </si>
+  <si>
+    <t>FSG EhrangPfalzel</t>
   </si>
   <si>
     <t>D</t>
@@ -789,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K2">
         <v>2.4</v>
@@ -999,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1079,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K4">
         <v>1.083</v>
@@ -1168,7 +1174,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1177,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5">
         <v>5.5</v>
@@ -1257,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1266,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K6">
         <v>21</v>
@@ -1346,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1355,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7">
         <v>3.6</v>
@@ -1435,7 +1441,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1444,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1524,7 +1530,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1533,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1622,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K10">
         <v>3.4</v>
@@ -1711,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1791,7 +1797,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1800,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1880,7 +1886,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1889,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1978,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14">
         <v>3.2</v>
@@ -2058,7 +2064,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2147,7 +2153,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2156,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2236,7 +2242,7 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2245,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2325,7 +2331,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2334,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2414,7 +2420,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2423,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2512,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20">
         <v>1.8</v>
@@ -2592,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2601,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K21">
         <v>2.625</v>
@@ -2690,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22">
         <v>1.363</v>
@@ -2770,7 +2776,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2779,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>1.333</v>
@@ -2859,7 +2865,7 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2868,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2948,7 +2954,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2957,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K25">
         <v>1.909</v>
@@ -3037,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3046,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -3126,7 +3132,7 @@
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3135,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -3215,7 +3221,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3224,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3313,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K29">
         <v>2.2</v>
@@ -3393,7 +3399,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3402,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K30">
         <v>1.4</v>
@@ -3482,7 +3488,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3491,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K31">
         <v>3.4</v>
@@ -3571,7 +3577,7 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3580,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K32">
         <v>3.5</v>
@@ -3660,7 +3666,7 @@
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3669,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3749,7 +3755,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K34">
         <v>2.5</v>
@@ -3838,7 +3844,7 @@
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3847,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3936,7 +3942,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -4016,7 +4022,7 @@
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4025,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K37">
         <v>2.625</v>
@@ -4105,7 +4111,7 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4114,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K38">
         <v>2.4</v>
@@ -4194,7 +4200,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -4203,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K39">
         <v>2.25</v>
@@ -4283,7 +4289,7 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4292,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4372,7 +4378,7 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4381,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4470,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4559,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K43">
         <v>1.833</v>
@@ -4648,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K44">
         <v>2.25</v>
@@ -4728,7 +4734,7 @@
         <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4737,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4817,7 +4823,7 @@
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4826,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K46">
         <v>1.666</v>
@@ -4906,7 +4912,7 @@
         <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4915,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K47">
         <v>1.833</v>
@@ -4995,7 +5001,7 @@
         <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -5004,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>1.909</v>
@@ -5093,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K49">
         <v>3.25</v>
@@ -5173,7 +5179,7 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5182,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5271,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K51">
         <v>3.25</v>
@@ -5351,7 +5357,7 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5360,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5449,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5529,7 +5535,7 @@
         <v>71</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K54">
         <v>1.909</v>
@@ -5618,7 +5624,7 @@
         <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5627,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K55">
         <v>1.615</v>
@@ -5707,7 +5713,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5716,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5796,7 +5802,7 @@
         <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5805,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K57">
         <v>2.25</v>
@@ -5894,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K58">
         <v>2.25</v>
@@ -5974,7 +5980,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H59">
         <v>6</v>
@@ -5983,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K59">
         <v>1.5</v>
@@ -6072,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -6152,7 +6158,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6161,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K61">
         <v>2.75</v>
@@ -6250,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6330,7 +6336,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6339,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6428,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K64">
         <v>3.4</v>
@@ -6517,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K65">
         <v>1.4</v>
@@ -6597,7 +6603,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6606,7 +6612,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K66">
         <v>2.7</v>
@@ -6686,7 +6692,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6695,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6775,7 +6781,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6784,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6873,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K69">
         <v>1.222</v>
@@ -6953,7 +6959,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6962,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -7042,7 +7048,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7051,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K71">
         <v>5</v>
@@ -7140,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -7229,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K73">
         <v>1.666</v>
@@ -7309,7 +7315,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7318,7 +7324,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K74">
         <v>1.333</v>
@@ -7398,7 +7404,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7407,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K75">
         <v>4.2</v>
@@ -7487,7 +7493,7 @@
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7496,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K76">
         <v>2.4</v>
@@ -7576,7 +7582,7 @@
         <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7585,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K77">
         <v>1.909</v>
@@ -7665,7 +7671,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7674,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7763,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K79">
         <v>2.7</v>
@@ -7852,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K80">
         <v>4.5</v>
@@ -7932,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -7941,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -8021,7 +8027,7 @@
         <v>74</v>
       </c>
       <c r="G82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -8030,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -8119,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K83">
         <v>2.75</v>
@@ -8208,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K84">
         <v>3.4</v>
@@ -8288,7 +8294,7 @@
         <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8297,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8377,7 +8383,7 @@
         <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8386,7 +8392,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8466,7 +8472,7 @@
         <v>64</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8475,7 +8481,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8564,7 +8570,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K88">
         <v>2.1</v>
@@ -8653,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K89">
         <v>1.8</v>
@@ -8733,7 +8739,7 @@
         <v>86</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8742,7 +8748,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8831,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8911,7 +8917,7 @@
         <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8920,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K92">
         <v>2.5</v>
@@ -9000,7 +9006,7 @@
         <v>87</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9009,7 +9015,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K93">
         <v>2.15</v>
@@ -9089,7 +9095,7 @@
         <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9098,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K94">
         <v>3.5</v>
@@ -9187,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K95">
         <v>1.6</v>
@@ -9245,6 +9251,80 @@
       </c>
       <c r="AC95">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7873625</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45346.64583333334</v>
+      </c>
+      <c r="F96" t="s">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s">
+        <v>136</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <v>-0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.775</v>
+      </c>
+      <c r="V96">
+        <v>2.025</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,12 @@
     <t>ASV Suchteln</t>
   </si>
   <si>
+    <t>SV Helpenstein</t>
+  </si>
+  <si>
     <t>BSV Schuren</t>
   </si>
   <si>
-    <t>SV Helpenstein</t>
-  </si>
-  <si>
     <t>Harburger TB 1865</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>TSV Grunwald</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>Rather SV</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>SC Germania Reusrath</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
@@ -280,6 +280,9 @@
     <t>VfB Fortuna Chemnitz</t>
   </si>
   <si>
+    <t>SG Taucha 99</t>
+  </si>
+  <si>
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
@@ -307,12 +310,12 @@
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
+    <t>FC Germania Teveren</t>
+  </si>
+  <si>
     <t>Turkspor Dortmund 2000</t>
   </si>
   <si>
-    <t>FC Germania Teveren</t>
-  </si>
-  <si>
     <t>Vfb Bottrop 1900</t>
   </si>
   <si>
@@ -421,7 +424,7 @@
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>SG Taucha 99</t>
+    <t>VfL PirnaCopitz</t>
   </si>
   <si>
     <t>FSG EhrangPfalzel</t>
@@ -795,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -916,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K2">
         <v>2.4</v>
@@ -1005,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1085,7 +1088,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1094,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <v>1.083</v>
@@ -1174,7 +1177,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5">
         <v>5.5</v>
@@ -1263,7 +1266,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1272,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K6">
         <v>21</v>
@@ -1352,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1361,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>3.6</v>
@@ -1441,7 +1444,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1450,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1530,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1539,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1628,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K10">
         <v>3.4</v>
@@ -1717,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1797,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1806,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1886,7 +1889,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1895,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -1975,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1984,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14">
         <v>3.2</v>
@@ -2064,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -2073,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2138,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6441941</v>
+        <v>6441905</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2153,70 +2156,70 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2227,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6441905</v>
+        <v>6441941</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2242,70 +2245,70 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>4</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>139</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="O17">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P17">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q17">
+        <v>1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3.5</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
         <v>0.25</v>
       </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.9</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2331,7 +2334,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2340,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2420,7 +2423,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2509,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2518,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K20">
         <v>1.8</v>
@@ -2598,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2607,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K21">
         <v>2.625</v>
@@ -2687,7 +2690,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2696,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22">
         <v>1.363</v>
@@ -2776,7 +2779,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2785,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23">
         <v>1.333</v>
@@ -2865,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2874,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2954,7 +2957,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2963,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25">
         <v>1.909</v>
@@ -3043,7 +3046,7 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3052,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -3132,7 +3135,7 @@
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3141,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -3221,7 +3224,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3230,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3295,7 +3298,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6548724</v>
+        <v>6548653</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3310,73 +3313,73 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29">
+        <v>1.4</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29">
-        <v>2.2</v>
-      </c>
-      <c r="L29">
-        <v>4.333</v>
-      </c>
       <c r="M29">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="R29">
+        <v>1.825</v>
+      </c>
+      <c r="S29">
+        <v>1.975</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.8</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>3.75</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB29">
         <v>0</v>
       </c>
-      <c r="R29">
-        <v>1.9</v>
-      </c>
-      <c r="S29">
-        <v>1.9</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
-      <c r="V29">
-        <v>1.825</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>1.3</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB29">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3384,7 +3387,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6548653</v>
+        <v>6548724</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3399,53 +3402,53 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K30">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
+        <v>4.333</v>
+      </c>
+      <c r="M30">
+        <v>2.35</v>
+      </c>
+      <c r="N30">
+        <v>2.3</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="M30">
-        <v>6.5</v>
-      </c>
-      <c r="N30">
-        <v>1.533</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
       <c r="P30">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.9</v>
+      </c>
+      <c r="T30">
+        <v>3.75</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>1.975</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3453,19 +3456,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB30">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3488,7 +3491,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3497,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K31">
         <v>3.4</v>
@@ -3577,7 +3580,7 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3586,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K32">
         <v>3.5</v>
@@ -3666,7 +3669,7 @@
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3675,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3755,7 +3758,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3764,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K34">
         <v>2.5</v>
@@ -3844,7 +3847,7 @@
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3853,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3942,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -4022,7 +4025,7 @@
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4031,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K37">
         <v>2.625</v>
@@ -4111,7 +4114,7 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4120,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K38">
         <v>2.4</v>
@@ -4200,7 +4203,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -4209,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K39">
         <v>2.25</v>
@@ -4289,7 +4292,7 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4298,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4378,7 +4381,7 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4387,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4476,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4565,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K43">
         <v>1.833</v>
@@ -4654,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K44">
         <v>2.25</v>
@@ -4734,7 +4737,7 @@
         <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4743,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4823,7 +4826,7 @@
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4832,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K46">
         <v>1.666</v>
@@ -4912,7 +4915,7 @@
         <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4921,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K47">
         <v>1.833</v>
@@ -4986,7 +4989,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -5001,73 +5004,73 @@
         <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>140</v>
+      </c>
+      <c r="K48">
+        <v>3.25</v>
+      </c>
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>138</v>
-      </c>
-      <c r="K48">
-        <v>1.909</v>
-      </c>
-      <c r="L48">
-        <v>3.75</v>
-      </c>
       <c r="M48">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5075,7 +5078,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5090,73 +5093,73 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>139</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
+        <v>3.1</v>
+      </c>
+      <c r="N49">
+        <v>2.2</v>
+      </c>
+      <c r="O49">
+        <v>3.6</v>
+      </c>
+      <c r="P49">
+        <v>2.625</v>
+      </c>
+      <c r="Q49">
+        <v>-0.25</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
-      </c>
-      <c r="N49">
-        <v>2.9</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>1.95</v>
-      </c>
-      <c r="Q49">
-        <v>0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.8</v>
-      </c>
-      <c r="S49">
-        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
         <v>0.8</v>
       </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5179,7 +5182,7 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5188,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5277,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K51">
         <v>3.25</v>
@@ -5357,7 +5360,7 @@
         <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5366,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5455,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5535,7 +5538,7 @@
         <v>71</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5544,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K54">
         <v>1.909</v>
@@ -5624,7 +5627,7 @@
         <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5633,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K55">
         <v>1.615</v>
@@ -5713,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5722,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5802,7 +5805,7 @@
         <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5811,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K57">
         <v>2.25</v>
@@ -5888,7 +5891,7 @@
         <v>45184.625</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5900,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K58">
         <v>2.25</v>
@@ -5980,7 +5983,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H59">
         <v>6</v>
@@ -5989,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K59">
         <v>1.5</v>
@@ -6078,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -6155,10 +6158,10 @@
         <v>45190.625</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6167,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K61">
         <v>2.75</v>
@@ -6247,7 +6250,7 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -6256,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6336,7 +6339,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6345,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6434,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K64">
         <v>3.4</v>
@@ -6523,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K65">
         <v>1.4</v>
@@ -6603,7 +6606,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6612,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K66">
         <v>2.7</v>
@@ -6692,7 +6695,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6701,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6781,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6790,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6879,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K69">
         <v>1.222</v>
@@ -6959,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6968,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K70">
         <v>1.5</v>
@@ -7048,7 +7051,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7057,7 +7060,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K71">
         <v>5</v>
@@ -7146,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -7235,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K73">
         <v>1.666</v>
@@ -7315,7 +7318,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7324,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K74">
         <v>1.333</v>
@@ -7404,7 +7407,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7413,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K75">
         <v>4.2</v>
@@ -7493,7 +7496,7 @@
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7502,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K76">
         <v>2.4</v>
@@ -7582,7 +7585,7 @@
         <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7591,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K77">
         <v>1.909</v>
@@ -7671,7 +7674,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7680,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7769,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K79">
         <v>2.7</v>
@@ -7858,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K80">
         <v>4.5</v>
@@ -7938,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="G81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -7947,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K81">
         <v>1.8</v>
@@ -8027,7 +8030,7 @@
         <v>74</v>
       </c>
       <c r="G82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -8036,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -8101,7 +8104,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8113,40 +8116,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.8</v>
@@ -8158,16 +8161,16 @@
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8179,7 +8182,7 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8190,7 +8193,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8202,40 +8205,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84">
+        <v>2.75</v>
+      </c>
+      <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
+        <v>2.1</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>1.6</v>
+      </c>
+      <c r="Q84">
         <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>139</v>
-      </c>
-      <c r="K84">
-        <v>3.4</v>
-      </c>
-      <c r="L84">
-        <v>4.2</v>
-      </c>
-      <c r="M84">
-        <v>1.727</v>
-      </c>
-      <c r="N84">
-        <v>2.8</v>
-      </c>
-      <c r="O84">
-        <v>4.2</v>
-      </c>
-      <c r="P84">
-        <v>1.95</v>
-      </c>
-      <c r="Q84">
-        <v>0.5</v>
       </c>
       <c r="R84">
         <v>1.8</v>
@@ -8247,16 +8250,16 @@
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
@@ -8268,7 +8271,7 @@
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8294,7 +8297,7 @@
         <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8303,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8383,7 +8386,7 @@
         <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8392,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8472,7 +8475,7 @@
         <v>64</v>
       </c>
       <c r="G87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8481,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8570,7 +8573,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K88">
         <v>2.1</v>
@@ -8659,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K89">
         <v>1.8</v>
@@ -8739,7 +8742,7 @@
         <v>86</v>
       </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8748,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K90">
         <v>3.6</v>
@@ -8837,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K91">
         <v>4.2</v>
@@ -8917,7 +8920,7 @@
         <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8926,7 +8929,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K92">
         <v>2.5</v>
@@ -9006,7 +9009,7 @@
         <v>87</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9015,7 +9018,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K93">
         <v>2.15</v>
@@ -9095,7 +9098,7 @@
         <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9104,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K94">
         <v>3.5</v>
@@ -9193,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K95">
         <v>1.6</v>
@@ -9258,7 +9261,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7873625</v>
+        <v>7873626</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9267,7 +9270,7 @@
         <v>28</v>
       </c>
       <c r="E96" s="2">
-        <v>45346.64583333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F96" t="s">
         <v>88</v>
@@ -9275,56 +9278,160 @@
       <c r="G96" t="s">
         <v>136</v>
       </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>140</v>
+      </c>
       <c r="K96">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>6</v>
+      </c>
+      <c r="N96">
+        <v>1.333</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <v>6</v>
+      </c>
+      <c r="Q96">
+        <v>-1.5</v>
+      </c>
+      <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
+        <v>1.95</v>
+      </c>
+      <c r="T96">
+        <v>3.5</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>1.8</v>
+      </c>
+      <c r="W96">
+        <v>0.333</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7873625</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45346.64583333334</v>
+      </c>
+      <c r="F97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s">
+        <v>137</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
         <v>3.6</v>
       </c>
-      <c r="M96">
+      <c r="M97">
         <v>3</v>
       </c>
-      <c r="N96">
-        <v>2</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
-      <c r="P96">
+      <c r="N97">
+        <v>1.95</v>
+      </c>
+      <c r="O97">
+        <v>3.75</v>
+      </c>
+      <c r="P97">
         <v>3</v>
       </c>
-      <c r="Q96">
+      <c r="Q97">
         <v>-0.25</v>
       </c>
-      <c r="R96">
+      <c r="R97">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.775</v>
-      </c>
-      <c r="V96">
-        <v>2.025</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
-      </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3.25</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
+        <v>1.975</v>
+      </c>
+      <c r="W97">
+        <v>0.95</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.8</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -130,21 +130,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -784,70 +784,70 @@
         <v>68</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>95</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -873,52 +873,52 @@
         <v>69</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>95</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -927,16 +927,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1048,7 +1048,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1582,37 +1582,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1621,34 +1621,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1671,7 +1671,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1760,37 +1760,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1799,34 +1799,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1834,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1849,55 +1849,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>95</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="N14">
-        <v>3.25</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1906,16 +1906,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1923,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1938,56 +1938,56 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>95</v>
       </c>
       <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>1.25</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
@@ -1995,16 +1995,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2202,7 +2202,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -3003,7 +3003,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4148,7 +4148,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4160,13 +4160,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4175,43 +4175,43 @@
         <v>95</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4220,16 +4220,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4237,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4249,13 +4249,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4264,43 +4264,43 @@
         <v>95</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4309,16 +4309,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4682,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4694,40 +4694,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>95</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4739,16 +4739,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4760,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4771,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4783,40 +4783,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4828,16 +4828,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4849,7 +4849,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4961,7 +4961,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>90</v>
@@ -5495,10 +5495,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -669,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -784,52 +784,52 @@
         <v>68</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>95</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -838,16 +838,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -873,70 +873,70 @@
         <v>69</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>95</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1048,7 +1048,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1582,37 +1582,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1621,34 +1621,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1656,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1671,73 +1671,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12">
+        <v>3.25</v>
+      </c>
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12">
-        <v>1.909</v>
-      </c>
-      <c r="L12">
-        <v>3.75</v>
-      </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1763,49 +1763,49 @@
         <v>75</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>96</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
       </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1814,19 +1814,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2469,7 +2469,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2828,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4682,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4694,40 +4694,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4739,16 +4739,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4760,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4771,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4783,40 +4783,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4828,16 +4828,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4849,7 +4849,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5495,10 +5495,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6010,6 +6010,95 @@
       </c>
       <c r="AC60">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>7890341</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45350.625</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61">
+        <v>13</v>
+      </c>
+      <c r="L61">
+        <v>7.5</v>
+      </c>
+      <c r="M61">
+        <v>1.125</v>
+      </c>
+      <c r="N61">
+        <v>21</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <v>1.083</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>2.075</v>
+      </c>
+      <c r="S61">
+        <v>1.725</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>1.875</v>
+      </c>
+      <c r="V61">
+        <v>1.925</v>
+      </c>
+      <c r="W61">
+        <v>20</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
+      <c r="Z61">
+        <v>1.075</v>
+      </c>
+      <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
@@ -669,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1671,73 +1671,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
+        <v>3.1</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.6</v>
+      </c>
+      <c r="P12">
+        <v>2.625</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
-      </c>
-      <c r="N12">
-        <v>2.9</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.95</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.8</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1760,73 +1760,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13">
+        <v>3.25</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13">
-        <v>1.909</v>
-      </c>
-      <c r="L13">
-        <v>3.75</v>
-      </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2469,7 +2469,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2828,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4148,7 +4148,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4160,13 +4160,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4175,43 +4175,43 @@
         <v>95</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4220,16 +4220,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4237,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4249,13 +4249,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4264,43 +4264,43 @@
         <v>95</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4309,16 +4309,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4682,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4694,40 +4694,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>95</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4739,16 +4739,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4760,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4771,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4783,40 +4783,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4828,16 +4828,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4849,7 +4849,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -6099,6 +6099,95 @@
       </c>
       <c r="AC61">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>7897140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45352.66666666666</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62">
+        <v>2.15</v>
+      </c>
+      <c r="L62">
+        <v>4.2</v>
+      </c>
+      <c r="M62">
+        <v>2.4</v>
+      </c>
+      <c r="N62">
+        <v>2.15</v>
+      </c>
+      <c r="O62">
+        <v>4.2</v>
+      </c>
+      <c r="P62">
+        <v>2.4</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>3.75</v>
+      </c>
+      <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
+        <v>1.95</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>1.4</v>
+      </c>
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -130,21 +130,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
+    <t>ASV Mettmann</t>
+  </si>
+  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1585,49 +1585,49 @@
         <v>74</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>96</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1636,19 +1636,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1656,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1674,49 +1674,49 @@
         <v>75</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>96</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1725,19 +1725,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1834,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1849,56 +1849,56 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>95</v>
       </c>
       <c r="K14">
+        <v>3.25</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.25</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
@@ -1906,16 +1906,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1923,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1938,55 +1938,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>95</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1995,16 +1995,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2202,7 +2202,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -2469,7 +2469,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2828,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3003,7 +3003,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4148,7 +4148,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4160,13 +4160,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4175,43 +4175,43 @@
         <v>95</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4220,16 +4220,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4237,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4249,13 +4249,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4264,43 +4264,43 @@
         <v>95</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4309,16 +4309,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4961,7 +4961,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>90</v>
@@ -5495,10 +5495,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>SC Dsseldorf West</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -220,10 +220,10 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
-    <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
     <t>SV 09 Arnstadt</t>
@@ -669,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -784,70 +784,70 @@
         <v>68</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>95</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -873,52 +873,52 @@
         <v>69</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>95</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -927,16 +927,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -959,73 +959,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1048,73 +1048,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1656,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1671,37 +1671,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.8</v>
@@ -1710,34 +1710,34 @@
         <v>2</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1760,37 +1760,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1799,34 +1799,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -4071,7 +4071,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -4682,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4694,40 +4694,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4739,16 +4739,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4760,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4771,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4783,40 +4783,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4828,16 +4828,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4849,7 +4849,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5495,7 +5495,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>74</v>
@@ -6029,7 +6029,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6118,7 +6118,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6187,6 +6187,95 @@
         <v>-1</v>
       </c>
       <c r="AC62">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>7905567</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45354.46875</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>2.1</v>
+      </c>
+      <c r="N63">
+        <v>2.9</v>
+      </c>
+      <c r="O63">
+        <v>3.4</v>
+      </c>
+      <c r="P63">
+        <v>2.1</v>
+      </c>
+      <c r="Q63">
+        <v>0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
+        <v>1.95</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>2.4</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>0.45</v>
+      </c>
+      <c r="AA63">
+        <v>-0.5</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.95</v>
       </c>
     </row>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -130,21 +130,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>Spvgg Steele 0309</t>
+  </si>
+  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>SG 2000 MulheimKarlich</t>
+  </si>
+  <si>
+    <t>MSV Dusseldorf</t>
   </si>
   <si>
     <t>FV Dresden 06 Laubegast</t>
@@ -669,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC63"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>2.6</v>
@@ -870,7 +873,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -879,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -968,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>1.25</v>
@@ -1048,7 +1051,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1057,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1146,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1235,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1315,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1404,7 +1407,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1413,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1493,7 +1496,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1502,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1567,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1582,73 +1585,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>96</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1656,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1671,73 +1674,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
+        <v>3.1</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.6</v>
+      </c>
+      <c r="P12">
+        <v>2.625</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
-      </c>
-      <c r="N12">
-        <v>2.9</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.95</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.8</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1760,7 +1763,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1769,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1834,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1849,55 +1852,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="N14">
-        <v>3.25</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1906,16 +1909,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1923,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1938,56 +1941,56 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
         <v>4</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15">
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>1.25</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
@@ -1995,16 +1998,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2036,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2116,7 +2119,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2202,10 +2205,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2214,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2294,7 +2297,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2303,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2383,7 +2386,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2392,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2469,7 +2472,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2481,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2561,7 +2564,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2570,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2659,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2739,7 +2742,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2748,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2828,7 +2831,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2837,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2917,7 +2920,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2926,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3003,7 +3006,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -3015,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3104,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3184,7 +3187,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3193,7 +3196,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3273,7 +3276,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3282,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3362,7 +3365,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3540,7 +3543,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3549,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3629,7 +3632,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3638,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3727,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3816,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3896,7 +3899,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3905,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -3985,7 +3988,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4074,7 +4077,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4148,7 +4151,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4160,58 +4163,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4220,16 +4223,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4237,7 +4240,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4249,58 +4252,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4309,16 +4312,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4350,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4439,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4519,7 +4522,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4528,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4608,7 +4611,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4617,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4682,7 +4685,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4694,40 +4697,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>95</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4739,16 +4742,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4760,7 +4763,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4771,7 +4774,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4783,40 +4786,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4828,16 +4831,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4849,7 +4852,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4875,7 +4878,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4884,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4961,10 +4964,10 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4973,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5053,7 +5056,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5062,7 +5065,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5142,7 +5145,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5151,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5240,7 +5243,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5320,7 +5323,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5329,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5418,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5498,7 +5501,7 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5507,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5596,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5676,7 +5679,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5685,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5765,7 +5768,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5774,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5854,7 +5857,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5863,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5943,7 +5946,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5952,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6041,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6118,7 +6121,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6130,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6210,7 +6213,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6219,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6277,6 +6280,95 @@
       </c>
       <c r="AC63">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>7930369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45359.64583333334</v>
+      </c>
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+      <c r="K64">
+        <v>2.3</v>
+      </c>
+      <c r="L64">
+        <v>3.6</v>
+      </c>
+      <c r="M64">
+        <v>2.5</v>
+      </c>
+      <c r="N64">
+        <v>2.2</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>2.625</v>
+      </c>
+      <c r="Q64">
+        <v>-0.25</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>3.5</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.8</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>1.625</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.8</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -109,12 +109,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SV Schott Jena</t>
+  </si>
+  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -241,10 +241,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -672,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -962,73 +962,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1051,73 +1051,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1570,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1585,37 +1585,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1624,34 +1624,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1748,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1763,37 +1763,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1802,34 +1802,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -4074,7 +4074,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>87</v>
@@ -4151,7 +4151,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4163,13 +4163,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4178,43 +4178,43 @@
         <v>96</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4223,16 +4223,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4240,7 +4240,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4252,13 +4252,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4267,43 +4267,43 @@
         <v>96</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4312,16 +4312,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4685,7 +4685,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4697,40 +4697,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4742,16 +4742,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4763,7 +4763,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4774,7 +4774,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4786,40 +4786,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4831,16 +4831,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4852,7 +4852,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5498,10 +5498,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6369,6 +6369,95 @@
       </c>
       <c r="AC64">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>7940440</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+      <c r="K65">
+        <v>2.45</v>
+      </c>
+      <c r="L65">
+        <v>3.25</v>
+      </c>
+      <c r="M65">
+        <v>2.5</v>
+      </c>
+      <c r="N65">
+        <v>2.45</v>
+      </c>
+      <c r="O65">
+        <v>3.3</v>
+      </c>
+      <c r="P65">
+        <v>2.5</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
+        <v>1.9</v>
+      </c>
+      <c r="V65">
+        <v>1.9</v>
+      </c>
+      <c r="W65">
+        <v>1.45</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
+        <v>0.875</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
+        <v>-0.5</v>
+      </c>
+      <c r="AC65">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -139,12 +139,12 @@
     <t>SG Unterrath</t>
   </si>
   <si>
+    <t>ASV Mettmann</t>
+  </si>
+  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -223,6 +223,12 @@
     <t>MSV Dusseldorf</t>
   </si>
   <si>
+    <t>FC Concordia 03</t>
+  </si>
+  <si>
+    <t>TV Dinklage</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
@@ -302,6 +308,15 @@
   </si>
   <si>
     <t>FSG EhrangPfalzel</t>
+  </si>
+  <si>
+    <t>Germania Schneiche</t>
+  </si>
+  <si>
+    <t>Viktoria Gesmold</t>
+  </si>
+  <si>
+    <t>DV Solingen</t>
   </si>
   <si>
     <t>H</t>
@@ -672,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,7 +799,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -793,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K2">
         <v>2.6</v>
@@ -873,7 +888,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -882,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -962,7 +977,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -971,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1060,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>1.25</v>
@@ -1149,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1238,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1318,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1327,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1407,7 +1422,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1416,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1496,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1505,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1585,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1594,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1674,7 +1689,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1683,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1772,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K13">
         <v>3.25</v>
@@ -1837,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1852,56 +1867,56 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14">
+        <v>3.25</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14">
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.25</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
@@ -1909,16 +1924,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1926,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1941,55 +1956,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1998,16 +2013,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2039,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2119,7 +2134,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2128,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2205,10 +2220,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2217,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2297,7 +2312,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2306,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2386,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2395,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2484,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2564,7 +2579,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2573,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2662,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2742,7 +2757,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2751,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2840,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2920,7 +2935,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2929,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3006,7 +3021,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -3018,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3107,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3187,7 +3202,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3196,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3276,7 +3291,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3285,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3365,7 +3380,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3374,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3463,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3543,7 +3558,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3552,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3632,7 +3647,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3641,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3730,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3819,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3899,7 +3914,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3908,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -3988,7 +4003,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3997,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4077,7 +4092,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4086,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4166,7 +4181,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4175,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K40">
         <v>1.909</v>
@@ -4255,7 +4270,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4264,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4353,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4442,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4522,7 +4537,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4531,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4611,7 +4626,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4620,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4709,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K46">
         <v>3.4</v>
@@ -4798,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K47">
         <v>2.75</v>
@@ -4878,7 +4893,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4887,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4964,10 +4979,10 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4976,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5056,7 +5071,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5065,7 +5080,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5145,7 +5160,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5154,7 +5169,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5243,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5323,7 +5338,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5332,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5421,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5501,7 +5516,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5510,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5599,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5679,7 +5694,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5688,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5768,7 +5783,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5777,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5857,7 +5872,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5866,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5946,7 +5961,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5955,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6044,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6133,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6213,7 +6228,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6222,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6311,7 +6326,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6400,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6458,6 +6473,332 @@
       </c>
       <c r="AC65">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>7951581</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45363.66666666666</v>
+      </c>
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66">
+        <v>2.9</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>1.909</v>
+      </c>
+      <c r="N66">
+        <v>2.875</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>1.909</v>
+      </c>
+      <c r="Q66">
+        <v>0.5</v>
+      </c>
+      <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>1.975</v>
+      </c>
+      <c r="T66">
+        <v>3.75</v>
+      </c>
+      <c r="U66">
+        <v>1.925</v>
+      </c>
+      <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.909</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>7950775</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45364.66666666666</v>
+      </c>
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+      <c r="K67">
+        <v>2.15</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>2.8</v>
+      </c>
+      <c r="N67">
+        <v>2.25</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
+        <v>2.625</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1.725</v>
+      </c>
+      <c r="S67">
+        <v>2.075</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>1.25</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>-1</v>
+      </c>
+      <c r="Z67">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
+        <v>0.8</v>
+      </c>
+      <c r="AC67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>7969732</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>1.333</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>6</v>
+      </c>
+      <c r="N68">
+        <v>1.285</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>7.5</v>
+      </c>
+      <c r="Q68">
+        <v>-1.5</v>
+      </c>
+      <c r="R68">
+        <v>1.775</v>
+      </c>
+      <c r="S68">
+        <v>2.025</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>1.775</v>
+      </c>
+      <c r="V68">
+        <v>2.025</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>7969733</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45368.47916666666</v>
+      </c>
+      <c r="F69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69">
+        <v>3.9</v>
+      </c>
+      <c r="L69">
+        <v>4.5</v>
+      </c>
+      <c r="M69">
+        <v>1.571</v>
+      </c>
+      <c r="N69">
+        <v>3.8</v>
+      </c>
+      <c r="O69">
+        <v>4.5</v>
+      </c>
+      <c r="P69">
+        <v>1.571</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>3.5</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -130,12 +130,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
@@ -247,10 +247,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -687,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1603,49 +1603,49 @@
         <v>77</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>102</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1654,19 +1654,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1674,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1692,49 +1692,49 @@
         <v>78</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>102</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1743,19 +1743,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2487,7 +2487,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2846,7 +2846,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4166,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4178,13 +4178,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4193,43 +4193,43 @@
         <v>101</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4238,16 +4238,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4255,7 +4255,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4267,13 +4267,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4282,43 +4282,43 @@
         <v>101</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4327,16 +4327,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4700,7 +4700,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4712,40 +4712,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>101</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4757,16 +4757,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4789,7 +4789,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4801,40 +4801,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4846,16 +4846,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4867,7 +4867,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5513,10 +5513,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6675,6 +6675,15 @@
       <c r="G68" t="s">
         <v>36</v>
       </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
       <c r="K68">
         <v>1.333</v>
       </c>
@@ -6694,37 +6703,43 @@
         <v>7.5</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
+        <v>3.25</v>
+      </c>
+      <c r="U68">
+        <v>2.025</v>
+      </c>
+      <c r="V68">
         <v>1.775</v>
       </c>
-      <c r="S68">
-        <v>2.025</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.775</v>
-      </c>
-      <c r="V68">
-        <v>2.025</v>
-      </c>
       <c r="W68">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB68">
+        <v>-0.5</v>
+      </c>
+      <c r="AC68">
+        <v>0.3875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6744,11 +6759,20 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
       </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
       <c r="K69">
         <v>3.9</v>
       </c>
@@ -6759,46 +6783,319 @@
         <v>1.571</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O69">
+        <v>4.2</v>
+      </c>
+      <c r="P69">
+        <v>1.8</v>
+      </c>
+      <c r="Q69">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
+        <v>1.975</v>
+      </c>
+      <c r="V69">
+        <v>1.825</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0.8</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>7990732</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45373.64583333334</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
+        <v>3.25</v>
+      </c>
+      <c r="M70">
+        <v>3.5</v>
+      </c>
+      <c r="N70">
+        <v>2.05</v>
+      </c>
+      <c r="O70">
+        <v>3.2</v>
+      </c>
+      <c r="P70">
+        <v>3.3</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.8</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
+        <v>1.8</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.2</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>-0.5</v>
+      </c>
+      <c r="AA70">
+        <v>0.5</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>7992020</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45373.66666666666</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+      <c r="K71">
+        <v>1.285</v>
+      </c>
+      <c r="L71">
+        <v>5.5</v>
+      </c>
+      <c r="M71">
+        <v>6.5</v>
+      </c>
+      <c r="N71">
+        <v>1.444</v>
+      </c>
+      <c r="O71">
+        <v>4.75</v>
+      </c>
+      <c r="P71">
+        <v>4.75</v>
+      </c>
+      <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.875</v>
+      </c>
+      <c r="S71">
+        <v>1.925</v>
+      </c>
+      <c r="T71">
+        <v>3.5</v>
+      </c>
+      <c r="U71">
+        <v>1.95</v>
+      </c>
+      <c r="V71">
+        <v>1.85</v>
+      </c>
+      <c r="W71">
+        <v>0.444</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>0.875</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>0.95</v>
+      </c>
+      <c r="AC71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>7999992</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45375.47916666666</v>
+      </c>
+      <c r="F72" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72">
         <v>4.5</v>
       </c>
-      <c r="P69">
-        <v>1.571</v>
-      </c>
-      <c r="Q69">
+      <c r="L72">
+        <v>4.5</v>
+      </c>
+      <c r="M72">
+        <v>1.5</v>
+      </c>
+      <c r="N72">
+        <v>4.2</v>
+      </c>
+      <c r="O72">
+        <v>4.2</v>
+      </c>
+      <c r="P72">
+        <v>1.6</v>
+      </c>
+      <c r="Q72">
         <v>1</v>
       </c>
-      <c r="R69">
-        <v>1.875</v>
-      </c>
-      <c r="S69">
-        <v>1.925</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.775</v>
-      </c>
-      <c r="V69">
-        <v>2.025</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <v>1.8</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>3.2</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>0.8</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>DV Solingen</t>
+  </si>
+  <si>
+    <t>SG Handwerk Rabenstein</t>
   </si>
   <si>
     <t>H</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC72"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -802,52 +805,52 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -856,16 +859,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -873,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -891,70 +894,70 @@
         <v>72</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -986,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1066,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1075,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>1.25</v>
@@ -1164,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1253,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1431,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1520,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1585,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1603,49 +1606,49 @@
         <v>77</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3.6</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11">
-        <v>1.909</v>
-      </c>
-      <c r="L11">
-        <v>3.75</v>
-      </c>
-      <c r="M11">
-        <v>3.1</v>
-      </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
         <v>1.8</v>
       </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1654,19 +1657,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1674,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1692,49 +1695,49 @@
         <v>78</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1743,19 +1746,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1787,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>3.25</v>
@@ -1876,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14">
         <v>3.25</v>
@@ -1965,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2143,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2232,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2321,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2410,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2487,7 +2490,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2499,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2588,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2677,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2766,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2846,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2855,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2944,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3033,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3122,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3211,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3300,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3389,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3567,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3656,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3745,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3834,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3923,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -4012,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4101,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4190,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4279,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K41">
         <v>1.909</v>
@@ -4368,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4457,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4546,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4635,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4724,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K46">
         <v>2.75</v>
@@ -4813,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K47">
         <v>3.4</v>
@@ -4902,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4991,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5080,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5169,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5258,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5347,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5436,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5513,10 +5516,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5525,7 +5528,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5614,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5703,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5792,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5881,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5970,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6047,7 +6050,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6059,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6148,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6237,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6326,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6415,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6504,7 +6507,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6593,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6682,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6759,7 +6762,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
@@ -6771,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K69">
         <v>3.9</v>
@@ -6851,7 +6854,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6860,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6940,7 +6943,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6949,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K71">
         <v>1.285</v>
@@ -7038,7 +7041,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -7096,6 +7099,273 @@
       </c>
       <c r="AC72">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8013545</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45378.64583333334</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+      <c r="K73">
+        <v>1.333</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
+        <v>1.363</v>
+      </c>
+      <c r="O73">
+        <v>4.75</v>
+      </c>
+      <c r="P73">
+        <v>6</v>
+      </c>
+      <c r="Q73">
+        <v>-1.5</v>
+      </c>
+      <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.8</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>0.363</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>8013546</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45378.65625</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74">
+        <v>2.75</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>1.909</v>
+      </c>
+      <c r="Q74">
+        <v>0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>4</v>
+      </c>
+      <c r="U74">
+        <v>1.925</v>
+      </c>
+      <c r="V74">
+        <v>1.875</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.909</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>8017334</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>1.615</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>1.615</v>
+      </c>
+      <c r="Q75">
+        <v>0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.825</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
+        <v>1.825</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>0.615</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
+        <v>0.825</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -229,10 +229,10 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
-    <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
     <t>SV 09 Arnstadt</t>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -805,70 +805,70 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -894,52 +894,52 @@
         <v>72</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>102</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -948,16 +948,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1069,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1603,37 +1603,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1642,34 +1642,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1692,52 +1692,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1746,19 +1746,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1781,73 +1781,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>2.625</v>
+      </c>
+      <c r="Q13">
+        <v>-0.25</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
-      </c>
-      <c r="N13">
-        <v>2.9</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>1.95</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>0.8</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2490,7 +2490,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2849,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -5516,7 +5516,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
         <v>78</v>
@@ -6050,7 +6050,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6139,7 +6139,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6762,7 +6762,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
@@ -6943,7 +6943,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -229,10 +229,10 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
-    <t>Bonn Endenich 1908</t>
   </si>
   <si>
     <t>SV 09 Arnstadt</t>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -805,52 +805,52 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -859,16 +859,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -894,70 +894,70 @@
         <v>72</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>102</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1069,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1603,37 +1603,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1642,34 +1642,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1692,52 +1692,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1746,19 +1746,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1781,73 +1781,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13">
+        <v>3.25</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13">
-        <v>1.909</v>
-      </c>
-      <c r="L13">
-        <v>3.75</v>
-      </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2490,7 +2490,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2849,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -5516,7 +5516,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
         <v>78</v>
@@ -6050,7 +6050,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6139,7 +6139,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6762,7 +6762,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
@@ -6943,7 +6943,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -130,21 +130,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -229,10 +229,10 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
-    <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
     <t>SV 09 Arnstadt</t>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -805,70 +805,70 @@
         <v>71</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -894,52 +894,52 @@
         <v>72</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>102</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -948,16 +948,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1069,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1603,37 +1603,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1642,34 +1642,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1692,52 +1692,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1746,19 +1746,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1781,73 +1781,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>2.625</v>
+      </c>
+      <c r="Q13">
+        <v>-0.25</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
-      </c>
-      <c r="N13">
-        <v>2.9</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>1.95</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>0.8</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1855,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1870,55 +1870,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>102</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="N14">
-        <v>3.25</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1927,16 +1927,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1944,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1959,56 +1959,56 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>102</v>
       </c>
       <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>1.25</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
@@ -2016,16 +2016,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2223,7 +2223,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
@@ -2490,7 +2490,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2849,7 +2849,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3024,7 +3024,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4169,7 +4169,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4181,13 +4181,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4196,43 +4196,43 @@
         <v>102</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4241,16 +4241,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4258,7 +4258,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4270,13 +4270,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4285,43 +4285,43 @@
         <v>102</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4330,16 +4330,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4982,7 +4982,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>93</v>
@@ -5516,7 +5516,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
         <v>78</v>
@@ -5786,7 +5786,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6050,7 +6050,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6139,7 +6139,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6762,7 +6762,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>100</v>
@@ -6943,7 +6943,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7207,7 +7207,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -133,12 +133,12 @@
     <t>SG Unterrath</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -229,6 +229,12 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>SC Fortuna Bonn</t>
+  </si>
+  <si>
+    <t>SV Vorwarts Nordhorn</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
@@ -247,12 +253,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -266,9 +272,6 @@
   </si>
   <si>
     <t>TUS 05 Oberpleis</t>
-  </si>
-  <si>
-    <t>SC Fortuna Bonn</t>
   </si>
   <si>
     <t>SpVgg Geratal</t>
@@ -690,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC75"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>2.6</v>
@@ -891,7 +894,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -900,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -980,7 +983,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -989,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>1.25</v>
@@ -1167,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1256,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1336,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1425,7 +1428,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1514,7 +1517,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1523,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>3.25</v>
@@ -1677,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1692,52 +1695,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1746,19 +1749,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1766,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1781,52 +1784,52 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13">
-        <v>1.909</v>
-      </c>
-      <c r="L13">
-        <v>3.75</v>
-      </c>
-      <c r="M13">
-        <v>3.1</v>
-      </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
         <v>1.8</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.825</v>
-      </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1835,19 +1838,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1870,7 +1873,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1879,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1968,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>3.25</v>
@@ -2057,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2137,7 +2140,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2146,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2226,7 +2229,7 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2235,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2315,7 +2318,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2324,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2404,7 +2407,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2413,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2490,7 +2493,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2502,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2582,7 +2585,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2591,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2680,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2760,7 +2763,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2769,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2849,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2858,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2938,7 +2941,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2947,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3036,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3125,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3205,7 +3208,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3214,7 +3217,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3294,7 +3297,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3303,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3383,7 +3386,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3392,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3481,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3561,7 +3564,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3570,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3650,7 +3653,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3659,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3748,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3837,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3917,7 +3920,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3926,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -4006,7 +4009,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4015,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4095,7 +4098,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4104,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4184,7 +4187,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4193,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K40">
         <v>1.909</v>
@@ -4273,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4282,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4371,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4460,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4540,7 +4543,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4549,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4629,7 +4632,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4638,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4727,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K46">
         <v>2.75</v>
@@ -4816,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K47">
         <v>3.4</v>
@@ -4896,7 +4899,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4905,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4985,7 +4988,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4994,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5074,7 +5077,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5083,7 +5086,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5163,7 +5166,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5172,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5261,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5341,7 +5344,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5350,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5439,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5516,10 +5519,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5528,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5617,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5697,7 +5700,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5706,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5795,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5875,7 +5878,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5884,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5964,7 +5967,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5973,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6062,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6151,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6231,7 +6234,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6240,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6329,7 +6332,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6418,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6498,7 +6501,7 @@
         <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6507,7 +6510,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6587,7 +6590,7 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6596,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6685,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6762,10 +6765,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6774,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K69">
         <v>3.9</v>
@@ -6854,7 +6857,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6863,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6943,7 +6946,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6952,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K71">
         <v>1.285</v>
@@ -7032,7 +7035,7 @@
         <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7041,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -7130,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K73">
         <v>1.333</v>
@@ -7219,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7299,7 +7302,7 @@
         <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7308,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7366,6 +7369,184 @@
       </c>
       <c r="AC75">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>8034132</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+      <c r="K76">
+        <v>2.2</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>2.625</v>
+      </c>
+      <c r="N76">
+        <v>2.25</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
+        <v>2.55</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1.775</v>
+      </c>
+      <c r="S76">
+        <v>2.025</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1.8</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>2.6</v>
+      </c>
+      <c r="Y76">
+        <v>-1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>-0</v>
+      </c>
+      <c r="AB76">
+        <v>0.8</v>
+      </c>
+      <c r="AC76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>8039588</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45383.60416666666</v>
+      </c>
+      <c r="F77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>3.75</v>
+      </c>
+      <c r="M77">
+        <v>2.875</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <v>3.75</v>
+      </c>
+      <c r="P77">
+        <v>2.9</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
+        <v>2</v>
+      </c>
+      <c r="T77">
+        <v>3.25</v>
+      </c>
+      <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
+        <v>1.925</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>2.75</v>
+      </c>
+      <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
+        <v>-0.5</v>
+      </c>
+      <c r="AA77">
+        <v>0.5</v>
+      </c>
+      <c r="AB77">
+        <v>0.875</v>
+      </c>
+      <c r="AC77">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -109,12 +109,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SSV Markranstadt</t>
+  </si>
+  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,13 +130,13 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
@@ -968,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -983,73 +983,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1072,73 +1072,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1606,73 +1606,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
+        <v>3.1</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>3.6</v>
+      </c>
+      <c r="P11">
+        <v>2.625</v>
+      </c>
+      <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
-      </c>
-      <c r="N11">
-        <v>2.9</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1.95</v>
-      </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.8</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.8</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1695,52 +1695,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>104</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1749,19 +1749,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1784,37 +1784,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1823,34 +1823,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2493,7 +2493,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2852,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4095,7 +4095,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>90</v>
@@ -4706,7 +4706,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4718,40 +4718,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4763,16 +4763,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4784,7 +4784,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4795,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4807,40 +4807,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>103</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4852,16 +4852,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4873,7 +4873,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5519,7 +5519,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
         <v>79</v>
@@ -6142,7 +6142,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6409,7 +6409,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6765,7 +6765,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>101</v>
@@ -6946,7 +6946,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>4</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -4706,7 +4706,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4718,40 +4718,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4763,16 +4763,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4784,7 +4784,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4795,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4807,40 +4807,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4852,16 +4852,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4873,7 +4873,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -4706,7 +4706,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4718,40 +4718,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4763,16 +4763,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4784,7 +4784,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4795,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4807,40 +4807,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>103</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4852,16 +4852,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4873,7 +4873,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
@@ -235,12 +235,15 @@
     <t>SV Vorwarts Nordhorn</t>
   </si>
   <si>
+    <t>TuS Kirchberg 1909</t>
+  </si>
+  <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -253,12 +256,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t>SG Handwerk Rabenstein</t>
+  </si>
+  <si>
+    <t>FSV Salmrohr</t>
   </si>
   <si>
     <t>H</t>
@@ -693,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AC79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -805,55 +811,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -862,16 +868,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -879,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -894,73 +900,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -983,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -992,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>1.25</v>
@@ -1072,7 +1078,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1081,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1170,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1259,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1339,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1428,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1437,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1517,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1526,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1591,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1606,52 +1612,52 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3.6</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11">
-        <v>1.909</v>
-      </c>
-      <c r="L11">
-        <v>3.75</v>
-      </c>
-      <c r="M11">
-        <v>3.1</v>
-      </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
         <v>1.8</v>
       </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1660,19 +1666,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1680,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1695,52 +1701,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1749,19 +1755,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K13">
         <v>3.25</v>
@@ -1873,7 +1879,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1882,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1971,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15">
         <v>3.25</v>
@@ -2060,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2140,7 +2146,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2229,7 +2235,7 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2238,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2318,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2327,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2407,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2416,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2493,7 +2499,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2505,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2585,7 +2591,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2594,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2683,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2763,7 +2769,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2772,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2852,7 +2858,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2861,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2941,7 +2947,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2950,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3039,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3128,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3208,7 +3214,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3217,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3306,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3386,7 +3392,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3395,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3484,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3564,7 +3570,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3653,7 +3659,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3662,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3751,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3840,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3920,7 +3926,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3929,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -4009,7 +4015,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4018,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4098,7 +4104,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4107,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4187,7 +4193,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4196,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K40">
         <v>1.909</v>
@@ -4276,7 +4282,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4285,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4374,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4463,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4543,7 +4549,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4552,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4632,7 +4638,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4641,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4706,7 +4712,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4718,40 +4724,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4763,16 +4769,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4784,7 +4790,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4795,7 +4801,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4807,40 +4813,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>105</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4852,16 +4858,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4873,7 +4879,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4899,7 +4905,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4908,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4988,7 +4994,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4997,7 +5003,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5077,7 +5083,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5086,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5166,7 +5172,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5175,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5264,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5344,7 +5350,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5353,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5442,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5519,10 +5525,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5531,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5620,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5700,7 +5706,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5709,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5798,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5878,7 +5884,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5887,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5967,7 +5973,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5976,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6053,7 +6059,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6065,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6154,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6234,7 +6240,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6243,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6332,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6421,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6501,7 +6507,7 @@
         <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6510,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6590,7 +6596,7 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6599,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6688,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6765,10 +6771,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6777,7 +6783,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K69">
         <v>3.9</v>
@@ -6866,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6946,7 +6952,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6955,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K71">
         <v>1.285</v>
@@ -7035,7 +7041,7 @@
         <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7044,7 +7050,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -7133,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K73">
         <v>1.333</v>
@@ -7222,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7302,7 +7308,7 @@
         <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7311,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7391,7 +7397,7 @@
         <v>71</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7400,7 +7406,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7489,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7547,6 +7553,184 @@
       </c>
       <c r="AC77">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>8050870</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45387.58333333334</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78">
+        <v>1.8</v>
+      </c>
+      <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
+        <v>3.4</v>
+      </c>
+      <c r="N78">
+        <v>1.8</v>
+      </c>
+      <c r="O78">
+        <v>3.75</v>
+      </c>
+      <c r="P78">
+        <v>3.5</v>
+      </c>
+      <c r="Q78">
+        <v>-0.5</v>
+      </c>
+      <c r="R78">
+        <v>1.825</v>
+      </c>
+      <c r="S78">
+        <v>1.975</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>1.875</v>
+      </c>
+      <c r="V78">
+        <v>1.925</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>2.75</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>8050971</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45387.61458333334</v>
+      </c>
+      <c r="F79" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+      <c r="K79">
+        <v>1.909</v>
+      </c>
+      <c r="L79">
+        <v>3.75</v>
+      </c>
+      <c r="M79">
+        <v>3.1</v>
+      </c>
+      <c r="N79">
+        <v>1.909</v>
+      </c>
+      <c r="O79">
+        <v>3.75</v>
+      </c>
+      <c r="P79">
+        <v>3.2</v>
+      </c>
+      <c r="Q79">
+        <v>-0.5</v>
+      </c>
+      <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
+        <v>1.85</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>1.8</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>2.75</v>
+      </c>
+      <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB79">
+        <v>-1</v>
+      </c>
+      <c r="AC79">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
-    <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
     <t>SV 09 Arnstadt</t>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -814,70 +814,70 @@
         <v>74</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -903,52 +903,52 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -957,16 +957,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -989,73 +989,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1078,73 +1078,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1612,37 +1612,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1651,34 +1651,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1701,52 +1701,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>106</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1755,19 +1755,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1790,73 +1790,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>2.625</v>
+      </c>
+      <c r="Q13">
+        <v>-0.25</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
-      </c>
-      <c r="N13">
-        <v>2.9</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>1.95</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>0.8</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2499,7 +2499,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2858,7 +2858,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4101,7 +4101,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -5525,7 +5525,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
         <v>81</v>
@@ -6059,7 +6059,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6148,7 +6148,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6415,7 +6415,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6771,7 +6771,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>102</v>
@@ -6952,7 +6952,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
-    <t>Bonn Endenich 1908</t>
   </si>
   <si>
     <t>SV 09 Arnstadt</t>
@@ -699,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC79"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -814,52 +814,52 @@
         <v>74</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -868,16 +868,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -903,70 +903,70 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -989,73 +989,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1078,73 +1078,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1612,37 +1612,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1651,34 +1651,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1701,37 +1701,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.8</v>
@@ -1740,34 +1740,34 @@
         <v>2</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -4101,7 +4101,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -5525,7 +5525,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
         <v>81</v>
@@ -6059,7 +6059,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6148,7 +6148,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6415,7 +6415,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -7731,6 +7731,184 @@
       </c>
       <c r="AC79">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>8059643</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45389.4375</v>
+      </c>
+      <c r="F80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80">
+        <v>2.2</v>
+      </c>
+      <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
+        <v>2.7</v>
+      </c>
+      <c r="N80">
+        <v>2.2</v>
+      </c>
+      <c r="O80">
+        <v>3.6</v>
+      </c>
+      <c r="P80">
+        <v>2.625</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>3.25</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>2.6</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>-0.5</v>
+      </c>
+      <c r="AA80">
+        <v>0.4</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>8059644</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45389.4375</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>106</v>
+      </c>
+      <c r="K81">
+        <v>3.75</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1.666</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
+        <v>4.2</v>
+      </c>
+      <c r="P81">
+        <v>1.5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.825</v>
+      </c>
+      <c r="T81">
+        <v>3.5</v>
+      </c>
+      <c r="U81">
+        <v>1.9</v>
+      </c>
+      <c r="V81">
+        <v>1.9</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>0.5</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>0.825</v>
+      </c>
+      <c r="AB81">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC81">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,21 +130,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -256,10 +256,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -814,70 +814,70 @@
         <v>74</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -903,52 +903,52 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -957,16 +957,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -989,73 +989,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1078,73 +1078,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1615,49 +1615,49 @@
         <v>80</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>106</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1666,19 +1666,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1793,49 +1793,49 @@
         <v>81</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>106</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
         <v>1.8</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.825</v>
-      </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1844,19 +1844,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1879,56 +1879,56 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14">
+        <v>3.25</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.25</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
@@ -1936,16 +1936,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1953,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1968,55 +1968,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -2025,16 +2025,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2232,7 +2232,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>79</v>
@@ -2499,7 +2499,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2858,7 +2858,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3033,7 +3033,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4101,7 +4101,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -4712,7 +4712,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4724,40 +4724,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4769,16 +4769,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4801,7 +4801,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4813,40 +4813,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4858,16 +4858,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4879,7 +4879,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4991,7 +4991,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>95</v>
@@ -5525,10 +5525,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6059,7 +6059,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6415,7 +6415,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6771,7 +6771,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>102</v>
@@ -6863,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7216,7 +7216,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7575,7 +7575,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7750,76 +7750,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>1.666</v>
+      </c>
+      <c r="N80">
+        <v>4.75</v>
+      </c>
+      <c r="O80">
+        <v>4.2</v>
+      </c>
+      <c r="P80">
+        <v>1.5</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>2.7</v>
-      </c>
-      <c r="N80">
-        <v>2.2</v>
-      </c>
-      <c r="O80">
-        <v>3.6</v>
-      </c>
-      <c r="P80">
-        <v>2.625</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>1.8</v>
-      </c>
-      <c r="T80">
-        <v>3.25</v>
-      </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7827,7 +7827,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7839,76 +7839,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>3.25</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>2.6</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>-0.5</v>
+      </c>
+      <c r="AA81">
+        <v>0.4</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>0.5</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.825</v>
-      </c>
-      <c r="AB81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,21 +130,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -256,10 +256,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -814,52 +814,52 @@
         <v>74</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -868,16 +868,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -903,70 +903,70 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -989,73 +989,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1078,73 +1078,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1615,49 +1615,49 @@
         <v>80</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>106</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
         <v>1.8</v>
       </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1666,19 +1666,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1701,73 +1701,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
+        <v>3.1</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.6</v>
+      </c>
+      <c r="P12">
+        <v>2.625</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
-      </c>
-      <c r="N12">
-        <v>2.9</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.95</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.8</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1790,37 +1790,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1829,34 +1829,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1879,55 +1879,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="N14">
-        <v>3.25</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1936,16 +1936,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1953,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1968,56 +1968,56 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>1.25</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
@@ -2025,16 +2025,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2232,7 +2232,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>79</v>
@@ -2499,7 +2499,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2858,7 +2858,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3033,7 +3033,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4101,7 +4101,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>91</v>
@@ -4712,7 +4712,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4724,40 +4724,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4769,16 +4769,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4801,7 +4801,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4813,40 +4813,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4858,16 +4858,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4879,7 +4879,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4991,7 +4991,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>95</v>
@@ -5525,10 +5525,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6059,7 +6059,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6148,7 +6148,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6415,7 +6415,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6771,7 +6771,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>102</v>
@@ -6863,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7216,7 +7216,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7575,7 +7575,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7750,76 +7750,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>3.25</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>2.6</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>-0.5</v>
+      </c>
+      <c r="AA80">
+        <v>0.4</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>0.5</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.825</v>
-      </c>
-      <c r="AB80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7827,7 +7827,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7839,76 +7839,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1.666</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
+        <v>4.2</v>
+      </c>
+      <c r="P81">
+        <v>1.5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.825</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.7</v>
-      </c>
-      <c r="N81">
-        <v>2.2</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>3.25</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -256,10 +256,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1612,37 +1612,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1651,34 +1651,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1701,7 +1701,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1790,37 +1790,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1829,34 +1829,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -5525,10 +5525,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6863,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7753,7 +7753,7 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>0</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -238,6 +238,15 @@
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>SGS EssenSchonebeck</t>
+  </si>
+  <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
@@ -256,18 +265,15 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
-    <t>SGS EssenSchonebeck</t>
-  </si>
-  <si>
     <t>Niederrossbach</t>
   </si>
   <si>
@@ -302,9 +308,6 @@
   </si>
   <si>
     <t>SV Budberg</t>
-  </si>
-  <si>
-    <t>SF Niederwenigern</t>
   </si>
   <si>
     <t>SC Rheinbach</t>
@@ -699,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -820,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2">
         <v>2.25</v>
@@ -900,7 +903,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>2.6</v>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4">
         <v>1.25</v>
@@ -1078,7 +1081,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1087,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1176,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1265,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1345,7 +1348,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1354,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1434,7 +1437,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1443,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1523,7 +1526,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1532,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1597,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1612,37 +1615,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1651,34 +1654,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1701,7 +1704,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1710,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1775,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1790,37 +1793,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>106</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1829,34 +1832,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1879,7 +1882,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1888,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1977,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15">
         <v>3.25</v>
@@ -2066,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2146,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2155,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2235,7 +2238,7 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2244,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2324,7 +2327,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2333,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2413,7 +2416,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2422,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2511,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2591,7 +2594,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2600,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2769,7 +2772,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2778,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2867,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2947,7 +2950,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2956,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3045,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3134,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3214,7 +3217,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3223,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3312,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3392,7 +3395,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3401,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3490,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3570,7 +3573,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3579,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3659,7 +3662,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3668,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3846,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3926,7 +3929,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3935,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -4015,7 +4018,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4024,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4104,7 +4107,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4113,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4193,7 +4196,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4202,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <v>1.909</v>
@@ -4282,7 +4285,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -4291,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4380,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4469,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4549,7 +4552,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4558,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4638,7 +4641,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4647,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4736,7 +4739,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46">
         <v>2.75</v>
@@ -4825,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K47">
         <v>3.4</v>
@@ -4905,7 +4908,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4914,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4994,7 +4997,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5003,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5083,7 +5086,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5092,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5172,7 +5175,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5181,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5270,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5350,7 +5353,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5359,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5448,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5525,10 +5528,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5537,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5626,7 +5629,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5706,7 +5709,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5715,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5804,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5884,7 +5887,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5893,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5973,7 +5976,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5982,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6071,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6148,7 +6151,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6160,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6240,7 +6243,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6249,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6338,7 +6341,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6427,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6507,7 +6510,7 @@
         <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6516,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6596,7 +6599,7 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6605,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6694,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6774,7 +6777,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6783,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K69">
         <v>3.9</v>
@@ -6863,7 +6866,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6872,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6961,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K71">
         <v>1.285</v>
@@ -7041,7 +7044,7 @@
         <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7050,7 +7053,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -7139,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K73">
         <v>1.333</v>
@@ -7228,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7308,7 +7311,7 @@
         <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7317,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7397,7 +7400,7 @@
         <v>71</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7406,7 +7409,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7495,7 +7498,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7584,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K78">
         <v>1.8</v>
@@ -7664,7 +7667,7 @@
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7673,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7753,7 +7756,7 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7762,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -7851,7 +7854,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K81">
         <v>3.75</v>
@@ -7909,6 +7912,451 @@
       </c>
       <c r="AC81">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>8075592</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45392.58333333334</v>
+      </c>
+      <c r="F82" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+      <c r="K82">
+        <v>2.4</v>
+      </c>
+      <c r="L82">
+        <v>3.4</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>2.4</v>
+      </c>
+      <c r="O82">
+        <v>3.4</v>
+      </c>
+      <c r="P82">
+        <v>2.5</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>3.25</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
+        <v>1.8</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>2.4</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>-0</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>8075530</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45392.60416666666</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>106</v>
+      </c>
+      <c r="K83">
+        <v>2.1</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>2.7</v>
+      </c>
+      <c r="N83">
+        <v>2.375</v>
+      </c>
+      <c r="O83">
+        <v>3.75</v>
+      </c>
+      <c r="P83">
+        <v>2.45</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
+        <v>1.95</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
+        <v>1.95</v>
+      </c>
+      <c r="W83">
+        <v>1.375</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>8075296</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45392.60416666666</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>107</v>
+      </c>
+      <c r="K84">
+        <v>1.533</v>
+      </c>
+      <c r="L84">
+        <v>4.75</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.4</v>
+      </c>
+      <c r="O84">
+        <v>5.25</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.5</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>3.75</v>
+      </c>
+      <c r="U84">
+        <v>1.9</v>
+      </c>
+      <c r="V84">
+        <v>1.9</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>4</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.825</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>8075670</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45392.625</v>
+      </c>
+      <c r="F85" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>106</v>
+      </c>
+      <c r="K85">
+        <v>1.222</v>
+      </c>
+      <c r="L85">
+        <v>6.5</v>
+      </c>
+      <c r="M85">
+        <v>9.5</v>
+      </c>
+      <c r="N85">
+        <v>1.181</v>
+      </c>
+      <c r="O85">
+        <v>7</v>
+      </c>
+      <c r="P85">
+        <v>11</v>
+      </c>
+      <c r="Q85">
+        <v>-2.5</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>4.25</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>0.181</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
+        <v>0.875</v>
+      </c>
+      <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>8075593</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45392.625</v>
+      </c>
+      <c r="F86" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>107</v>
+      </c>
+      <c r="K86">
+        <v>6.5</v>
+      </c>
+      <c r="L86">
+        <v>4.5</v>
+      </c>
+      <c r="M86">
+        <v>1.363</v>
+      </c>
+      <c r="N86">
+        <v>4.75</v>
+      </c>
+      <c r="O86">
+        <v>4.5</v>
+      </c>
+      <c r="P86">
+        <v>1.5</v>
+      </c>
+      <c r="Q86">
+        <v>1.25</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
+        <v>1.925</v>
+      </c>
+      <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
+        <v>1.8</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>0.5</v>
+      </c>
+      <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>0.925</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
@@ -133,18 +133,18 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -241,18 +241,27 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
+    <t>SV Rott 1927</t>
+  </si>
+  <si>
+    <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -332,6 +341,15 @@
   </si>
   <si>
     <t>FSV Salmrohr</t>
+  </si>
+  <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
+    <t>SV Breinig</t>
   </si>
   <si>
     <t>H</t>
@@ -702,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC86"/>
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -814,73 +832,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -888,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -903,55 +921,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -960,16 +978,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -992,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1001,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>1.25</v>
@@ -1081,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1090,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1179,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1268,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1348,7 +1366,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1357,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1437,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1446,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1526,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1535,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1615,7 +1633,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1624,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1689,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1704,73 +1722,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12">
+        <v>3.25</v>
+      </c>
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12">
-        <v>1.909</v>
-      </c>
-      <c r="L12">
-        <v>3.75</v>
-      </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1778,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1793,73 +1811,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>2.625</v>
+      </c>
+      <c r="Q13">
+        <v>-0.25</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
-      </c>
-      <c r="N13">
-        <v>2.9</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>1.95</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>0.8</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1867,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1882,56 +1900,56 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14">
+        <v>3.25</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14">
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.25</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
@@ -1939,16 +1957,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1956,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1971,55 +1989,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -2028,16 +2046,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2069,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2149,7 +2167,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2158,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2235,10 +2253,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2247,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2336,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2416,7 +2434,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2425,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2502,7 +2520,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2514,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2594,7 +2612,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2603,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2692,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2772,7 +2790,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2781,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2861,7 +2879,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2870,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2950,7 +2968,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2959,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3036,7 +3054,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -3048,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3137,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3217,7 +3235,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3226,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3315,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3395,7 +3413,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3404,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3493,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3573,7 +3591,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3582,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3662,7 +3680,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3671,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3760,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3849,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3929,7 +3947,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3938,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -4018,7 +4036,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4027,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4107,7 +4125,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4116,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4181,7 +4199,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4193,58 +4211,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4253,16 +4271,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4270,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4282,58 +4300,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4342,16 +4360,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4383,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4472,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4552,7 +4570,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4561,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4641,7 +4659,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4650,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4715,7 +4733,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4727,40 +4745,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4772,16 +4790,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4793,7 +4811,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4804,7 +4822,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4816,40 +4834,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4861,16 +4879,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4882,7 +4900,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4908,7 +4926,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4917,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4994,10 +5012,10 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5006,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5086,7 +5104,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5095,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5175,7 +5193,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5184,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5273,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5353,7 +5371,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5362,7 +5380,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5451,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5531,7 +5549,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5540,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5629,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5709,7 +5727,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5718,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5798,7 +5816,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5807,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5887,7 +5905,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5896,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5976,7 +5994,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5985,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6062,7 +6080,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6074,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6151,7 +6169,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6163,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6243,7 +6261,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6252,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6341,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6430,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6510,7 +6528,7 @@
         <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6519,7 +6537,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6599,7 +6617,7 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6608,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6697,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6774,10 +6792,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6786,7 +6804,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K69">
         <v>3.9</v>
@@ -6866,7 +6884,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6875,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6955,7 +6973,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6964,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K71">
         <v>1.285</v>
@@ -7044,7 +7062,7 @@
         <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7053,7 +7071,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -7142,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K73">
         <v>1.333</v>
@@ -7219,7 +7237,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7231,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7311,7 +7329,7 @@
         <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7320,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7400,7 +7418,7 @@
         <v>71</v>
       </c>
       <c r="G76" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7409,7 +7427,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7498,7 +7516,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7578,7 +7596,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7587,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K78">
         <v>1.8</v>
@@ -7667,7 +7685,7 @@
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7676,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7756,7 +7774,7 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7765,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -7854,7 +7872,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K81">
         <v>3.75</v>
@@ -7943,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K82">
         <v>2.4</v>
@@ -8023,7 +8041,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8032,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K83">
         <v>2.1</v>
@@ -8121,7 +8139,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K84">
         <v>1.533</v>
@@ -8186,7 +8204,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8201,73 +8219,73 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="N85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="O85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8275,7 +8293,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8290,73 +8308,340 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K86">
+        <v>1.222</v>
+      </c>
+      <c r="L86">
         <v>6.5</v>
       </c>
-      <c r="L86">
+      <c r="M86">
+        <v>9.5</v>
+      </c>
+      <c r="N86">
+        <v>1.181</v>
+      </c>
+      <c r="O86">
+        <v>7</v>
+      </c>
+      <c r="P86">
+        <v>11</v>
+      </c>
+      <c r="Q86">
+        <v>-2.5</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>4.25</v>
+      </c>
+      <c r="U86">
+        <v>1.8</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>0.181</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>0.875</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>8076477</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45393.60416666666</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+      <c r="K87">
+        <v>1.833</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>3.1</v>
+      </c>
+      <c r="N87">
+        <v>1.833</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>3.1</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3.75</v>
+      </c>
+      <c r="U87">
+        <v>1.975</v>
+      </c>
+      <c r="V87">
+        <v>1.825</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>3</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.925</v>
+      </c>
+      <c r="AB87">
+        <v>0.4875</v>
+      </c>
+      <c r="AC87">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>8077795</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45393.60416666666</v>
+      </c>
+      <c r="F88" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K88">
+        <v>1.142</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>1.083</v>
+      </c>
+      <c r="O88">
+        <v>11</v>
+      </c>
+      <c r="P88">
+        <v>19</v>
+      </c>
+      <c r="Q88">
+        <v>-3.5</v>
+      </c>
+      <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
+        <v>1.825</v>
+      </c>
+      <c r="T88">
+        <v>5</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>1.975</v>
+      </c>
+      <c r="W88">
+        <v>0.08299999999999996</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.825</v>
+      </c>
+      <c r="AB88">
+        <v>0.825</v>
+      </c>
+      <c r="AC88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>8076438</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45393.60416666666</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>113</v>
+      </c>
+      <c r="K89">
+        <v>1.363</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>5.5</v>
+      </c>
+      <c r="N89">
+        <v>1.65</v>
+      </c>
+      <c r="O89">
         <v>4.5</v>
       </c>
-      <c r="M86">
-        <v>1.363</v>
-      </c>
-      <c r="N86">
-        <v>4.75</v>
-      </c>
-      <c r="O86">
-        <v>4.5</v>
-      </c>
-      <c r="P86">
-        <v>1.5</v>
-      </c>
-      <c r="Q86">
-        <v>1.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>3.75</v>
-      </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
-      <c r="V86">
-        <v>1.8</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>0.5</v>
-      </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
-      <c r="AA86">
-        <v>0.925</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.8</v>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
+        <v>3.5</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>2.5</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB89">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC89">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -109,12 +109,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SV Schott Jena</t>
+  </si>
+  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -241,19 +241,22 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
+    <t>SV Rott 1927</t>
+  </si>
+  <si>
+    <t>Eiche Horn</t>
   </si>
   <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
-    <t>SV Rott 1927</t>
+    <t>TuS Immendorf</t>
   </si>
   <si>
     <t>FV Dresden 06 Laubegast</t>
@@ -343,13 +346,19 @@
     <t>FSV Salmrohr</t>
   </si>
   <si>
+    <t>VfB Speldorf</t>
+  </si>
+  <si>
+    <t>SV Breinig</t>
+  </si>
+  <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
   </si>
   <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SV Breinig</t>
+    <t>Sportfreunde Eisbachtal</t>
   </si>
   <si>
     <t>H</t>
@@ -720,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC89"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +841,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <v>2.6</v>
@@ -921,7 +930,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -930,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -995,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1010,73 +1019,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1084,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1099,73 +1108,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1197,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1286,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1366,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1375,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1455,7 +1464,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1464,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1544,7 +1553,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1553,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>1.833</v>
@@ -1633,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1642,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1707,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1722,73 +1731,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
+        <v>3.1</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.6</v>
+      </c>
+      <c r="P12">
+        <v>2.625</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
-      </c>
-      <c r="N12">
-        <v>2.9</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.95</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.8</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1796,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1811,73 +1820,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13">
+        <v>3.25</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13">
-        <v>1.909</v>
-      </c>
-      <c r="L13">
-        <v>3.75</v>
-      </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1909,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K14">
         <v>3.25</v>
@@ -1989,7 +1998,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1998,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -2087,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2167,7 +2176,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2176,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>1.909</v>
@@ -2256,7 +2265,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2265,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2354,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2434,7 +2443,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2443,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2520,7 +2529,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2532,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2612,7 +2621,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -2621,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <v>1.5</v>
@@ -2710,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2790,7 +2799,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2799,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2879,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2888,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2968,7 +2977,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2977,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3066,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K27">
         <v>3.4</v>
@@ -3155,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K28">
         <v>1.4</v>
@@ -3235,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3244,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K29">
         <v>2.7</v>
@@ -3333,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3413,7 +3422,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3422,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3511,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3591,7 +3600,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3600,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3680,7 +3689,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3689,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3778,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3867,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3947,7 +3956,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3956,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>1.333</v>
@@ -4036,7 +4045,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4045,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K38">
         <v>4.2</v>
@@ -4122,10 +4131,10 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4134,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K39">
         <v>2.4</v>
@@ -4214,7 +4223,7 @@
         <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4223,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4303,7 +4312,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4312,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K41">
         <v>1.909</v>
@@ -4401,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K42">
         <v>2.7</v>
@@ -4490,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K43">
         <v>4.5</v>
@@ -4570,7 +4579,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -4579,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4659,7 +4668,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4668,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4757,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K46">
         <v>3.4</v>
@@ -4846,7 +4855,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K47">
         <v>2.75</v>
@@ -4926,7 +4935,7 @@
         <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4935,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5015,7 +5024,7 @@
         <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5024,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -5104,7 +5113,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5113,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -5193,7 +5202,7 @@
         <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5202,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5291,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5371,7 +5380,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5380,7 +5389,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K53">
         <v>3.6</v>
@@ -5469,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K54">
         <v>4.2</v>
@@ -5549,7 +5558,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5558,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5647,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5727,7 +5736,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5736,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K57">
         <v>3.5</v>
@@ -5825,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5905,7 +5914,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5914,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5994,7 +6003,7 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6003,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6092,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -6169,7 +6178,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6181,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K62">
         <v>2.15</v>
@@ -6261,7 +6270,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6270,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6359,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6436,7 +6445,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6448,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6528,7 +6537,7 @@
         <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6537,7 +6546,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6617,7 +6626,7 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6626,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K67">
         <v>2.15</v>
@@ -6715,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6792,10 +6801,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6804,7 +6813,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K69">
         <v>3.9</v>
@@ -6884,7 +6893,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6893,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6973,7 +6982,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6982,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K71">
         <v>1.285</v>
@@ -7062,7 +7071,7 @@
         <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7071,7 +7080,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -7160,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K73">
         <v>1.333</v>
@@ -7249,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7329,7 +7338,7 @@
         <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7338,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7418,7 +7427,7 @@
         <v>71</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7427,7 +7436,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7516,7 +7525,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7605,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K78">
         <v>1.8</v>
@@ -7685,7 +7694,7 @@
         <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7694,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7759,7 +7768,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7771,76 +7780,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>1.666</v>
+      </c>
+      <c r="N80">
+        <v>4.75</v>
+      </c>
+      <c r="O80">
+        <v>4.2</v>
+      </c>
+      <c r="P80">
+        <v>1.5</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>2.7</v>
-      </c>
-      <c r="N80">
-        <v>2.2</v>
-      </c>
-      <c r="O80">
-        <v>3.6</v>
-      </c>
-      <c r="P80">
-        <v>2.625</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>1.8</v>
-      </c>
-      <c r="T80">
-        <v>3.25</v>
-      </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7848,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7860,76 +7869,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>3.25</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>2.6</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>-0.5</v>
+      </c>
+      <c r="AA81">
+        <v>0.4</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>0.5</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.825</v>
-      </c>
-      <c r="AB81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7961,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K82">
         <v>2.4</v>
@@ -8041,7 +8050,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8050,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K83">
         <v>2.1</v>
@@ -8139,7 +8148,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K84">
         <v>1.533</v>
@@ -8204,7 +8213,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8219,73 +8228,73 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K85">
+        <v>1.222</v>
+      </c>
+      <c r="L85">
         <v>6.5</v>
       </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
       <c r="M85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="N85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>1.875</v>
       </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8293,7 +8302,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8308,73 +8317,73 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="L86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="N86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
         <v>1.8</v>
       </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8382,7 +8391,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8076477</v>
+        <v>8076436</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8391,43 +8400,43 @@
         <v>28</v>
       </c>
       <c r="E87" s="2">
-        <v>45393.60416666666</v>
+        <v>45393.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K87">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
         <v>1.875</v>
@@ -8448,10 +8457,10 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
@@ -8471,7 +8480,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8077795</v>
+        <v>8076438</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8483,73 +8492,73 @@
         <v>45393.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+      <c r="K88">
+        <v>1.363</v>
+      </c>
+      <c r="L88">
         <v>5</v>
       </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K88">
-        <v>1.142</v>
-      </c>
-      <c r="L88">
-        <v>7</v>
-      </c>
       <c r="M88">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
-        <v>1.083</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>-3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
         <v>1.975</v>
       </c>
-      <c r="S88">
+      <c r="T88">
+        <v>3.5</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
         <v>1.825</v>
       </c>
-      <c r="T88">
-        <v>5</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
       <c r="W88">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8560,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076438</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8572,75 +8581,342 @@
         <v>45393.60416666666</v>
       </c>
       <c r="F89" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>115</v>
+      </c>
+      <c r="K89">
+        <v>1.142</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>1.083</v>
+      </c>
+      <c r="O89">
+        <v>11</v>
+      </c>
+      <c r="P89">
+        <v>19</v>
+      </c>
+      <c r="Q89">
+        <v>-3.5</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
+        <v>5</v>
+      </c>
+      <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
+        <v>1.975</v>
+      </c>
+      <c r="W89">
+        <v>0.08299999999999996</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.825</v>
+      </c>
+      <c r="AB89">
+        <v>0.825</v>
+      </c>
+      <c r="AC89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>8076477</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45393.60416666666</v>
+      </c>
+      <c r="F90" t="s">
         <v>79</v>
       </c>
-      <c r="G89" t="s">
-        <v>111</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+      <c r="K90">
+        <v>1.833</v>
+      </c>
+      <c r="L90">
         <v>4</v>
       </c>
-      <c r="J89" t="s">
-        <v>113</v>
-      </c>
-      <c r="K89">
+      <c r="M90">
+        <v>3.1</v>
+      </c>
+      <c r="N90">
+        <v>1.833</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>3.1</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
+        <v>1.925</v>
+      </c>
+      <c r="T90">
+        <v>3.75</v>
+      </c>
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.925</v>
+      </c>
+      <c r="AB90">
+        <v>0.4875</v>
+      </c>
+      <c r="AC90">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>8076435</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45393.625</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+      <c r="K91">
+        <v>1.727</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>3.5</v>
+      </c>
+      <c r="N91">
+        <v>1.7</v>
+      </c>
+      <c r="O91">
+        <v>4.2</v>
+      </c>
+      <c r="P91">
+        <v>3.5</v>
+      </c>
+      <c r="Q91">
+        <v>-0.75</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
+        <v>1.9</v>
+      </c>
+      <c r="V91">
+        <v>1.9</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>2.5</v>
+      </c>
+      <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>0.875</v>
+      </c>
+      <c r="AB91">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>8086837</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45394.60416666666</v>
+      </c>
+      <c r="F92" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92">
+        <v>5.5</v>
+      </c>
+      <c r="M92">
         <v>1.363</v>
       </c>
-      <c r="L89">
-        <v>5</v>
-      </c>
-      <c r="M89">
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92">
         <v>5.5</v>
       </c>
-      <c r="N89">
-        <v>1.65</v>
-      </c>
-      <c r="O89">
+      <c r="P92">
+        <v>1.45</v>
+      </c>
+      <c r="Q92">
+        <v>1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3.5</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
+        <v>1.825</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>4.5</v>
       </c>
-      <c r="P89">
-        <v>3.5</v>
-      </c>
-      <c r="Q89">
-        <v>-0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
-      <c r="T89">
-        <v>3.5</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>2.5</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB89">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC89">
+      <c r="AC92">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -109,12 +109,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SSV Markranstadt</t>
+  </si>
+  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>SV Rott 1927</t>
   </si>
   <si>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -352,10 +352,10 @@
     <t>SV Breinig</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1019,73 +1019,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1108,73 +1108,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1642,37 +1642,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -1681,34 +1681,34 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1731,7 +1731,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1805,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1820,37 +1820,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1859,34 +1859,34 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -4131,7 +4131,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -4208,7 +4208,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4220,13 +4220,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4235,43 +4235,43 @@
         <v>115</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4280,16 +4280,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4297,7 +4297,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4309,13 +4309,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4324,43 +4324,43 @@
         <v>115</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4369,16 +4369,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4742,7 +4742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4754,40 +4754,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>2.1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>1.6</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>115</v>
-      </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>2.8</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.95</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4799,16 +4799,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4820,7 +4820,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4831,7 +4831,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4843,40 +4843,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4888,16 +4888,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4909,7 +4909,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5555,10 +5555,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6445,7 +6445,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6893,7 +6893,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7768,7 +7768,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7780,76 +7780,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>3.25</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>2.6</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>-0.5</v>
+      </c>
+      <c r="AA80">
+        <v>0.4</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>0.5</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.825</v>
-      </c>
-      <c r="AB80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7857,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7869,76 +7869,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1.666</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
+        <v>4.2</v>
+      </c>
+      <c r="P81">
+        <v>1.5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.825</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.7</v>
-      </c>
-      <c r="N81">
-        <v>2.2</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>3.25</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8035,7 +8035,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8047,76 +8047,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L83">
+        <v>4.75</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.4</v>
+      </c>
+      <c r="O83">
+        <v>5.25</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>-1.5</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
         <v>3.75</v>
       </c>
-      <c r="M83">
-        <v>2.7</v>
-      </c>
-      <c r="N83">
-        <v>2.375</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>2.45</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1.85</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8136,76 +8136,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8569,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8587,56 +8587,56 @@
         <v>112</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K89">
+        <v>1.833</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>3.1</v>
+      </c>
+      <c r="N89">
+        <v>1.833</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>3.1</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>3.75</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>3</v>
       </c>
-      <c r="J89" t="s">
-        <v>115</v>
-      </c>
-      <c r="K89">
-        <v>1.142</v>
-      </c>
-      <c r="L89">
-        <v>7</v>
-      </c>
-      <c r="M89">
-        <v>10</v>
-      </c>
-      <c r="N89">
-        <v>1.083</v>
-      </c>
-      <c r="O89">
-        <v>11</v>
-      </c>
-      <c r="P89">
-        <v>19</v>
-      </c>
-      <c r="Q89">
-        <v>-3.5</v>
-      </c>
-      <c r="R89">
-        <v>1.975</v>
-      </c>
-      <c r="S89">
-        <v>1.825</v>
-      </c>
-      <c r="T89">
-        <v>5</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
-      <c r="W89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
         <v>-1</v>
       </c>
@@ -8644,13 +8644,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8676,55 +8676,55 @@
         <v>113</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P90">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8733,13 +8733,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8759,7 +8759,7 @@
         <v>45393.625</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>51</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>Spvgg Steele 0309</t>
+  </si>
+  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -241,30 +241,30 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
+    <t>Eiche Horn</t>
   </si>
   <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -349,13 +349,13 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SV Breinig</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -844,52 +844,52 @@
         <v>81</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -898,16 +898,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -933,70 +933,70 @@
         <v>82</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>115</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1019,7 +1019,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1894,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1909,55 +1909,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>115</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="N14">
-        <v>3.25</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1966,16 +1966,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1998,56 +1998,56 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
       </c>
       <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>1.25</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
@@ -2055,16 +2055,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2262,7 +2262,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3063,7 +3063,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4208,7 +4208,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4220,13 +4220,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4235,43 +4235,43 @@
         <v>115</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4280,16 +4280,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4297,7 +4297,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4309,13 +4309,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4324,43 +4324,43 @@
         <v>115</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4369,16 +4369,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5021,7 +5021,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>101</v>
@@ -5113,7 +5113,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5380,7 +5380,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5825,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -7246,7 +7246,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7605,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8047,76 +8047,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8136,76 +8136,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L84">
+        <v>4.75</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.4</v>
+      </c>
+      <c r="O84">
+        <v>5.25</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.5</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
         <v>3.75</v>
       </c>
-      <c r="M84">
-        <v>2.7</v>
-      </c>
-      <c r="N84">
-        <v>2.375</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>2.45</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8213,7 +8213,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8228,73 +8228,73 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="N85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="O85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8302,7 +8302,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8317,73 +8317,73 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K86">
+        <v>1.222</v>
+      </c>
+      <c r="L86">
         <v>6.5</v>
       </c>
-      <c r="L86">
-        <v>4.5</v>
-      </c>
       <c r="M86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="N86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="O86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
         <v>1.875</v>
       </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8403,7 +8403,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>110</v>
@@ -8480,7 +8480,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076438</v>
+        <v>8076477</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8498,43 +8498,43 @@
         <v>111</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88">
+        <v>1.833</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K88">
-        <v>1.363</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O88">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U88">
         <v>1.975</v>
@@ -8546,22 +8546,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y88">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8569,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8587,55 +8587,55 @@
         <v>112</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
         <v>1.975</v>
       </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8644,13 +8644,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8077795</v>
+        <v>8076438</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8676,67 +8676,67 @@
         <v>113</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+      <c r="K90">
+        <v>1.363</v>
+      </c>
+      <c r="L90">
         <v>5</v>
       </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
-      <c r="J90" t="s">
-        <v>115</v>
-      </c>
-      <c r="K90">
-        <v>1.142</v>
-      </c>
-      <c r="L90">
-        <v>7</v>
-      </c>
       <c r="M90">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.083</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>-3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
+      <c r="T90">
+        <v>3.5</v>
+      </c>
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
         <v>1.825</v>
       </c>
-      <c r="T90">
-        <v>5</v>
-      </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
-      <c r="V90">
-        <v>1.975</v>
-      </c>
       <c r="W90">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
         <v>-1</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>ASV Mettmann</t>
+  </si>
+  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -247,24 +247,24 @@
     <t>SF Niederwenigern</t>
   </si>
   <si>
+    <t>SV Rott 1927</t>
+  </si>
+  <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
-    <t>SV Rott 1927</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -349,13 +349,13 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SV Breinig</t>
+  </si>
+  <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SV Breinig</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -844,70 +844,70 @@
         <v>81</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -933,52 +933,52 @@
         <v>82</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>115</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -987,16 +987,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1019,73 +1019,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1108,73 +1108,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1894,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1909,56 +1909,56 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>115</v>
       </c>
       <c r="K14">
+        <v>3.25</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.25</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
@@ -1966,16 +1966,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1998,55 +1998,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -2055,16 +2055,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2262,7 +2262,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3063,7 +3063,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4131,7 +4131,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5021,7 +5021,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>101</v>
@@ -5825,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6445,7 +6445,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -7246,7 +7246,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7605,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7780,76 +7780,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>1.666</v>
+      </c>
+      <c r="N80">
+        <v>4.75</v>
+      </c>
+      <c r="O80">
+        <v>4.2</v>
+      </c>
+      <c r="P80">
+        <v>1.5</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>2.7</v>
-      </c>
-      <c r="N80">
-        <v>2.2</v>
-      </c>
-      <c r="O80">
-        <v>3.6</v>
-      </c>
-      <c r="P80">
-        <v>2.625</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>1.8</v>
-      </c>
-      <c r="T80">
-        <v>3.25</v>
-      </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7857,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7869,76 +7869,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>3.25</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>2.6</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>-0.5</v>
+      </c>
+      <c r="AA81">
+        <v>0.4</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>0.5</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.825</v>
-      </c>
-      <c r="AB81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8035,7 +8035,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8047,76 +8047,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L83">
+        <v>4.75</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.4</v>
+      </c>
+      <c r="O83">
+        <v>5.25</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>-1.5</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
         <v>3.75</v>
       </c>
-      <c r="M83">
-        <v>2.7</v>
-      </c>
-      <c r="N83">
-        <v>2.375</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>2.45</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1.85</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8136,76 +8136,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8403,7 +8403,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
         <v>110</v>
@@ -8480,7 +8480,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076477</v>
+        <v>8076438</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8498,43 +8498,43 @@
         <v>111</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K88">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
         <v>1.975</v>
@@ -8546,22 +8546,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076438</v>
+        <v>8076477</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8676,43 +8676,43 @@
         <v>113</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+      <c r="K90">
+        <v>1.833</v>
+      </c>
+      <c r="L90">
         <v>4</v>
       </c>
-      <c r="J90" t="s">
-        <v>116</v>
-      </c>
-      <c r="K90">
-        <v>1.363</v>
-      </c>
-      <c r="L90">
-        <v>5</v>
-      </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8724,22 +8724,22 @@
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -133,18 +133,18 @@
     <t>SG Unterrath</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -277,10 +277,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1734,49 +1734,49 @@
         <v>87</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1785,19 +1785,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1805,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1823,49 +1823,49 @@
         <v>88</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>116</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
       </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1874,19 +1874,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1894,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1909,55 +1909,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>115</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="N14">
-        <v>3.25</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1966,16 +1966,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1998,56 +1998,56 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
       </c>
       <c r="K15">
+        <v>3.25</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
+        <v>1.825</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>2.5</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>1.25</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
@@ -2055,16 +2055,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2262,7 +2262,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -2529,7 +2529,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3063,7 +3063,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -5021,7 +5021,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>101</v>
@@ -5555,10 +5555,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6801,7 +6801,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>107</v>
@@ -6893,7 +6893,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7246,7 +7246,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7605,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7780,76 +7780,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>3.25</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>2.6</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>-0.5</v>
+      </c>
+      <c r="AA80">
+        <v>0.4</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>0.5</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.825</v>
-      </c>
-      <c r="AB80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7857,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7869,76 +7869,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1.666</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
+        <v>4.2</v>
+      </c>
+      <c r="P81">
+        <v>1.5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.825</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.7</v>
-      </c>
-      <c r="N81">
-        <v>2.2</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>3.25</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8035,7 +8035,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8047,76 +8047,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8136,76 +8136,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L84">
+        <v>4.75</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.4</v>
+      </c>
+      <c r="O84">
+        <v>5.25</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.5</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
         <v>3.75</v>
       </c>
-      <c r="M84">
-        <v>2.7</v>
-      </c>
-      <c r="N84">
-        <v>2.375</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>2.45</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8403,7 +8403,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>110</v>
@@ -8759,7 +8759,7 @@
         <v>45393.625</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>51</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>SG Unterrath</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -241,30 +241,30 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -352,10 +352,10 @@
     <t>SV Breinig</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -844,52 +844,52 @@
         <v>81</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -898,16 +898,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -933,70 +933,70 @@
         <v>82</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>115</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1019,73 +1019,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1108,73 +1108,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1734,49 +1734,49 @@
         <v>87</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
         <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1785,19 +1785,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1805,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1823,49 +1823,49 @@
         <v>88</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>116</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
         <v>1.8</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.825</v>
-      </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1874,19 +1874,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2529,7 +2529,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4131,7 +4131,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -5113,7 +5113,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5380,7 +5380,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5555,10 +5555,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6445,7 +6445,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -6801,7 +6801,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>107</v>
@@ -6893,7 +6893,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -8035,7 +8035,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8047,76 +8047,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L83">
+        <v>4.75</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.4</v>
+      </c>
+      <c r="O83">
+        <v>5.25</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <v>-1.5</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
         <v>3.75</v>
       </c>
-      <c r="M83">
-        <v>2.7</v>
-      </c>
-      <c r="N83">
-        <v>2.375</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>2.45</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1.85</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8136,76 +8136,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8213,7 +8213,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8228,73 +8228,73 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K85">
+        <v>1.222</v>
+      </c>
+      <c r="L85">
         <v>6.5</v>
       </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
       <c r="M85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="N85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>1.875</v>
       </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8302,7 +8302,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8317,73 +8317,73 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="L86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="N86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
         <v>1.8</v>
       </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8569,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8587,56 +8587,56 @@
         <v>112</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K89">
+        <v>1.833</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>3.1</v>
+      </c>
+      <c r="N89">
+        <v>1.833</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>3.1</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>3.75</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>3</v>
       </c>
-      <c r="J89" t="s">
-        <v>115</v>
-      </c>
-      <c r="K89">
-        <v>1.142</v>
-      </c>
-      <c r="L89">
-        <v>7</v>
-      </c>
-      <c r="M89">
-        <v>10</v>
-      </c>
-      <c r="N89">
-        <v>1.083</v>
-      </c>
-      <c r="O89">
-        <v>11</v>
-      </c>
-      <c r="P89">
-        <v>19</v>
-      </c>
-      <c r="Q89">
-        <v>-3.5</v>
-      </c>
-      <c r="R89">
-        <v>1.975</v>
-      </c>
-      <c r="S89">
-        <v>1.825</v>
-      </c>
-      <c r="T89">
-        <v>5</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
-      <c r="W89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
         <v>-1</v>
       </c>
@@ -8644,13 +8644,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8676,55 +8676,55 @@
         <v>113</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P90">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8733,13 +8733,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8759,7 +8759,7 @@
         <v>45393.625</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>51</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,12 +103,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
@@ -241,30 +241,30 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -352,10 +352,10 @@
     <t>SV Breinig</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -844,70 +844,70 @@
         <v>81</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
+        <v>2.6</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.25</v>
+      </c>
+      <c r="R2">
         <v>1.75</v>
       </c>
-      <c r="O2">
-        <v>3.6</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>3.25</v>
+      </c>
+      <c r="U2">
+        <v>1.775</v>
+      </c>
+      <c r="V2">
+        <v>2.025</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -933,52 +933,52 @@
         <v>82</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>115</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -987,16 +987,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1019,7 +1019,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1642,73 +1642,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
+        <v>3.1</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>3.6</v>
+      </c>
+      <c r="P11">
+        <v>2.625</v>
+      </c>
+      <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
-      </c>
-      <c r="N11">
-        <v>2.9</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1.95</v>
-      </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.8</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.8</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1731,73 +1731,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12">
+        <v>3.25</v>
+      </c>
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12">
-        <v>1.909</v>
-      </c>
-      <c r="L12">
-        <v>3.75</v>
-      </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2529,7 +2529,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4742,7 +4742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4754,40 +4754,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4799,16 +4799,16 @@
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4820,7 +4820,7 @@
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4831,7 +4831,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4843,40 +4843,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47">
+        <v>2.75</v>
+      </c>
+      <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>1.6</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>115</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4.2</v>
-      </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>1.95</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4888,16 +4888,16 @@
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4909,7 +4909,7 @@
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5113,7 +5113,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5380,7 +5380,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6178,7 +6178,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6801,7 +6801,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>107</v>
@@ -6982,7 +6982,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7783,7 +7783,7 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8228,73 +8228,73 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="N85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="O85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8302,7 +8302,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8317,73 +8317,73 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K86">
+        <v>1.222</v>
+      </c>
+      <c r="L86">
         <v>6.5</v>
       </c>
-      <c r="L86">
-        <v>4.5</v>
-      </c>
       <c r="M86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="N86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="O86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
         <v>1.875</v>
       </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8569,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8587,55 +8587,55 @@
         <v>112</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
         <v>1.975</v>
       </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8644,13 +8644,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8676,56 +8676,56 @@
         <v>113</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+      <c r="K90">
+        <v>1.833</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>3.1</v>
+      </c>
+      <c r="N90">
+        <v>1.833</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>3.1</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
+        <v>1.925</v>
+      </c>
+      <c r="T90">
+        <v>3.75</v>
+      </c>
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
         <v>3</v>
       </c>
-      <c r="J90" t="s">
-        <v>115</v>
-      </c>
-      <c r="K90">
-        <v>1.142</v>
-      </c>
-      <c r="L90">
-        <v>7</v>
-      </c>
-      <c r="M90">
-        <v>10</v>
-      </c>
-      <c r="N90">
-        <v>1.083</v>
-      </c>
-      <c r="O90">
-        <v>11</v>
-      </c>
-      <c r="P90">
-        <v>19</v>
-      </c>
-      <c r="Q90">
-        <v>-3.5</v>
-      </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>5</v>
-      </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
-      <c r="V90">
-        <v>1.975</v>
-      </c>
-      <c r="W90">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
       <c r="Y90">
         <v>-1</v>
       </c>
@@ -8733,13 +8733,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -130,15 +130,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -241,21 +241,21 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
+    <t>Eiche Horn</t>
   </si>
   <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -349,13 +349,13 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SV Breinig</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1642,73 +1642,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11">
+        <v>3.25</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11">
-        <v>1.909</v>
-      </c>
-      <c r="L11">
-        <v>3.75</v>
-      </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1731,37 +1731,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
         <v>1.8</v>
@@ -1770,34 +1770,34 @@
         <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1805,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1823,49 +1823,49 @@
         <v>88</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>116</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
       </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1874,19 +1874,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2529,7 +2529,7 @@
         <v>45184.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -5113,7 +5113,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5380,7 +5380,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5555,10 +5555,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6801,7 +6801,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>107</v>
@@ -6893,7 +6893,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7768,7 +7768,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7780,76 +7780,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>1.666</v>
+      </c>
+      <c r="N80">
+        <v>4.75</v>
+      </c>
+      <c r="O80">
+        <v>4.2</v>
+      </c>
+      <c r="P80">
+        <v>1.5</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>2.7</v>
-      </c>
-      <c r="N80">
-        <v>2.2</v>
-      </c>
-      <c r="O80">
-        <v>3.6</v>
-      </c>
-      <c r="P80">
-        <v>2.625</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>1.8</v>
-      </c>
-      <c r="T80">
-        <v>3.25</v>
-      </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7857,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7869,76 +7869,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>3.25</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>2.6</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>-0.5</v>
+      </c>
+      <c r="AA81">
+        <v>0.4</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>0.5</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.825</v>
-      </c>
-      <c r="AB81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8213,7 +8213,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8228,73 +8228,73 @@
         <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K85">
+        <v>1.222</v>
+      </c>
+      <c r="L85">
         <v>6.5</v>
       </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
       <c r="M85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="N85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>1.875</v>
       </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8302,7 +8302,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8317,73 +8317,73 @@
         <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="L86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="N86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
         <v>1.8</v>
       </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8480,7 +8480,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076438</v>
+        <v>8076477</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8498,43 +8498,43 @@
         <v>111</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88">
+        <v>1.833</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K88">
-        <v>1.363</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O88">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U88">
         <v>1.975</v>
@@ -8546,22 +8546,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y88">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8658,7 +8658,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076477</v>
+        <v>8076438</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8676,43 +8676,43 @@
         <v>113</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8724,22 +8724,22 @@
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8759,7 +8759,7 @@
         <v>45393.625</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>51</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -103,18 +103,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>SC Dsseldorf West</t>
   </si>
   <si>
+    <t>ASV Mettmann</t>
+  </si>
+  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -247,24 +247,24 @@
     <t>FSV Duisburg</t>
   </si>
   <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -349,10 +349,10 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
   </si>
   <si>
     <t>SV Breinig</t>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -844,52 +844,52 @@
         <v>81</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -898,16 +898,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -933,70 +933,70 @@
         <v>82</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>115</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
+        <v>2.6</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
+        <v>2.025</v>
+      </c>
+      <c r="W3">
+        <v>1.6</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.8</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1019,73 +1019,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1108,73 +1108,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1894,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1909,56 +1909,56 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>115</v>
       </c>
       <c r="K14">
+        <v>3.25</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1.8</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.85</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>2.5</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>2.5</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.25</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
@@ -1966,16 +1966,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1998,55 +1998,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -2055,16 +2055,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2262,7 +2262,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3063,7 +3063,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -4131,7 +4131,7 @@
         <v>45234.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -4208,7 +4208,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4220,13 +4220,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4235,43 +4235,43 @@
         <v>115</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4280,16 +4280,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4297,7 +4297,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4309,13 +4309,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4324,43 +4324,43 @@
         <v>115</v>
       </c>
       <c r="K41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4369,16 +4369,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5021,7 +5021,7 @@
         <v>45261.625</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>101</v>
@@ -5825,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>45350.625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -6445,7 +6445,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>66</v>
@@ -7246,7 +7246,7 @@
         <v>45378.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7605,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7780,76 +7780,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>1.8</v>
+      </c>
+      <c r="T80">
+        <v>3.25</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>2.6</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>-0.5</v>
+      </c>
+      <c r="AA80">
+        <v>0.4</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>0.5</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.825</v>
-      </c>
-      <c r="AB80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7857,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7869,76 +7869,76 @@
         <v>45389.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1.666</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
+        <v>4.2</v>
+      </c>
+      <c r="P81">
+        <v>1.5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.825</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.7</v>
-      </c>
-      <c r="N81">
-        <v>2.2</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>3.25</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8035,7 +8035,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8047,76 +8047,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8124,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8136,76 +8136,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L84">
+        <v>4.75</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>1.4</v>
+      </c>
+      <c r="O84">
+        <v>5.25</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.5</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
         <v>3.75</v>
       </c>
-      <c r="M84">
-        <v>2.7</v>
-      </c>
-      <c r="N84">
-        <v>2.375</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>2.45</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8403,7 +8403,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
         <v>110</v>
@@ -8480,7 +8480,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8498,55 +8498,55 @@
         <v>111</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K88">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N88">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
         <v>1.975</v>
       </c>
-      <c r="V88">
-        <v>1.825</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8555,13 +8555,13 @@
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8569,7 +8569,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8587,56 +8587,56 @@
         <v>112</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K89">
+        <v>1.833</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>3.1</v>
+      </c>
+      <c r="N89">
+        <v>1.833</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>3.1</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>3.75</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>3</v>
       </c>
-      <c r="J89" t="s">
-        <v>115</v>
-      </c>
-      <c r="K89">
-        <v>1.142</v>
-      </c>
-      <c r="L89">
-        <v>7</v>
-      </c>
-      <c r="M89">
-        <v>10</v>
-      </c>
-      <c r="N89">
-        <v>1.083</v>
-      </c>
-      <c r="O89">
-        <v>11</v>
-      </c>
-      <c r="P89">
-        <v>19</v>
-      </c>
-      <c r="Q89">
-        <v>-3.5</v>
-      </c>
-      <c r="R89">
-        <v>1.975</v>
-      </c>
-      <c r="S89">
-        <v>1.825</v>
-      </c>
-      <c r="T89">
-        <v>5</v>
-      </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
-      <c r="W89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
         <v>-1</v>
       </c>
@@ -8644,13 +8644,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -100,12 +100,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
@@ -238,30 +238,30 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
+    <t>BSC Hastedt</t>
   </si>
   <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -346,16 +346,19 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
   </si>
   <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
     <t>SV Breinig</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
+  </si>
+  <si>
+    <t>BlauWei Friesdorf</t>
   </si>
   <si>
     <t>H</t>
@@ -726,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB92"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -835,70 +838,70 @@
         <v>80</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M2">
+        <v>2.6</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
         <v>1.75</v>
       </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>3.25</v>
+      </c>
+      <c r="T2">
+        <v>1.775</v>
+      </c>
+      <c r="U2">
+        <v>2.025</v>
+      </c>
+      <c r="V2">
+        <v>1.6</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2.75</v>
-      </c>
-      <c r="T2">
-        <v>1.8</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>0.75</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -906,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -921,52 +924,52 @@
         <v>81</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -975,16 +978,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1013,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1061,10 +1064,10 @@
         <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -1090,7 +1093,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1099,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5">
         <v>1.25</v>
@@ -1147,10 +1150,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -1185,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1233,10 +1236,10 @@
         <v>2.5</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
         <v>0.9750000000000001</v>
@@ -1271,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1319,10 +1322,10 @@
         <v>1.3</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1405,10 +1408,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1443,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1491,10 +1494,10 @@
         <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1529,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1577,10 +1580,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>0.925</v>
@@ -1615,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1663,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="Y11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1701,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J12">
         <v>3.25</v>
@@ -1749,10 +1752,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1787,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1835,10 +1838,10 @@
         <v>1.625</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>0.825</v>
@@ -1873,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J14">
         <v>3.25</v>
@@ -1921,10 +1924,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-0.5</v>
@@ -1959,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J15">
         <v>2.25</v>
@@ -2007,10 +2010,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>0.8</v>
@@ -2045,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2093,10 +2096,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -2131,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2179,10 +2182,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -2217,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2265,10 +2268,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2303,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2351,10 +2354,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2389,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2437,10 +2440,10 @@
         <v>1.625</v>
       </c>
       <c r="Y20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2475,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2523,10 +2526,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2561,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2609,10 +2612,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>0.925</v>
@@ -2647,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2733,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2781,10 +2784,10 @@
         <v>1.15</v>
       </c>
       <c r="Y24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
         <v>-0.5</v>
@@ -2819,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2867,10 +2870,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.7749999999999999</v>
@@ -2905,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2953,10 +2956,10 @@
         <v>0.444</v>
       </c>
       <c r="Y26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2991,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3039,10 +3042,10 @@
         <v>0.7</v>
       </c>
       <c r="Y27">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA27">
         <v>0.8500000000000001</v>
@@ -3077,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3163,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3211,10 +3214,10 @@
         <v>1.1</v>
       </c>
       <c r="Y29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
         <v>1</v>
@@ -3249,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3335,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3421,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3469,10 +3472,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -3507,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3593,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3679,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3727,10 +3730,10 @@
         <v>1.4</v>
       </c>
       <c r="Y35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3765,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3813,10 +3816,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.9750000000000001</v>
@@ -3851,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3937,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4023,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4088,7 +4091,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4097,58 +4100,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4157,16 +4160,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4174,7 +4177,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4183,58 +4186,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4243,16 +4246,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4281,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4329,10 +4332,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.4625</v>
@@ -4367,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4415,10 +4418,10 @@
         <v>0.5</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4453,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4501,10 +4504,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>0.95</v>
@@ -4539,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4587,10 +4590,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.8500000000000001</v>
@@ -4604,7 +4607,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4613,40 +4616,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4658,16 +4661,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4679,7 +4682,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4690,7 +4693,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4699,40 +4702,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47">
+        <v>2.75</v>
+      </c>
+      <c r="K47">
+        <v>3.6</v>
+      </c>
+      <c r="L47">
+        <v>2.1</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>1.6</v>
+      </c>
+      <c r="P47">
         <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>114</v>
-      </c>
-      <c r="J47">
-        <v>3.4</v>
-      </c>
-      <c r="K47">
-        <v>4.2</v>
-      </c>
-      <c r="L47">
-        <v>1.727</v>
-      </c>
-      <c r="M47">
-        <v>2.8</v>
-      </c>
-      <c r="N47">
-        <v>4.2</v>
-      </c>
-      <c r="O47">
-        <v>1.95</v>
-      </c>
-      <c r="P47">
-        <v>0.5</v>
       </c>
       <c r="Q47">
         <v>1.8</v>
@@ -4744,28 +4747,28 @@
         <v>3.5</v>
       </c>
       <c r="T47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4797,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4845,10 +4848,10 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4883,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -4931,10 +4934,10 @@
         <v>1.15</v>
       </c>
       <c r="Y49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>0.475</v>
@@ -4960,7 +4963,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4969,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5017,10 +5020,10 @@
         <v>1.8</v>
       </c>
       <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z50">
-        <v>-1</v>
       </c>
       <c r="AA50">
         <v>0.875</v>
@@ -5055,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5103,10 +5106,10 @@
         <v>1.8</v>
       </c>
       <c r="Y51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
         <v>-0.5</v>
@@ -5141,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5189,10 +5192,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.8</v>
@@ -5218,7 +5221,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5227,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5313,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5361,10 +5364,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.825</v>
@@ -5399,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5447,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5485,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5533,10 +5536,10 @@
         <v>1.625</v>
       </c>
       <c r="Y56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5571,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5619,10 +5622,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5657,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5705,10 +5708,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5743,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5791,10 +5794,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5829,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5877,10 +5880,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5903,7 +5906,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -5915,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6001,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6049,10 +6052,10 @@
         <v>1.4</v>
       </c>
       <c r="Y62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6087,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6173,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6221,10 +6224,10 @@
         <v>1.625</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>1</v>
@@ -6259,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6307,10 +6310,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>-0.5</v>
@@ -6345,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6393,10 +6396,10 @@
         <v>0.909</v>
       </c>
       <c r="Y66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6431,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6479,10 +6482,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z67">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>0.8</v>
@@ -6517,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6603,7 +6606,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6651,10 +6654,10 @@
         <v>0.8</v>
       </c>
       <c r="Y69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6689,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6775,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6823,10 +6826,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>0.95</v>
@@ -6861,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6947,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -6995,10 +6998,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -7033,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7081,10 +7084,10 @@
         <v>0.909</v>
       </c>
       <c r="Y74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -7119,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7167,10 +7170,10 @@
         <v>0.615</v>
       </c>
       <c r="Y75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7205,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7291,7 +7294,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7377,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7463,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7549,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J80">
         <v>2.2</v>
@@ -7635,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J81">
         <v>3.75</v>
@@ -7683,10 +7686,10 @@
         <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
         <v>0.8999999999999999</v>
@@ -7721,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7786,7 +7789,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7795,76 +7798,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
+        <v>4.75</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>5.25</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>-1.5</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>3.75</v>
       </c>
-      <c r="L83">
-        <v>2.7</v>
-      </c>
-      <c r="M83">
-        <v>2.375</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>2.45</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7872,7 +7875,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7881,76 +7884,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>115</v>
       </c>
       <c r="J84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7958,7 +7961,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7970,73 +7973,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
         <v>1.8</v>
       </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
       <c r="V85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8044,7 +8047,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8056,73 +8059,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
         <v>115</v>
       </c>
       <c r="J86">
+        <v>1.222</v>
+      </c>
+      <c r="K86">
         <v>6.5</v>
       </c>
-      <c r="K86">
-        <v>4.5</v>
-      </c>
       <c r="L86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
         <v>1.875</v>
       </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
         <v>0.875</v>
       </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8151,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8199,10 +8202,10 @@
         <v>1.1</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
         <v>0.4875</v>
@@ -8216,7 +8219,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8231,56 +8234,56 @@
         <v>110</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+      <c r="J88">
+        <v>1.833</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88">
+        <v>1.833</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>-0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.875</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.975</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
         <v>3</v>
       </c>
-      <c r="I88" t="s">
-        <v>114</v>
-      </c>
-      <c r="J88">
-        <v>1.142</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>10</v>
-      </c>
-      <c r="M88">
-        <v>1.083</v>
-      </c>
-      <c r="N88">
-        <v>11</v>
-      </c>
-      <c r="O88">
-        <v>19</v>
-      </c>
-      <c r="P88">
-        <v>-3.5</v>
-      </c>
-      <c r="Q88">
-        <v>1.975</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>1.825</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
@@ -8288,13 +8291,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8302,7 +8305,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8317,55 +8320,55 @@
         <v>111</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8374,13 +8377,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8409,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8457,10 +8460,10 @@
         <v>2.5</v>
       </c>
       <c r="Y90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>0.9750000000000001</v>
@@ -8495,7 +8498,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8543,10 +8546,10 @@
         <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
         <v>0.8999999999999999</v>
@@ -8581,7 +8584,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8638,6 +8641,92 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>8121115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45403.42708333334</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>114</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>115</v>
+      </c>
+      <c r="J93">
+        <v>1.833</v>
+      </c>
+      <c r="K93">
+        <v>3.5</v>
+      </c>
+      <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>1.8</v>
+      </c>
+      <c r="N93">
+        <v>3.6</v>
+      </c>
+      <c r="O93">
+        <v>3.5</v>
+      </c>
+      <c r="P93">
+        <v>-0.5</v>
+      </c>
+      <c r="Q93">
+        <v>1.875</v>
+      </c>
+      <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
+        <v>3.25</v>
+      </c>
+      <c r="T93">
+        <v>1.85</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
+        <v>0.8</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>0.875</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB93">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -100,18 +100,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,21 +127,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -238,30 +238,33 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
+    <t>Eiche Horn</t>
   </si>
   <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>MTV Soltau</t>
+  </si>
+  <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -274,12 +277,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -346,12 +349,12 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
   </si>
   <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
     <t>SV Breinig</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>BlauWei Friesdorf</t>
+  </si>
+  <si>
+    <t>TSV Elstorf</t>
   </si>
   <si>
     <t>H</t>
@@ -729,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB93"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -835,55 +841,55 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -892,16 +898,16 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -909,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -921,73 +927,73 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
+        <v>2.6</v>
+      </c>
+      <c r="N3">
+        <v>3.5</v>
+      </c>
+      <c r="O3">
+        <v>2.25</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
         <v>1.75</v>
       </c>
-      <c r="N3">
-        <v>3.6</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>3.25</v>
+      </c>
+      <c r="T3">
+        <v>1.775</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
+        <v>1.6</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.8</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2.75</v>
-      </c>
-      <c r="T3">
-        <v>1.8</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>0.75</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>0.8</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -995,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1007,73 +1013,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1081,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1093,73 +1099,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1188,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1274,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1351,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1360,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1437,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1446,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1523,7 +1529,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1532,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1597,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1609,37 +1615,37 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -1648,34 +1654,34 @@
         <v>2</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1683,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1695,73 +1701,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>2.2</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
+        <v>2.625</v>
+      </c>
+      <c r="P12">
+        <v>-0.25</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <v>1.8</v>
-      </c>
-      <c r="M12">
-        <v>2.9</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>1.95</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>0.8</v>
       </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1769,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1781,52 +1787,52 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13">
-        <v>1.909</v>
-      </c>
-      <c r="K13">
-        <v>3.75</v>
-      </c>
-      <c r="L13">
-        <v>3.1</v>
-      </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2.75</v>
+      </c>
+      <c r="T13">
         <v>1.8</v>
       </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>1.825</v>
-      </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1835,19 +1841,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1855,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1867,55 +1873,55 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>2.25</v>
+      </c>
+      <c r="N14">
+        <v>3.75</v>
+      </c>
+      <c r="O14">
+        <v>2.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1.8</v>
       </c>
-      <c r="M14">
-        <v>3.25</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3.5</v>
+      </c>
+      <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.975</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>3.25</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
-      </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1924,16 +1930,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1941,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1953,56 +1959,56 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15">
+        <v>3.25</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15">
+      <c r="L15">
+        <v>1.8</v>
+      </c>
+      <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.8</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.975</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>3.25</v>
+      </c>
+      <c r="T15">
+        <v>1.85</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>2.25</v>
       </c>
-      <c r="K15">
-        <v>3.75</v>
-      </c>
-      <c r="L15">
-        <v>2.5</v>
-      </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>3.75</v>
-      </c>
-      <c r="O15">
-        <v>2.5</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1.8</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>3.5</v>
-      </c>
-      <c r="T15">
-        <v>1.8</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.25</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
@@ -2010,16 +2016,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2048,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2125,7 +2131,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2134,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2208,10 +2214,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2220,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2306,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2383,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2392,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2466,7 +2472,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2478,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2555,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2564,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2650,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2727,7 +2733,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2736,7 +2742,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2813,7 +2819,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2822,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2899,7 +2905,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2908,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2982,7 +2988,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -2994,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3080,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3157,7 +3163,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3166,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3252,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3329,7 +3335,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3338,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3424,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3501,7 +3507,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3510,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3587,7 +3593,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3596,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3682,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3768,7 +3774,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3845,7 +3851,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3854,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3931,7 +3937,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3940,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4014,10 +4020,10 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4103,7 +4109,7 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -4112,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4189,7 +4195,7 @@
         <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4198,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4284,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4370,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4447,7 +4453,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4456,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4533,7 +4539,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4542,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4628,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4714,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4791,7 +4797,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4800,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4874,10 +4880,10 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4886,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -4963,7 +4969,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4972,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5049,7 +5055,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5058,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5144,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5221,7 +5227,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5230,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5316,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5390,7 +5396,7 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
         <v>87</v>
@@ -5402,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5488,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5565,7 +5571,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5574,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5651,7 +5657,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5660,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5737,7 +5743,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5746,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5823,7 +5829,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5832,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5906,7 +5912,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -5918,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -5992,7 +5998,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6004,7 +6010,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6081,7 +6087,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6090,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6176,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6250,7 +6256,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6262,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6339,7 +6345,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6348,7 +6354,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6425,7 +6431,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6434,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6520,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6594,10 +6600,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6606,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6683,7 +6689,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6692,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6769,7 +6775,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6778,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6855,7 +6861,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6864,7 +6870,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6950,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7024,7 +7030,7 @@
         <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -7036,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7113,7 +7119,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7122,7 +7128,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7199,7 +7205,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7208,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7294,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7371,7 +7377,7 @@
         <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7380,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7457,7 +7463,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7466,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7531,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7540,76 +7546,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1.666</v>
+      </c>
+      <c r="M80">
+        <v>4.75</v>
+      </c>
+      <c r="N80">
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <v>1.5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1.975</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.7</v>
-      </c>
-      <c r="M80">
-        <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>2.625</v>
-      </c>
-      <c r="P80">
-        <v>-0.25</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7617,7 +7623,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7626,76 +7632,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>2.6</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-0.5</v>
+      </c>
+      <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1.975</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.9</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>0.5</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.825</v>
-      </c>
-      <c r="AA81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7724,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7810,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J83">
         <v>1.533</v>
@@ -7887,7 +7893,7 @@
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7896,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7961,7 +7967,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7973,73 +7979,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J85">
+        <v>1.222</v>
+      </c>
+      <c r="K85">
         <v>6.5</v>
       </c>
-      <c r="K85">
-        <v>4.5</v>
-      </c>
       <c r="L85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q85">
+        <v>1.925</v>
+      </c>
+      <c r="R85">
         <v>1.875</v>
       </c>
-      <c r="R85">
-        <v>1.925</v>
-      </c>
       <c r="S85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8047,7 +8053,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8059,73 +8065,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
+        <v>1.875</v>
+      </c>
+      <c r="R86">
         <v>1.925</v>
       </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
       <c r="S86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
       <c r="V86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8142,10 +8148,10 @@
         <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8154,7 +8160,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8219,7 +8225,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8231,58 +8237,58 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
         <v>117</v>
       </c>
       <c r="J88">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M88">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T88">
+        <v>1.825</v>
+      </c>
+      <c r="U88">
         <v>1.975</v>
       </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8291,13 +8297,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8305,7 +8311,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8317,59 +8323,59 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+      <c r="J89">
+        <v>1.833</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>1.833</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>-0.5</v>
+      </c>
+      <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
         <v>3</v>
       </c>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-      <c r="J89">
-        <v>1.142</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
-      <c r="L89">
-        <v>10</v>
-      </c>
-      <c r="M89">
-        <v>1.083</v>
-      </c>
-      <c r="N89">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>19</v>
-      </c>
-      <c r="P89">
-        <v>-3.5</v>
-      </c>
-      <c r="Q89">
-        <v>1.975</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>1.825</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8377,13 +8383,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8403,7 +8409,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8412,7 +8418,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8486,7 +8492,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
@@ -8498,7 +8504,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8575,7 +8581,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8584,7 +8590,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8661,7 +8667,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8670,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8727,6 +8733,92 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>8140569</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45407.625</v>
+      </c>
+      <c r="E94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+      <c r="J94">
+        <v>1.4</v>
+      </c>
+      <c r="K94">
+        <v>4.5</v>
+      </c>
+      <c r="L94">
+        <v>5.5</v>
+      </c>
+      <c r="M94">
+        <v>1.363</v>
+      </c>
+      <c r="N94">
+        <v>4.5</v>
+      </c>
+      <c r="O94">
+        <v>5.75</v>
+      </c>
+      <c r="P94">
+        <v>-1.5</v>
+      </c>
+      <c r="Q94">
+        <v>1.875</v>
+      </c>
+      <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.9</v>
+      </c>
+      <c r="U94">
+        <v>1.9</v>
+      </c>
+      <c r="V94">
+        <v>0.363</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>0.875</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB94">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -100,18 +100,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,21 +127,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -244,27 +244,24 @@
     <t>FSV Duisburg</t>
   </si>
   <si>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
-    <t>MTV Soltau</t>
+    <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -277,12 +274,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -349,12 +346,12 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
   </si>
   <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
     <t>SV Breinig</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
   </si>
   <si>
     <t>BlauWei Friesdorf</t>
-  </si>
-  <si>
-    <t>TSV Elstorf</t>
   </si>
   <si>
     <t>H</t>
@@ -735,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -841,73 +835,73 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M2">
+        <v>2.6</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
         <v>1.75</v>
       </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>3.25</v>
+      </c>
+      <c r="T2">
+        <v>1.775</v>
+      </c>
+      <c r="U2">
+        <v>2.025</v>
+      </c>
+      <c r="V2">
+        <v>1.6</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2.75</v>
-      </c>
-      <c r="T2">
-        <v>1.8</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>0.75</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>0.8</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -915,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -927,55 +921,55 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -984,16 +978,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1001,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1013,73 +1007,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1087,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1099,73 +1093,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1194,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1280,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1357,7 +1351,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1366,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1443,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1452,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1529,7 +1523,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1538,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1603,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1615,37 +1609,37 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -1654,34 +1648,34 @@
         <v>2</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1689,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1701,73 +1695,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12">
+        <v>3.25</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12">
-        <v>1.909</v>
-      </c>
-      <c r="K12">
-        <v>3.75</v>
-      </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1775,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1787,52 +1781,52 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P13">
         <v>-0.25</v>
       </c>
       <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>1.8</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1841,19 +1835,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1861,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1873,56 +1867,56 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14">
+        <v>3.25</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14">
+      <c r="L14">
+        <v>1.8</v>
+      </c>
+      <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>1.975</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>3.25</v>
+      </c>
+      <c r="T14">
+        <v>1.85</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>2.25</v>
       </c>
-      <c r="K14">
-        <v>3.75</v>
-      </c>
-      <c r="L14">
-        <v>2.5</v>
-      </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>3.75</v>
-      </c>
-      <c r="O14">
-        <v>2.5</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>3.5</v>
-      </c>
-      <c r="T14">
-        <v>1.8</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.25</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
@@ -1930,16 +1924,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1947,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1959,55 +1953,55 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1.8</v>
       </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3.5</v>
+      </c>
+      <c r="T15">
         <v>1.8</v>
       </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <v>1.975</v>
-      </c>
-      <c r="R15">
-        <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>3.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -2016,16 +2010,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2054,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2131,7 +2125,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2140,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2214,10 +2208,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2226,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2312,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2389,7 +2383,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2398,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2472,7 +2466,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2484,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2561,7 +2555,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2570,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2656,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2733,7 +2727,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2742,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2819,7 +2813,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2828,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2905,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2914,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2988,7 +2982,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -3000,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3086,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3163,7 +3157,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3172,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3258,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3335,7 +3329,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3344,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3430,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3507,7 +3501,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3516,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3593,7 +3587,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3602,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3688,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3774,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3851,7 +3845,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3860,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3937,7 +3931,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3946,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4020,10 +4014,10 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4032,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4109,7 +4103,7 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -4118,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4195,7 +4189,7 @@
         <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4204,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4290,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4376,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4453,7 +4447,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4462,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4539,7 +4533,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4548,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4634,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4720,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4797,7 +4791,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4806,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4880,10 +4874,10 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4892,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -4978,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5055,7 +5049,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5064,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5150,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5236,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5322,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5396,7 +5390,7 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
         <v>87</v>
@@ -5408,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5494,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5571,7 +5565,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5580,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5657,7 +5651,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5666,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5743,7 +5737,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5752,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5829,7 +5823,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5838,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5912,7 +5906,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -5924,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -5998,7 +5992,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6010,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6087,7 +6081,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6096,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6182,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6256,7 +6250,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6268,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6345,7 +6339,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6354,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6431,7 +6425,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6440,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6526,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6600,10 +6594,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6612,7 +6606,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6689,7 +6683,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6698,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6775,7 +6769,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6784,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6861,7 +6855,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6870,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6956,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7030,7 +7024,7 @@
         <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -7042,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7119,7 +7113,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7128,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7205,7 +7199,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7214,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7300,7 +7294,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7377,7 +7371,7 @@
         <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7386,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7463,7 +7457,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7472,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7537,7 +7531,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7546,76 +7540,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P80">
+        <v>-0.25</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.8</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>-1</v>
+      </c>
+      <c r="W80">
+        <v>2.6</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-0.5</v>
+      </c>
+      <c r="Z80">
+        <v>0.4</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1.975</v>
-      </c>
-      <c r="R80">
-        <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>3.5</v>
-      </c>
-      <c r="T80">
-        <v>1.9</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>-1</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>0.5</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.825</v>
-      </c>
-      <c r="AA80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7623,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7632,76 +7626,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>1.666</v>
+      </c>
+      <c r="M81">
+        <v>4.75</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+      <c r="O81">
+        <v>1.5</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1.975</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
         <v>3.5</v>
       </c>
-      <c r="L81">
-        <v>2.7</v>
-      </c>
-      <c r="M81">
-        <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>2.625</v>
-      </c>
-      <c r="P81">
-        <v>-0.25</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81">
-        <v>1.8</v>
-      </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7730,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7795,7 +7789,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7804,76 +7798,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7881,7 +7875,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7890,76 +7884,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K84">
+        <v>4.75</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>5.25</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>-1.5</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>3.75</v>
       </c>
-      <c r="L84">
-        <v>2.7</v>
-      </c>
-      <c r="M84">
-        <v>2.375</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>2.45</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1.85</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7979,7 +7973,7 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7988,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J85">
         <v>1.222</v>
@@ -8074,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J86">
         <v>6.5</v>
@@ -8148,10 +8142,10 @@
         <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8160,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8225,7 +8219,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8237,58 +8231,58 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
         <v>117</v>
       </c>
       <c r="J88">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="K88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>1.083</v>
+        <v>1.833</v>
       </c>
       <c r="N88">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>19</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
+        <v>1.875</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
         <v>1.975</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>1.825</v>
       </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>1.825</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
       <c r="V88">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8297,13 +8291,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8311,7 +8305,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8323,58 +8317,58 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8383,13 +8377,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8409,7 +8403,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8418,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8492,7 +8486,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
@@ -8504,7 +8498,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8581,7 +8575,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8590,7 +8584,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8667,7 +8661,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8676,7 +8670,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8733,92 +8727,6 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>8140569</v>
-      </c>
-      <c r="C94" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="2">
-        <v>45407.625</v>
-      </c>
-      <c r="E94" t="s">
-        <v>80</v>
-      </c>
-      <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94">
-        <v>5</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-      <c r="I94" t="s">
-        <v>117</v>
-      </c>
-      <c r="J94">
-        <v>1.4</v>
-      </c>
-      <c r="K94">
-        <v>4.5</v>
-      </c>
-      <c r="L94">
-        <v>5.5</v>
-      </c>
-      <c r="M94">
-        <v>1.363</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>-1.5</v>
-      </c>
-      <c r="Q94">
-        <v>1.875</v>
-      </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
-      <c r="S94">
-        <v>4</v>
-      </c>
-      <c r="T94">
-        <v>1.9</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>0.363</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>0.875</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
-      <c r="AA94">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB94">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -106,12 +106,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SSV Markranstadt</t>
+  </si>
+  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -238,24 +238,30 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
+    <t>Eiche Horn</t>
   </si>
   <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
+    <t>MTV Soltau</t>
+  </si>
+  <si>
+    <t>SpVg Cologne Flittard</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
@@ -274,12 +280,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -346,12 +352,12 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
   </si>
   <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
     <t>SV Breinig</t>
   </si>
   <si>
@@ -359,6 +365,9 @@
   </si>
   <si>
     <t>BlauWei Friesdorf</t>
+  </si>
+  <si>
+    <t>TSV Elstorf</t>
   </si>
   <si>
     <t>H</t>
@@ -729,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB93"/>
+  <dimension ref="A1:AB95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -844,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -921,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -930,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -995,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1007,73 +1016,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1081,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1093,73 +1102,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1188,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1274,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1351,7 +1360,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1360,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1437,7 +1446,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1446,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1523,7 +1532,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1532,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1597,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1609,52 +1618,52 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
         <v>3.6</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P11">
         <v>-0.25</v>
       </c>
       <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>1.8</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1663,19 +1672,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1704,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J12">
         <v>3.25</v>
@@ -1769,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1781,52 +1790,52 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13">
-        <v>1.909</v>
-      </c>
-      <c r="K13">
-        <v>3.75</v>
-      </c>
-      <c r="L13">
-        <v>3.1</v>
-      </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2.75</v>
+      </c>
+      <c r="T13">
         <v>1.8</v>
       </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>1.825</v>
-      </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1835,19 +1844,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1876,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J14">
         <v>3.25</v>
@@ -1953,7 +1962,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1962,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J15">
         <v>2.25</v>
@@ -2048,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2125,7 +2134,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2211,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2220,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2306,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2383,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2392,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2466,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2478,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2555,7 +2564,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2564,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2650,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2727,7 +2736,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2736,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2813,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2822,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2899,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2908,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2994,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3080,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3157,7 +3166,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3166,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3252,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3329,7 +3338,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3338,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3424,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3501,7 +3510,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3510,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3587,7 +3596,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3596,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3682,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3768,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3845,7 +3854,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3854,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3931,7 +3940,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3940,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4014,10 +4023,10 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4026,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4091,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4100,58 +4109,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4160,16 +4169,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4177,7 +4186,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4186,58 +4195,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4246,16 +4255,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4284,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4370,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4447,7 +4456,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4456,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4533,7 +4542,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4542,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4628,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4714,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4791,7 +4800,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4800,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4877,7 +4886,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4886,7 +4895,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -4963,7 +4972,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4972,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5049,7 +5058,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5058,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5144,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5221,7 +5230,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5230,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5316,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5390,10 +5399,10 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5402,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5488,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5565,7 +5574,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5574,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5660,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5737,7 +5746,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5746,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5823,7 +5832,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5832,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5918,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6004,7 +6013,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6081,7 +6090,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6090,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6176,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6250,7 +6259,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6262,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6339,7 +6348,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6348,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6425,7 +6434,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6434,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6520,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6594,10 +6603,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6606,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6683,7 +6692,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6692,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6769,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6778,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6855,7 +6864,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6864,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6950,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7036,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7113,7 +7122,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7122,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7199,7 +7208,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7208,7 +7217,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7294,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7380,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7457,7 +7466,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7466,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7552,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J80">
         <v>2.2</v>
@@ -7638,7 +7647,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J81">
         <v>3.75</v>
@@ -7724,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7789,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7798,76 +7807,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
+        <v>4.75</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>5.25</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>-1.5</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>3.75</v>
       </c>
-      <c r="L83">
-        <v>2.7</v>
-      </c>
-      <c r="M83">
-        <v>2.375</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>2.45</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7875,7 +7884,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7884,76 +7893,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7961,7 +7970,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7973,73 +7982,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
         <v>1.8</v>
       </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
       <c r="V85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8047,7 +8056,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8059,73 +8068,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J86">
+        <v>1.222</v>
+      </c>
+      <c r="K86">
         <v>6.5</v>
       </c>
-      <c r="K86">
-        <v>4.5</v>
-      </c>
       <c r="L86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
         <v>1.875</v>
       </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8145,7 +8154,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8154,7 +8163,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8219,7 +8228,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8231,58 +8240,58 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J88">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M88">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T88">
+        <v>1.825</v>
+      </c>
+      <c r="U88">
         <v>1.975</v>
       </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8291,13 +8300,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8305,7 +8314,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8317,59 +8326,59 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+      <c r="J89">
+        <v>1.833</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>1.833</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>-0.5</v>
+      </c>
+      <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
         <v>3</v>
       </c>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-      <c r="J89">
-        <v>1.142</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
-      <c r="L89">
-        <v>10</v>
-      </c>
-      <c r="M89">
-        <v>1.083</v>
-      </c>
-      <c r="N89">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>19</v>
-      </c>
-      <c r="P89">
-        <v>-3.5</v>
-      </c>
-      <c r="Q89">
-        <v>1.975</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>1.825</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8377,13 +8386,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8403,7 +8412,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8412,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8486,7 +8495,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
@@ -8498,7 +8507,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8575,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8584,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8661,7 +8670,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8670,7 +8679,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8728,6 +8737,178 @@
       </c>
       <c r="AB93">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>8140569</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45407.625</v>
+      </c>
+      <c r="E94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" t="s">
+        <v>117</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+      <c r="J94">
+        <v>1.4</v>
+      </c>
+      <c r="K94">
+        <v>4.5</v>
+      </c>
+      <c r="L94">
+        <v>5.5</v>
+      </c>
+      <c r="M94">
+        <v>1.363</v>
+      </c>
+      <c r="N94">
+        <v>4.5</v>
+      </c>
+      <c r="O94">
+        <v>5.75</v>
+      </c>
+      <c r="P94">
+        <v>-1.5</v>
+      </c>
+      <c r="Q94">
+        <v>1.875</v>
+      </c>
+      <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.9</v>
+      </c>
+      <c r="U94">
+        <v>1.9</v>
+      </c>
+      <c r="V94">
+        <v>0.363</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>0.875</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>8143641</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45408.625</v>
+      </c>
+      <c r="E95" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+      <c r="J95">
+        <v>2.2</v>
+      </c>
+      <c r="K95">
+        <v>4.2</v>
+      </c>
+      <c r="L95">
+        <v>2.375</v>
+      </c>
+      <c r="M95">
+        <v>2.2</v>
+      </c>
+      <c r="N95">
+        <v>4.2</v>
+      </c>
+      <c r="O95">
+        <v>2.375</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>1.825</v>
+      </c>
+      <c r="R95">
+        <v>1.975</v>
+      </c>
+      <c r="S95">
+        <v>3.5</v>
+      </c>
+      <c r="T95">
+        <v>1.825</v>
+      </c>
+      <c r="U95">
+        <v>1.975</v>
+      </c>
+      <c r="V95">
+        <v>-1</v>
+      </c>
+      <c r="W95">
+        <v>3.2</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -100,18 +100,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
-  </si>
-  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>SpVg Cologne Flittard</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -280,10 +280,10 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>FC Viersen</t>
   </si>
   <si>
     <t>VfB Frohnhausen</t>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -847,52 +847,52 @@
         <v>82</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>118</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -901,16 +901,16 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -933,70 +933,70 @@
         <v>83</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
       </c>
       <c r="J3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
+        <v>2.6</v>
+      </c>
+      <c r="N3">
+        <v>3.5</v>
+      </c>
+      <c r="O3">
+        <v>2.25</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
         <v>1.75</v>
       </c>
-      <c r="N3">
-        <v>3.6</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>3.25</v>
+      </c>
+      <c r="T3">
+        <v>1.775</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
+        <v>1.6</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.8</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2.75</v>
-      </c>
-      <c r="T3">
-        <v>1.8</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>0.75</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>0.8</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1016,73 +1016,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1102,73 +1102,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1606,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1618,73 +1618,73 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11">
+        <v>3.25</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11">
-        <v>1.909</v>
-      </c>
-      <c r="K11">
-        <v>3.75</v>
-      </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1704,37 +1704,37 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J12">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q12">
         <v>1.8</v>
@@ -1743,34 +1743,34 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1793,49 +1793,49 @@
         <v>89</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
         <v>119</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P13">
         <v>-0.25</v>
       </c>
       <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>1.8</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1844,19 +1844,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2475,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -4023,7 +4023,7 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -4100,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4109,13 +4109,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4124,43 +4124,43 @@
         <v>118</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4169,16 +4169,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4186,7 +4186,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4195,13 +4195,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4210,43 +4210,43 @@
         <v>118</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4255,16 +4255,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4616,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4625,40 +4625,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46">
+        <v>2.75</v>
+      </c>
+      <c r="K46">
+        <v>3.6</v>
+      </c>
+      <c r="L46">
+        <v>2.1</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>1.6</v>
+      </c>
+      <c r="P46">
         <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46">
-        <v>3.4</v>
-      </c>
-      <c r="K46">
-        <v>4.2</v>
-      </c>
-      <c r="L46">
-        <v>1.727</v>
-      </c>
-      <c r="M46">
-        <v>2.8</v>
-      </c>
-      <c r="N46">
-        <v>4.2</v>
-      </c>
-      <c r="O46">
-        <v>1.95</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4670,16 +4670,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4702,7 +4702,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4711,40 +4711,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q47">
         <v>1.8</v>
@@ -4756,16 +4756,16 @@
         <v>3.5</v>
       </c>
       <c r="T47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4777,7 +4777,7 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4972,7 +4972,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5399,10 +5399,10 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -6001,7 +6001,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6259,7 +6259,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6603,7 +6603,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>108</v>
@@ -6692,7 +6692,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7549,76 +7549,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1.666</v>
+      </c>
+      <c r="M80">
+        <v>4.75</v>
+      </c>
+      <c r="N80">
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <v>1.5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1.975</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.7</v>
-      </c>
-      <c r="M80">
-        <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>2.625</v>
-      </c>
-      <c r="P80">
-        <v>-0.25</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7635,76 +7635,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>2.6</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-0.5</v>
+      </c>
+      <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1.975</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.9</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>0.5</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.825</v>
-      </c>
-      <c r="AA81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7798,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7807,76 +7807,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7884,7 +7884,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7893,76 +7893,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K84">
+        <v>4.75</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>5.25</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>-1.5</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>3.75</v>
       </c>
-      <c r="L84">
-        <v>2.7</v>
-      </c>
-      <c r="M84">
-        <v>2.375</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>2.45</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1.85</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7970,7 +7970,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7982,73 +7982,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J85">
+        <v>1.222</v>
+      </c>
+      <c r="K85">
         <v>6.5</v>
       </c>
-      <c r="K85">
-        <v>4.5</v>
-      </c>
       <c r="L85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q85">
+        <v>1.925</v>
+      </c>
+      <c r="R85">
         <v>1.875</v>
       </c>
-      <c r="R85">
-        <v>1.925</v>
-      </c>
       <c r="S85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8056,7 +8056,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8068,73 +8068,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
+        <v>1.875</v>
+      </c>
+      <c r="R86">
         <v>1.925</v>
       </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
       <c r="S86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
       <c r="V86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8495,7 +8495,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -106,10 +106,10 @@
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
+    <t>SSV Markranstadt</t>
+  </si>
+  <si>
     <t>SV Schott Jena</t>
-  </si>
-  <si>
-    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>ASV Suchteln</t>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1016,73 +1016,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1102,73 +1102,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4023,7 +4023,7 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -6259,7 +6259,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -124,24 +124,24 @@
     <t>TuRU Dsseldorf</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>FC Kray</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
+    <t>Spvgg Steele 0309</t>
   </si>
   <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Arminia Eilendorf</t>
   </si>
   <si>
+    <t>SG 2000 MulheimKarlich</t>
+  </si>
+  <si>
     <t>SG Taucha 99</t>
   </si>
   <si>
-    <t>SG 2000 MulheimKarlich</t>
-  </si>
-  <si>
     <t>MSV Dusseldorf</t>
   </si>
   <si>
@@ -235,15 +235,15 @@
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
-  </si>
-  <si>
-    <t>FSV Duisburg</t>
-  </si>
-  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
@@ -277,15 +277,15 @@
     <t>SC KapellenErft</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>FSV NeunkirchenSeelscheid</t>
   </si>
   <si>
+    <t>SSV Bornheim</t>
+  </si>
+  <si>
     <t>VSF Amern</t>
   </si>
   <si>
-    <t>SSV Bornheim</t>
-  </si>
-  <si>
     <t>FSV Schleiz</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>SC Rheinbach</t>
   </si>
   <si>
+    <t>FSG EhrangPfalzel</t>
+  </si>
+  <si>
     <t>VfL PirnaCopitz</t>
   </si>
   <si>
-    <t>FSG EhrangPfalzel</t>
-  </si>
-  <si>
     <t>Germania Schneiche</t>
   </si>
   <si>
@@ -349,16 +349,16 @@
     <t>FSV Salmrohr</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
+    <t>SV Breinig</t>
+  </si>
+  <si>
     <t>VfB Speldorf</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
-    <t>SV Breinig</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -1520,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7035049</v>
+        <v>7035046</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>45147.60416666666</v>
+        <v>45147.625</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1535,70 +1535,70 @@
         <v>87</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3.6</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3.6</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>-0.25</v>
+      </c>
+      <c r="Q10">
+        <v>1.8</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2.75</v>
+      </c>
+      <c r="T10">
+        <v>1.8</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10">
-        <v>1.833</v>
-      </c>
-      <c r="K10">
-        <v>3.8</v>
-      </c>
-      <c r="L10">
-        <v>3.25</v>
-      </c>
-      <c r="M10">
-        <v>1.727</v>
-      </c>
-      <c r="N10">
-        <v>3.8</v>
-      </c>
-      <c r="O10">
-        <v>3.75</v>
-      </c>
-      <c r="P10">
-        <v>-0.75</v>
-      </c>
-      <c r="Q10">
-        <v>1.925</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>3.5</v>
-      </c>
-      <c r="T10">
-        <v>1.925</v>
-      </c>
-      <c r="U10">
-        <v>1.775</v>
-      </c>
-      <c r="V10">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>0.925</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1707,49 +1707,49 @@
         <v>88</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>119</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N12">
         <v>3.6</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P12">
         <v>-0.25</v>
       </c>
       <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <v>1.8</v>
       </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1758,19 +1758,19 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1778,13 +1778,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035049</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>45147.625</v>
+        <v>45147.60416666666</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1796,64 +1796,64 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K13">
+        <v>3.8</v>
+      </c>
+      <c r="L13">
+        <v>3.25</v>
+      </c>
+      <c r="M13">
+        <v>1.727</v>
+      </c>
+      <c r="N13">
+        <v>3.8</v>
+      </c>
+      <c r="O13">
         <v>3.75</v>
       </c>
-      <c r="L13">
-        <v>3.1</v>
-      </c>
-      <c r="M13">
-        <v>2.2</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
-      <c r="O13">
-        <v>2.625</v>
-      </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1876,55 +1876,55 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>118</v>
       </c>
       <c r="J14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>2.25</v>
+      </c>
+      <c r="N14">
+        <v>3.75</v>
+      </c>
+      <c r="O14">
+        <v>2.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1.8</v>
       </c>
-      <c r="M14">
-        <v>3.25</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3.5</v>
+      </c>
+      <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.975</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>3.25</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
-      </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1933,16 +1933,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1950,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1962,56 +1962,56 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>118</v>
       </c>
       <c r="J15">
+        <v>3.25</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1.8</v>
+      </c>
+      <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.8</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.975</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>3.25</v>
+      </c>
+      <c r="T15">
+        <v>1.85</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>2.25</v>
       </c>
-      <c r="K15">
-        <v>3.75</v>
-      </c>
-      <c r="L15">
-        <v>2.5</v>
-      </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>3.75</v>
-      </c>
-      <c r="O15">
-        <v>2.5</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1.8</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>3.5</v>
-      </c>
-      <c r="T15">
-        <v>1.8</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.25</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
@@ -2019,16 +2019,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2217,10 +2217,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2306,7 +2306,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2475,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2991,10 +2991,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3842,85 +3842,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7398238</v>
+        <v>7398237</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45228.45833333334</v>
+        <v>45228.46875</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J37">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="M37">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="N37">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O37">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="P37">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X37">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3928,85 +3928,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7398237</v>
+        <v>7398238</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>45228.46875</v>
+        <v>45228.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38">
+        <v>1.333</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>1.285</v>
+      </c>
+      <c r="N38">
+        <v>5.25</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>-1.75</v>
+      </c>
+      <c r="Q38">
+        <v>1.8</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.9</v>
+      </c>
+      <c r="U38">
+        <v>1.9</v>
+      </c>
+      <c r="V38">
+        <v>-1</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>6</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38">
-        <v>4.2</v>
-      </c>
-      <c r="K38">
-        <v>4.2</v>
-      </c>
-      <c r="L38">
-        <v>1.571</v>
-      </c>
-      <c r="M38">
-        <v>4.2</v>
-      </c>
-      <c r="N38">
-        <v>4.2</v>
-      </c>
-      <c r="O38">
-        <v>1.571</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1.9</v>
-      </c>
-      <c r="R38">
-        <v>1.9</v>
-      </c>
-      <c r="S38">
-        <v>3.75</v>
-      </c>
-      <c r="T38">
-        <v>1.925</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>-1</v>
-      </c>
-      <c r="W38">
-        <v>3.2</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4112,7 +4112,7 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -4530,19 +4530,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511939</v>
+        <v>7511941</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45254.64583333334</v>
+        <v>45254.66666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4554,58 +4554,58 @@
         <v>118</v>
       </c>
       <c r="J45">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="K45">
+        <v>4.2</v>
+      </c>
+      <c r="L45">
+        <v>1.727</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>4.2</v>
+      </c>
+      <c r="O45">
+        <v>1.95</v>
+      </c>
+      <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>1.8</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
         <v>3.5</v>
       </c>
-      <c r="L45">
-        <v>2.7</v>
-      </c>
-      <c r="M45">
+      <c r="T45">
+        <v>1.875</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.8</v>
       </c>
-      <c r="N45">
-        <v>3.5</v>
-      </c>
-      <c r="O45">
-        <v>3.6</v>
-      </c>
-      <c r="P45">
-        <v>-0.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.85</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>3.25</v>
-      </c>
-      <c r="T45">
-        <v>1.85</v>
-      </c>
-      <c r="U45">
-        <v>1.95</v>
-      </c>
-      <c r="V45">
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>0.8</v>
       </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4702,19 +4702,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511939</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45254.66666666666</v>
+        <v>45254.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4726,43 +4726,43 @@
         <v>118</v>
       </c>
       <c r="J47">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K47">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L47">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N47">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O47">
+        <v>3.6</v>
+      </c>
+      <c r="P47">
+        <v>-0.5</v>
+      </c>
+      <c r="Q47">
+        <v>1.85</v>
+      </c>
+      <c r="R47">
         <v>1.95</v>
       </c>
-      <c r="P47">
-        <v>0.5</v>
-      </c>
-      <c r="Q47">
-        <v>1.8</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
       <c r="S47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4771,13 +4771,13 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4883,7 +4883,7 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
         <v>102</v>
@@ -4969,7 +4969,7 @@
         <v>45266.64583333334</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
         <v>74</v>
@@ -5399,10 +5399,10 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5734,13 +5734,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7873626</v>
+        <v>7873625</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45346.41666666666</v>
+        <v>45346.64583333334</v>
       </c>
       <c r="E59" t="s">
         <v>65</v>
@@ -5749,7 +5749,7 @@
         <v>104</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5758,43 +5758,43 @@
         <v>118</v>
       </c>
       <c r="J59">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5803,7 +5803,7 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z59">
         <v>-1</v>
@@ -5812,7 +5812,7 @@
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5820,13 +5820,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7873625</v>
+        <v>7873626</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>45346.64583333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -5835,7 +5835,7 @@
         <v>105</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5844,43 +5844,43 @@
         <v>118</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K60">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M60">
+        <v>1.333</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>6</v>
+      </c>
+      <c r="P60">
+        <v>-1.5</v>
+      </c>
+      <c r="Q60">
+        <v>1.85</v>
+      </c>
+      <c r="R60">
         <v>1.95</v>
       </c>
-      <c r="N60">
-        <v>3.75</v>
-      </c>
-      <c r="O60">
-        <v>3</v>
-      </c>
-      <c r="P60">
-        <v>-0.25</v>
-      </c>
-      <c r="Q60">
+      <c r="S60">
+        <v>3.5</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>1.8</v>
       </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>3.25</v>
-      </c>
-      <c r="T60">
-        <v>1.825</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
       <c r="V60">
-        <v>0.95</v>
+        <v>0.333</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5889,16 +5889,16 @@
         <v>-1</v>
       </c>
       <c r="Y60">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>-1</v>
+      </c>
+      <c r="AB60">
         <v>0.8</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -6262,7 +6262,7 @@
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6508,49 +6508,49 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7969732</v>
+        <v>7969733</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.47916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J68">
-        <v>1.333</v>
+        <v>3.9</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="M68">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="P68">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q68">
         <v>1.975</v>
@@ -6562,19 +6562,19 @@
         <v>3.25</v>
       </c>
       <c r="T68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6583,10 +6583,10 @@
         <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6594,49 +6594,49 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7969733</v>
+        <v>7969732</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45368.47916666666</v>
+        <v>45368.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J69">
-        <v>3.9</v>
+        <v>1.333</v>
       </c>
       <c r="K69">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L69">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O69">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="P69">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q69">
         <v>1.975</v>
@@ -6648,19 +6648,19 @@
         <v>3.25</v>
       </c>
       <c r="T69">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
@@ -6669,10 +6669,10 @@
         <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6692,7 +6692,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6938,85 +6938,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8013545</v>
+        <v>8013546</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45378.64583333334</v>
+        <v>45378.65625</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J73">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P73">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7024,85 +7024,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8013546</v>
+        <v>8013545</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45378.65625</v>
+        <v>45378.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
         <v>0</v>
       </c>
-      <c r="H74">
+      <c r="I74" t="s">
+        <v>118</v>
+      </c>
+      <c r="J74">
+        <v>1.333</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>1.363</v>
+      </c>
+      <c r="N74">
+        <v>4.75</v>
+      </c>
+      <c r="O74">
+        <v>6</v>
+      </c>
+      <c r="P74">
+        <v>-1.5</v>
+      </c>
+      <c r="Q74">
+        <v>1.9</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>3.25</v>
+      </c>
+      <c r="T74">
+        <v>1.8</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>0.363</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>119</v>
-      </c>
-      <c r="J74">
-        <v>2.75</v>
-      </c>
-      <c r="K74">
-        <v>4</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>3</v>
-      </c>
-      <c r="N74">
-        <v>4</v>
-      </c>
-      <c r="O74">
-        <v>1.909</v>
-      </c>
-      <c r="P74">
-        <v>0.5</v>
-      </c>
-      <c r="Q74">
-        <v>1.85</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>4</v>
-      </c>
-      <c r="T74">
-        <v>1.925</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
-      <c r="V74">
-        <v>-1</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>0.909</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.95</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -7368,19 +7368,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8050870</v>
+        <v>8050971</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45387.58333333334</v>
+        <v>45387.61458333334</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7392,40 +7392,40 @@
         <v>120</v>
       </c>
       <c r="J78">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N78">
         <v>3.75</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P78">
         <v>-0.5</v>
       </c>
       <c r="Q78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
         <v>-1</v>
@@ -7440,13 +7440,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7454,19 +7454,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>8050971</v>
+        <v>8050870</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45387.61458333334</v>
+        <v>45387.58333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7478,40 +7478,40 @@
         <v>120</v>
       </c>
       <c r="J79">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N79">
         <v>3.75</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
         <v>-0.5</v>
       </c>
       <c r="Q79">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
         <v>-1</v>
@@ -7526,13 +7526,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7549,76 +7549,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P80">
+        <v>-0.25</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.8</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>-1</v>
+      </c>
+      <c r="W80">
+        <v>2.6</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-0.5</v>
+      </c>
+      <c r="Z80">
+        <v>0.4</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1.975</v>
-      </c>
-      <c r="R80">
-        <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>3.5</v>
-      </c>
-      <c r="T80">
-        <v>1.9</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>-1</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>0.5</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.825</v>
-      </c>
-      <c r="AA80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7635,76 +7635,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>1.666</v>
+      </c>
+      <c r="M81">
+        <v>4.75</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+      <c r="O81">
+        <v>1.5</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1.975</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
         <v>3.5</v>
       </c>
-      <c r="L81">
-        <v>2.7</v>
-      </c>
-      <c r="M81">
-        <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>2.625</v>
-      </c>
-      <c r="P81">
-        <v>-0.25</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81">
-        <v>1.8</v>
-      </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7712,46 +7712,46 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8075592</v>
+        <v>8075530</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45392.58333333334</v>
+        <v>45392.60416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J82">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L82">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O82">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -7763,34 +7763,34 @@
         <v>1.95</v>
       </c>
       <c r="S82">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7798,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7807,76 +7807,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
+        <v>4.75</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>5.25</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>-1.5</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>3.75</v>
       </c>
-      <c r="L83">
-        <v>2.7</v>
-      </c>
-      <c r="M83">
-        <v>2.375</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>2.45</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7884,22 +7884,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075593</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2">
-        <v>45392.60416666666</v>
+        <v>45392.625</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7908,40 +7908,40 @@
         <v>119</v>
       </c>
       <c r="J84">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="K84">
+        <v>4.5</v>
+      </c>
+      <c r="L84">
+        <v>1.363</v>
+      </c>
+      <c r="M84">
         <v>4.75</v>
       </c>
-      <c r="L84">
-        <v>4</v>
-      </c>
-      <c r="M84">
-        <v>1.4</v>
-      </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
         <v>3.75</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
         <v>-1</v>
@@ -7950,19 +7950,19 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8056,58 +8056,58 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075592</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2">
-        <v>45392.625</v>
+        <v>45392.58333333334</v>
       </c>
       <c r="E86" t="s">
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+      <c r="J86">
+        <v>2.4</v>
+      </c>
+      <c r="K86">
+        <v>3.4</v>
+      </c>
+      <c r="L86">
+        <v>2.5</v>
+      </c>
+      <c r="M86">
+        <v>2.4</v>
+      </c>
+      <c r="N86">
+        <v>3.4</v>
+      </c>
+      <c r="O86">
+        <v>2.5</v>
+      </c>
+      <c r="P86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="I86" t="s">
-        <v>119</v>
-      </c>
-      <c r="J86">
-        <v>6.5</v>
-      </c>
-      <c r="K86">
-        <v>4.5</v>
-      </c>
-      <c r="L86">
-        <v>1.363</v>
-      </c>
-      <c r="M86">
-        <v>4.75</v>
-      </c>
-      <c r="N86">
-        <v>4.5</v>
-      </c>
-      <c r="O86">
-        <v>1.5</v>
-      </c>
-      <c r="P86">
-        <v>1.25</v>
-      </c>
       <c r="Q86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T86">
         <v>2</v>
@@ -8119,16 +8119,16 @@
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8142,64 +8142,64 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8076436</v>
+        <v>8076435</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45393.58333333334</v>
+        <v>45393.625</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I87" t="s">
         <v>119</v>
       </c>
       <c r="J87">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q87">
+        <v>1.925</v>
+      </c>
+      <c r="R87">
         <v>1.875</v>
       </c>
-      <c r="R87">
-        <v>1.925</v>
-      </c>
       <c r="S87">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T87">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
         <v>-1</v>
@@ -8208,19 +8208,19 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8240,7 +8240,7 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -8326,7 +8326,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8412,7 +8412,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8486,64 +8486,64 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8076435</v>
+        <v>8076436</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2">
-        <v>45393.625</v>
+        <v>45393.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I91" t="s">
         <v>119</v>
       </c>
       <c r="J91">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M91">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P91">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q91">
+        <v>1.875</v>
+      </c>
+      <c r="R91">
         <v>1.925</v>
       </c>
-      <c r="R91">
-        <v>1.875</v>
-      </c>
       <c r="S91">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T91">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
         <v>-1</v>
@@ -8552,19 +8552,19 @@
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:28">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -118,30 +118,30 @@
     <t>DJK Dilkrath</t>
   </si>
   <si>
+    <t>TuRU Dsseldorf</t>
+  </si>
+  <si>
     <t>SC Velbert</t>
   </si>
   <si>
-    <t>TuRU Dsseldorf</t>
+    <t>FC Kray</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
   </si>
   <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>FC Kray</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
@@ -271,21 +271,21 @@
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
+    <t>SC KapellenErft</t>
+  </si>
+  <si>
     <t>SV Wermelskirchen</t>
   </si>
   <si>
-    <t>SC KapellenErft</t>
+    <t>SV Honnepel Nierdermormter</t>
+  </si>
+  <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
-    <t>SV Honnepel Nierdermormter</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>FSV NeunkirchenSeelscheid</t>
   </si>
   <si>
+    <t>VSF Amern</t>
+  </si>
+  <si>
     <t>SSV Bornheim</t>
   </si>
   <si>
-    <t>VSF Amern</t>
-  </si>
-  <si>
     <t>FSV Schleiz</t>
   </si>
   <si>
@@ -349,10 +349,10 @@
     <t>FSV Salmrohr</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
   </si>
   <si>
     <t>SV Breinig</t>
@@ -1348,13 +1348,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7021985</v>
+        <v>7021984</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>45144.41666666666</v>
+        <v>45144.4375</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -1363,70 +1363,70 @@
         <v>85</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K8">
         <v>4.5</v>
       </c>
       <c r="L8">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N8">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
         <v>-0.75</v>
       </c>
       <c r="Q8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1434,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7021984</v>
+        <v>7021985</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45144.4375</v>
+        <v>45144.41666666666</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1449,70 +1449,70 @@
         <v>86</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K9">
         <v>4.5</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M9">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="N9">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
         <v>-0.75</v>
       </c>
       <c r="Q9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1520,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7035046</v>
+        <v>7035049</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>45147.625</v>
+        <v>45147.60416666666</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1535,70 +1535,70 @@
         <v>87</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N10">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1606,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1618,73 +1618,73 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>2.2</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11">
+        <v>2.625</v>
+      </c>
+      <c r="P11">
+        <v>-0.25</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>1.8</v>
-      </c>
-      <c r="M11">
-        <v>2.9</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>1.95</v>
-      </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <v>1.8</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>0.8</v>
       </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1704,73 +1704,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12">
+        <v>3.25</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12">
-        <v>1.909</v>
-      </c>
-      <c r="K12">
-        <v>3.75</v>
-      </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1778,13 +1778,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035049</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>45147.60416666666</v>
+        <v>45147.625</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1793,70 +1793,70 @@
         <v>89</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>-0.25</v>
+      </c>
+      <c r="Q13">
+        <v>1.8</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2.75</v>
+      </c>
+      <c r="T13">
+        <v>1.8</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13">
-        <v>1.833</v>
-      </c>
-      <c r="K13">
-        <v>3.8</v>
-      </c>
-      <c r="L13">
-        <v>3.25</v>
-      </c>
-      <c r="M13">
-        <v>1.727</v>
-      </c>
-      <c r="N13">
-        <v>3.8</v>
-      </c>
-      <c r="O13">
-        <v>3.75</v>
-      </c>
-      <c r="P13">
-        <v>-0.75</v>
-      </c>
-      <c r="Q13">
-        <v>1.925</v>
-      </c>
-      <c r="R13">
-        <v>1.875</v>
-      </c>
-      <c r="S13">
-        <v>3.5</v>
-      </c>
-      <c r="T13">
-        <v>1.925</v>
-      </c>
-      <c r="U13">
-        <v>1.775</v>
-      </c>
-      <c r="V13">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>0.925</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1876,56 +1876,56 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>118</v>
       </c>
       <c r="J14">
+        <v>3.25</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1.8</v>
+      </c>
+      <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>1.975</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>3.25</v>
+      </c>
+      <c r="T14">
+        <v>1.85</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>2.25</v>
       </c>
-      <c r="K14">
-        <v>3.75</v>
-      </c>
-      <c r="L14">
-        <v>2.5</v>
-      </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>3.75</v>
-      </c>
-      <c r="O14">
-        <v>2.5</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>3.5</v>
-      </c>
-      <c r="T14">
-        <v>1.8</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.25</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
@@ -1933,16 +1933,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1950,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1962,55 +1962,55 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>118</v>
       </c>
       <c r="J15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1.8</v>
       </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3.5</v>
+      </c>
+      <c r="T15">
         <v>1.8</v>
       </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <v>1.975</v>
-      </c>
-      <c r="R15">
-        <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>3.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -2019,16 +2019,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2217,10 +2217,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2392,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2650,7 +2650,7 @@
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3682,7 +3682,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3842,85 +3842,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7398237</v>
+        <v>7398238</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45228.46875</v>
+        <v>45228.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37">
+        <v>1.333</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>1.285</v>
+      </c>
+      <c r="N37">
+        <v>5.25</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>-1.75</v>
+      </c>
+      <c r="Q37">
+        <v>1.8</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>1.9</v>
+      </c>
+      <c r="U37">
+        <v>1.9</v>
+      </c>
+      <c r="V37">
+        <v>-1</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>1</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>120</v>
-      </c>
-      <c r="J37">
-        <v>4.2</v>
-      </c>
-      <c r="K37">
-        <v>4.2</v>
-      </c>
-      <c r="L37">
-        <v>1.571</v>
-      </c>
-      <c r="M37">
-        <v>4.2</v>
-      </c>
-      <c r="N37">
-        <v>4.2</v>
-      </c>
-      <c r="O37">
-        <v>1.571</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1.9</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>3.75</v>
-      </c>
-      <c r="T37">
-        <v>1.925</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
-      <c r="V37">
-        <v>-1</v>
-      </c>
-      <c r="W37">
-        <v>3.2</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3928,85 +3928,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7398238</v>
+        <v>7398237</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>45228.45833333334</v>
+        <v>45228.46875</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J38">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="M38">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="N38">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O38">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="P38">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T38">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X38">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4100,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4109,13 +4109,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4124,43 +4124,43 @@
         <v>118</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4169,16 +4169,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4186,7 +4186,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4195,13 +4195,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4210,43 +4210,43 @@
         <v>118</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4255,16 +4255,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4284,7 +4284,7 @@
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4530,19 +4530,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511941</v>
+        <v>7511939</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45254.66666666666</v>
+        <v>45254.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4554,43 +4554,43 @@
         <v>118</v>
       </c>
       <c r="J45">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
+        <v>3.6</v>
+      </c>
+      <c r="P45">
+        <v>-0.5</v>
+      </c>
+      <c r="Q45">
+        <v>1.85</v>
+      </c>
+      <c r="R45">
         <v>1.95</v>
       </c>
-      <c r="P45">
-        <v>0.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.8</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
       <c r="S45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4599,13 +4599,13 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4616,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4625,40 +4625,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4670,16 +4670,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4702,58 +4702,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511939</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45254.64583333334</v>
+        <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47">
+        <v>2.75</v>
+      </c>
+      <c r="K47">
+        <v>3.6</v>
+      </c>
+      <c r="L47">
+        <v>2.1</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>1.6</v>
+      </c>
+      <c r="P47">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
-        <v>118</v>
-      </c>
-      <c r="J47">
-        <v>2.2</v>
-      </c>
-      <c r="K47">
+      <c r="Q47">
+        <v>1.8</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>3.5</v>
-      </c>
-      <c r="L47">
-        <v>2.7</v>
-      </c>
-      <c r="M47">
-        <v>1.8</v>
-      </c>
-      <c r="N47">
-        <v>3.5</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>-0.5</v>
-      </c>
-      <c r="Q47">
-        <v>1.85</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>3.25</v>
       </c>
       <c r="T47">
         <v>1.85</v>
@@ -4762,16 +4762,16 @@
         <v>1.95</v>
       </c>
       <c r="V47">
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
         <v>0.8</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>0.8500000000000001</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4883,7 +4883,7 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
         <v>102</v>
@@ -4969,7 +4969,7 @@
         <v>45266.64583333334</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
         <v>74</v>
@@ -5399,7 +5399,7 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
         <v>88</v>
@@ -5657,10 +5657,10 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6517,7 +6517,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
         <v>108</v>
@@ -6606,7 +6606,7 @@
         <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6680,85 +6680,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7990732</v>
+        <v>7992020</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45373.64583333334</v>
+        <v>45373.66666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J70">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="K70">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="L70">
+        <v>6.5</v>
+      </c>
+      <c r="M70">
+        <v>1.444</v>
+      </c>
+      <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>-1.25</v>
+      </c>
+      <c r="Q70">
+        <v>1.875</v>
+      </c>
+      <c r="R70">
+        <v>1.925</v>
+      </c>
+      <c r="S70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>2.05</v>
-      </c>
-      <c r="N70">
-        <v>3.2</v>
-      </c>
-      <c r="O70">
-        <v>3.3</v>
-      </c>
-      <c r="P70">
-        <v>-0.25</v>
-      </c>
-      <c r="Q70">
-        <v>1.8</v>
-      </c>
-      <c r="R70">
-        <v>2</v>
-      </c>
-      <c r="S70">
-        <v>2.5</v>
-      </c>
       <c r="T70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W70">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z70">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6766,85 +6766,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7992020</v>
+        <v>7990732</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45373.66666666666</v>
+        <v>45373.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J71">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="K71">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="L71">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6938,85 +6938,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8013546</v>
+        <v>8013545</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45378.65625</v>
+        <v>45378.64583333334</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
         <v>0</v>
       </c>
-      <c r="H73">
+      <c r="I73" t="s">
+        <v>118</v>
+      </c>
+      <c r="J73">
+        <v>1.333</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>1.363</v>
+      </c>
+      <c r="N73">
+        <v>4.75</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <v>-1.5</v>
+      </c>
+      <c r="Q73">
+        <v>1.9</v>
+      </c>
+      <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
+        <v>3.25</v>
+      </c>
+      <c r="T73">
+        <v>1.8</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>0.363</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>119</v>
-      </c>
-      <c r="J73">
-        <v>2.75</v>
-      </c>
-      <c r="K73">
-        <v>4</v>
-      </c>
-      <c r="L73">
-        <v>2</v>
-      </c>
-      <c r="M73">
-        <v>3</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
-      </c>
-      <c r="O73">
-        <v>1.909</v>
-      </c>
-      <c r="P73">
-        <v>0.5</v>
-      </c>
-      <c r="Q73">
-        <v>1.85</v>
-      </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>4</v>
-      </c>
-      <c r="T73">
-        <v>1.925</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>-1</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>0.909</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.95</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7024,85 +7024,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8013545</v>
+        <v>8013546</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45378.64583333334</v>
+        <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J74">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P74">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -7463,10 +7463,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7549,76 +7549,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1.666</v>
+      </c>
+      <c r="M80">
+        <v>4.75</v>
+      </c>
+      <c r="N80">
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <v>1.5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1.975</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.7</v>
-      </c>
-      <c r="M80">
-        <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>2.625</v>
-      </c>
-      <c r="P80">
-        <v>-0.25</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7635,76 +7635,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>2.6</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-0.5</v>
+      </c>
+      <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1.975</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.9</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>0.5</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.825</v>
-      </c>
-      <c r="AA81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7712,85 +7712,85 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8075530</v>
+        <v>8075593</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45392.60416666666</v>
+        <v>45392.625</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J82">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="K82">
+        <v>4.5</v>
+      </c>
+      <c r="L82">
+        <v>1.363</v>
+      </c>
+      <c r="M82">
+        <v>4.75</v>
+      </c>
+      <c r="N82">
+        <v>4.5</v>
+      </c>
+      <c r="O82">
+        <v>1.5</v>
+      </c>
+      <c r="P82">
+        <v>1.25</v>
+      </c>
+      <c r="Q82">
+        <v>1.875</v>
+      </c>
+      <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
         <v>3.75</v>
       </c>
-      <c r="L82">
-        <v>2.7</v>
-      </c>
-      <c r="M82">
-        <v>2.375</v>
-      </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>2.45</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>1.85</v>
-      </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>3</v>
-      </c>
       <c r="T82">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7798,85 +7798,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075670</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2">
-        <v>45392.60416666666</v>
+        <v>45392.625</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
         <v>1</v>
       </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
       <c r="I83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7884,85 +7884,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075593</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2">
-        <v>45392.625</v>
+        <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
       <c r="I84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J84">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="P84">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7970,85 +7970,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075296</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2">
-        <v>45392.625</v>
+        <v>45392.60416666666</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J85">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="K85">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="L85">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="O85">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P85">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8151,7 +8151,7 @@
         <v>45393.625</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
         <v>50</v>
@@ -8228,7 +8228,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8243,56 +8243,56 @@
         <v>111</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+      <c r="J88">
+        <v>1.833</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88">
+        <v>1.833</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>-0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.875</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.975</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
         <v>3</v>
       </c>
-      <c r="I88" t="s">
-        <v>118</v>
-      </c>
-      <c r="J88">
-        <v>1.142</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>10</v>
-      </c>
-      <c r="M88">
-        <v>1.083</v>
-      </c>
-      <c r="N88">
-        <v>11</v>
-      </c>
-      <c r="O88">
-        <v>19</v>
-      </c>
-      <c r="P88">
-        <v>-3.5</v>
-      </c>
-      <c r="Q88">
-        <v>1.975</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>1.825</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
@@ -8300,13 +8300,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8314,7 +8314,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8329,55 +8329,55 @@
         <v>112</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8386,13 +8386,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8495,7 +8495,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
         <v>114</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -118,12 +118,12 @@
     <t>DJK Dilkrath</t>
   </si>
   <si>
+    <t>SC Velbert</t>
+  </si>
+  <si>
     <t>TuRU Dsseldorf</t>
   </si>
   <si>
-    <t>SC Velbert</t>
-  </si>
-  <si>
     <t>FC Kray</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>Spvgg Steele 0309</t>
+  </si>
+  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Arminia Eilendorf</t>
   </si>
   <si>
+    <t>SG Taucha 99</t>
+  </si>
+  <si>
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
-    <t>SG Taucha 99</t>
-  </si>
-  <si>
     <t>MSV Dusseldorf</t>
   </si>
   <si>
@@ -226,22 +226,25 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>SV Vorwarts Nordhorn</t>
+  </si>
+  <si>
     <t>SC Fortuna Bonn</t>
   </si>
   <si>
-    <t>SV Vorwarts Nordhorn</t>
-  </si>
-  <si>
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
+    <t>SGS EssenSchonebeck</t>
+  </si>
+  <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
-  </si>
-  <si>
-    <t>SGS EssenSchonebeck</t>
+    <t>SV Rott 1927</t>
   </si>
   <si>
     <t>BSC Hastedt</t>
@@ -250,9 +253,6 @@
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>SV Rott 1927</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
+    <t>SV Wermelskirchen</t>
+  </si>
+  <si>
     <t>SC KapellenErft</t>
   </si>
   <si>
-    <t>SV Wermelskirchen</t>
-  </si>
-  <si>
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>FSV NeunkirchenSeelscheid</t>
   </si>
   <si>
+    <t>SSV Bornheim</t>
+  </si>
+  <si>
     <t>VSF Amern</t>
   </si>
   <si>
-    <t>SSV Bornheim</t>
-  </si>
-  <si>
     <t>FSV Schleiz</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>SC Rheinbach</t>
   </si>
   <si>
+    <t>VfL PirnaCopitz</t>
+  </si>
+  <si>
     <t>FSG EhrangPfalzel</t>
   </si>
   <si>
-    <t>VfL PirnaCopitz</t>
-  </si>
-  <si>
     <t>Germania Schneiche</t>
   </si>
   <si>
@@ -349,16 +349,16 @@
     <t>FSV Salmrohr</t>
   </si>
   <si>
+    <t>VfB Speldorf</t>
+  </si>
+  <si>
+    <t>SV Breinig</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
   </si>
   <si>
     <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SV Breinig</t>
-  </si>
-  <si>
-    <t>VfB Speldorf</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -1348,13 +1348,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7021984</v>
+        <v>7021985</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>45144.4375</v>
+        <v>45144.41666666666</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -1363,70 +1363,70 @@
         <v>85</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K8">
         <v>4.5</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M8">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
         <v>-0.75</v>
       </c>
       <c r="Q8">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1434,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7021985</v>
+        <v>7021984</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45144.41666666666</v>
+        <v>45144.4375</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1449,70 +1449,70 @@
         <v>86</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K9">
         <v>4.5</v>
       </c>
       <c r="L9">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N9">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
         <v>-0.75</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1704,7 +1704,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1876,55 +1876,55 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>118</v>
       </c>
       <c r="J14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>2.25</v>
+      </c>
+      <c r="N14">
+        <v>3.75</v>
+      </c>
+      <c r="O14">
+        <v>2.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1.8</v>
       </c>
-      <c r="M14">
-        <v>3.25</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3.5</v>
+      </c>
+      <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.975</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>3.25</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
-      </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1933,16 +1933,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1950,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1962,56 +1962,56 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>118</v>
       </c>
       <c r="J15">
+        <v>3.25</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1.8</v>
+      </c>
+      <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.8</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.975</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>3.25</v>
+      </c>
+      <c r="T15">
+        <v>1.85</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>2.25</v>
       </c>
-      <c r="K15">
-        <v>3.75</v>
-      </c>
-      <c r="L15">
-        <v>2.5</v>
-      </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>3.75</v>
-      </c>
-      <c r="O15">
-        <v>2.5</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1.8</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>3.5</v>
-      </c>
-      <c r="T15">
-        <v>1.8</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.25</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
@@ -2019,16 +2019,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2217,7 +2217,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
         <v>87</v>
@@ -2306,7 +2306,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2392,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -3252,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3842,85 +3842,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7398238</v>
+        <v>7398237</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45228.45833333334</v>
+        <v>45228.46875</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J37">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="M37">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="N37">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O37">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="P37">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X37">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3928,85 +3928,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7398237</v>
+        <v>7398238</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>45228.46875</v>
+        <v>45228.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38">
+        <v>1.333</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>1.285</v>
+      </c>
+      <c r="N38">
+        <v>5.25</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>-1.75</v>
+      </c>
+      <c r="Q38">
+        <v>1.8</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.9</v>
+      </c>
+      <c r="U38">
+        <v>1.9</v>
+      </c>
+      <c r="V38">
+        <v>-1</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>6</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38">
-        <v>4.2</v>
-      </c>
-      <c r="K38">
-        <v>4.2</v>
-      </c>
-      <c r="L38">
-        <v>1.571</v>
-      </c>
-      <c r="M38">
-        <v>4.2</v>
-      </c>
-      <c r="N38">
-        <v>4.2</v>
-      </c>
-      <c r="O38">
-        <v>1.571</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1.9</v>
-      </c>
-      <c r="R38">
-        <v>1.9</v>
-      </c>
-      <c r="S38">
-        <v>3.75</v>
-      </c>
-      <c r="T38">
-        <v>1.925</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>-1</v>
-      </c>
-      <c r="W38">
-        <v>3.2</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4198,7 +4198,7 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -4284,7 +4284,7 @@
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4530,19 +4530,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511939</v>
+        <v>7511941</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45254.64583333334</v>
+        <v>45254.66666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4554,58 +4554,58 @@
         <v>118</v>
       </c>
       <c r="J45">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="K45">
+        <v>4.2</v>
+      </c>
+      <c r="L45">
+        <v>1.727</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>4.2</v>
+      </c>
+      <c r="O45">
+        <v>1.95</v>
+      </c>
+      <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>1.8</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
         <v>3.5</v>
       </c>
-      <c r="L45">
-        <v>2.7</v>
-      </c>
-      <c r="M45">
+      <c r="T45">
+        <v>1.875</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.8</v>
       </c>
-      <c r="N45">
-        <v>3.5</v>
-      </c>
-      <c r="O45">
-        <v>3.6</v>
-      </c>
-      <c r="P45">
-        <v>-0.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.85</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>3.25</v>
-      </c>
-      <c r="T45">
-        <v>1.85</v>
-      </c>
-      <c r="U45">
-        <v>1.95</v>
-      </c>
-      <c r="V45">
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>0.8</v>
       </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4616,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4625,40 +4625,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46">
+        <v>2.75</v>
+      </c>
+      <c r="K46">
+        <v>3.6</v>
+      </c>
+      <c r="L46">
+        <v>2.1</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>1.6</v>
+      </c>
+      <c r="P46">
         <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46">
-        <v>3.4</v>
-      </c>
-      <c r="K46">
-        <v>4.2</v>
-      </c>
-      <c r="L46">
-        <v>1.727</v>
-      </c>
-      <c r="M46">
-        <v>2.8</v>
-      </c>
-      <c r="N46">
-        <v>4.2</v>
-      </c>
-      <c r="O46">
-        <v>1.95</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4670,16 +4670,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4702,58 +4702,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511939</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45254.66666666666</v>
+        <v>45254.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J47">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>2.7</v>
+      </c>
+      <c r="M47">
+        <v>1.8</v>
+      </c>
+      <c r="N47">
+        <v>3.5</v>
+      </c>
+      <c r="O47">
         <v>3.6</v>
       </c>
-      <c r="L47">
-        <v>2.1</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-      <c r="O47">
-        <v>1.6</v>
-      </c>
       <c r="P47">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q47">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T47">
         <v>1.85</v>
@@ -4762,16 +4762,16 @@
         <v>1.95</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4883,7 +4883,7 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
         <v>102</v>
@@ -5488,7 +5488,7 @@
         <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5657,10 +5657,10 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5734,13 +5734,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7873625</v>
+        <v>7873626</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45346.64583333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="E59" t="s">
         <v>65</v>
@@ -5749,7 +5749,7 @@
         <v>104</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5758,43 +5758,43 @@
         <v>118</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K59">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M59">
+        <v>1.333</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>6</v>
+      </c>
+      <c r="P59">
+        <v>-1.5</v>
+      </c>
+      <c r="Q59">
+        <v>1.85</v>
+      </c>
+      <c r="R59">
         <v>1.95</v>
       </c>
-      <c r="N59">
-        <v>3.75</v>
-      </c>
-      <c r="O59">
-        <v>3</v>
-      </c>
-      <c r="P59">
-        <v>-0.25</v>
-      </c>
-      <c r="Q59">
+      <c r="S59">
+        <v>3.5</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
         <v>1.8</v>
       </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
-      <c r="S59">
-        <v>3.25</v>
-      </c>
-      <c r="T59">
-        <v>1.825</v>
-      </c>
-      <c r="U59">
-        <v>1.975</v>
-      </c>
       <c r="V59">
-        <v>0.95</v>
+        <v>0.333</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5803,16 +5803,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
         <v>0.8</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5820,13 +5820,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7873626</v>
+        <v>7873625</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>45346.41666666666</v>
+        <v>45346.64583333334</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -5835,7 +5835,7 @@
         <v>105</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5844,43 +5844,43 @@
         <v>118</v>
       </c>
       <c r="J60">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5889,7 +5889,7 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z60">
         <v>-1</v>
@@ -5898,7 +5898,7 @@
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -6262,7 +6262,7 @@
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6606,7 +6606,7 @@
         <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6775,7 +6775,7 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
         <v>89</v>
@@ -6938,85 +6938,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8013545</v>
+        <v>8013546</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45378.64583333334</v>
+        <v>45378.65625</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J73">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P73">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7024,85 +7024,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8013546</v>
+        <v>8013545</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45378.65625</v>
+        <v>45378.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
         <v>0</v>
       </c>
-      <c r="H74">
+      <c r="I74" t="s">
+        <v>118</v>
+      </c>
+      <c r="J74">
+        <v>1.333</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>1.363</v>
+      </c>
+      <c r="N74">
+        <v>4.75</v>
+      </c>
+      <c r="O74">
+        <v>6</v>
+      </c>
+      <c r="P74">
+        <v>-1.5</v>
+      </c>
+      <c r="Q74">
+        <v>1.9</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>3.25</v>
+      </c>
+      <c r="T74">
+        <v>1.8</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>0.363</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>119</v>
-      </c>
-      <c r="J74">
-        <v>2.75</v>
-      </c>
-      <c r="K74">
-        <v>4</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>3</v>
-      </c>
-      <c r="N74">
-        <v>4</v>
-      </c>
-      <c r="O74">
-        <v>1.909</v>
-      </c>
-      <c r="P74">
-        <v>0.5</v>
-      </c>
-      <c r="Q74">
-        <v>1.85</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>4</v>
-      </c>
-      <c r="T74">
-        <v>1.925</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
-      <c r="V74">
-        <v>-1</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>0.909</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.95</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -7196,19 +7196,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8034132</v>
+        <v>8039588</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.60416666666</v>
       </c>
       <c r="E76" t="s">
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7220,58 +7220,58 @@
         <v>120</v>
       </c>
       <c r="J76">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L76">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7282,19 +7282,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8039588</v>
+        <v>8034132</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2">
-        <v>45383.60416666666</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="E77" t="s">
         <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7306,58 +7306,58 @@
         <v>120</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K77">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N77">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q77">
+        <v>1.775</v>
+      </c>
+      <c r="R77">
+        <v>2.025</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
         <v>1.8</v>
       </c>
-      <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77">
-        <v>3.25</v>
-      </c>
-      <c r="T77">
-        <v>1.875</v>
-      </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7368,19 +7368,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8050971</v>
+        <v>8050870</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45387.61458333334</v>
+        <v>45387.58333333334</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7392,40 +7392,40 @@
         <v>120</v>
       </c>
       <c r="J78">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N78">
         <v>3.75</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
         <v>-0.5</v>
       </c>
       <c r="Q78">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
         <v>-1</v>
@@ -7440,13 +7440,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7454,19 +7454,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>8050870</v>
+        <v>8050971</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45387.58333333334</v>
+        <v>45387.61458333334</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7478,40 +7478,40 @@
         <v>120</v>
       </c>
       <c r="J79">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
         <v>3.75</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
         <v>-0.5</v>
       </c>
       <c r="Q79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
         <v>-1</v>
@@ -7526,13 +7526,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7549,76 +7549,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P80">
+        <v>-0.25</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.8</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>-1</v>
+      </c>
+      <c r="W80">
+        <v>2.6</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-0.5</v>
+      </c>
+      <c r="Z80">
+        <v>0.4</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1.975</v>
-      </c>
-      <c r="R80">
-        <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>3.5</v>
-      </c>
-      <c r="T80">
-        <v>1.9</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>-1</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>0.5</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.825</v>
-      </c>
-      <c r="AA80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7635,76 +7635,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>1.666</v>
+      </c>
+      <c r="M81">
+        <v>4.75</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+      <c r="O81">
+        <v>1.5</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1.975</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
         <v>3.5</v>
       </c>
-      <c r="L81">
-        <v>2.7</v>
-      </c>
-      <c r="M81">
-        <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>2.625</v>
-      </c>
-      <c r="P81">
-        <v>-0.25</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81">
-        <v>1.8</v>
-      </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7712,58 +7712,58 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8075593</v>
+        <v>8075592</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45392.625</v>
+        <v>45392.58333333334</v>
       </c>
       <c r="E82" t="s">
         <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+      <c r="J82">
+        <v>2.4</v>
+      </c>
+      <c r="K82">
+        <v>3.4</v>
+      </c>
+      <c r="L82">
+        <v>2.5</v>
+      </c>
+      <c r="M82">
+        <v>2.4</v>
+      </c>
+      <c r="N82">
+        <v>3.4</v>
+      </c>
+      <c r="O82">
+        <v>2.5</v>
+      </c>
+      <c r="P82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>119</v>
-      </c>
-      <c r="J82">
-        <v>6.5</v>
-      </c>
-      <c r="K82">
-        <v>4.5</v>
-      </c>
-      <c r="L82">
-        <v>1.363</v>
-      </c>
-      <c r="M82">
-        <v>4.75</v>
-      </c>
-      <c r="N82">
-        <v>4.5</v>
-      </c>
-      <c r="O82">
-        <v>1.5</v>
-      </c>
-      <c r="P82">
-        <v>1.25</v>
-      </c>
       <c r="Q82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T82">
         <v>2</v>
@@ -7775,16 +7775,16 @@
         <v>-1</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7798,85 +7798,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075670</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2">
-        <v>45392.625</v>
+        <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J83">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="N83">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="O83">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P83">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7893,7 +7893,7 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
         <v>108</v>
@@ -7970,85 +7970,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075296</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2">
-        <v>45392.60416666666</v>
+        <v>45392.625</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
         <v>1</v>
       </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
       <c r="I85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J85">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="K85">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M85">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="N85">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P85">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8056,58 +8056,58 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075592</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2">
-        <v>45392.58333333334</v>
+        <v>45392.625</v>
       </c>
       <c r="E86" t="s">
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J86">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="K86">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L86">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="M86">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
         <v>2</v>
@@ -8119,16 +8119,16 @@
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8142,64 +8142,64 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8076435</v>
+        <v>8076436</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45393.625</v>
+        <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87" t="s">
         <v>119</v>
       </c>
       <c r="J87">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M87">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P87">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q87">
+        <v>1.875</v>
+      </c>
+      <c r="R87">
         <v>1.925</v>
       </c>
-      <c r="R87">
-        <v>1.875</v>
-      </c>
       <c r="S87">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
         <v>-1</v>
@@ -8208,19 +8208,19 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8228,7 +8228,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076477</v>
+        <v>8076438</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8240,46 +8240,46 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J88">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T88">
         <v>1.975</v>
@@ -8291,22 +8291,22 @@
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8314,7 +8314,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8326,59 +8326,59 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+      <c r="J89">
+        <v>1.833</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>1.833</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>-0.5</v>
+      </c>
+      <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
         <v>3</v>
       </c>
-      <c r="I89" t="s">
-        <v>118</v>
-      </c>
-      <c r="J89">
-        <v>1.142</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
-      <c r="L89">
-        <v>10</v>
-      </c>
-      <c r="M89">
-        <v>1.083</v>
-      </c>
-      <c r="N89">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>19</v>
-      </c>
-      <c r="P89">
-        <v>-3.5</v>
-      </c>
-      <c r="Q89">
-        <v>1.975</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>1.825</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8386,13 +8386,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8400,7 +8400,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076438</v>
+        <v>8077795</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8412,70 +8412,70 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J90">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="L90">
+        <v>10</v>
+      </c>
+      <c r="M90">
+        <v>1.083</v>
+      </c>
+      <c r="N90">
+        <v>11</v>
+      </c>
+      <c r="O90">
+        <v>19</v>
+      </c>
+      <c r="P90">
+        <v>-3.5</v>
+      </c>
+      <c r="Q90">
+        <v>1.975</v>
+      </c>
+      <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
         <v>5</v>
       </c>
-      <c r="L90">
-        <v>5.5</v>
-      </c>
-      <c r="M90">
-        <v>1.65</v>
-      </c>
-      <c r="N90">
-        <v>4.5</v>
-      </c>
-      <c r="O90">
-        <v>3.5</v>
-      </c>
-      <c r="P90">
-        <v>-0.75</v>
-      </c>
-      <c r="Q90">
+      <c r="T90">
         <v>1.825</v>
       </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>3.5</v>
-      </c>
-      <c r="T90">
-        <v>1.975</v>
-      </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
       <c r="V90">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
         <v>-1</v>
@@ -8486,64 +8486,64 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8076436</v>
+        <v>8076435</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2">
-        <v>45393.58333333334</v>
+        <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91" t="s">
         <v>119</v>
       </c>
       <c r="J91">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="K91">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L91">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="N91">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O91">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
         <v>1.875</v>
       </c>
-      <c r="R91">
-        <v>1.925</v>
-      </c>
       <c r="S91">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T91">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
         <v>-1</v>
@@ -8552,19 +8552,19 @@
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -100,12 +100,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
-  </si>
-  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
@@ -127,21 +127,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -226,24 +226,24 @@
     <t>TV Dinklage</t>
   </si>
   <si>
+    <t>SC Fortuna Bonn</t>
+  </si>
+  <si>
     <t>SV Vorwarts Nordhorn</t>
   </si>
   <si>
-    <t>SC Fortuna Bonn</t>
-  </si>
-  <si>
     <t>TuS Kirchberg 1909</t>
   </si>
   <si>
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
-  </si>
-  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>SpVg Cologne Flittard</t>
   </si>
   <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>FC Viersen</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Viersen</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -304,10 +304,10 @@
     <t>FSV NeunkirchenSeelscheid</t>
   </si>
   <si>
+    <t>VSF Amern</t>
+  </si>
+  <si>
     <t>SSV Bornheim</t>
-  </si>
-  <si>
-    <t>VSF Amern</t>
   </si>
   <si>
     <t>FSV Schleiz</t>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -847,70 +847,70 @@
         <v>82</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>118</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M2">
+        <v>2.6</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
         <v>1.75</v>
       </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>3.25</v>
+      </c>
+      <c r="T2">
+        <v>1.775</v>
+      </c>
+      <c r="U2">
+        <v>2.025</v>
+      </c>
+      <c r="V2">
+        <v>1.6</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2.75</v>
-      </c>
-      <c r="T2">
-        <v>1.8</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>0.75</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>0.8</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -933,52 +933,52 @@
         <v>83</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -987,16 +987,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1016,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1621,49 +1621,49 @@
         <v>88</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>119</v>
       </c>
       <c r="J11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>3.6</v>
       </c>
       <c r="O11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>-0.25</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2.75</v>
+      </c>
+      <c r="T11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <v>1.825</v>
-      </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1672,19 +1672,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1704,73 +1704,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>2.2</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
+        <v>2.625</v>
+      </c>
+      <c r="P12">
+        <v>-0.25</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <v>1.8</v>
-      </c>
-      <c r="M12">
-        <v>2.9</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>1.95</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>0.8</v>
       </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1790,37 +1790,37 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q13">
         <v>1.8</v>
@@ -1829,34 +1829,34 @@
         <v>2</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1864,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1876,56 +1876,56 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>118</v>
       </c>
       <c r="J14">
+        <v>3.25</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1.8</v>
+      </c>
+      <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>1.975</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>3.25</v>
+      </c>
+      <c r="T14">
+        <v>1.85</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>2.25</v>
       </c>
-      <c r="K14">
-        <v>3.75</v>
-      </c>
-      <c r="L14">
-        <v>2.5</v>
-      </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>3.75</v>
-      </c>
-      <c r="O14">
-        <v>2.5</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>3.5</v>
-      </c>
-      <c r="T14">
-        <v>1.8</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.25</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
@@ -1933,16 +1933,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1950,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1962,55 +1962,55 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>118</v>
       </c>
       <c r="J15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1.8</v>
       </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3.5</v>
+      </c>
+      <c r="T15">
         <v>1.8</v>
       </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <v>1.975</v>
-      </c>
-      <c r="R15">
-        <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>3.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -2019,16 +2019,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2217,7 +2217,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>87</v>
@@ -2475,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2991,7 +2991,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -3252,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3842,85 +3842,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7398237</v>
+        <v>7398238</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45228.46875</v>
+        <v>45228.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37">
+        <v>1.333</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>1.285</v>
+      </c>
+      <c r="N37">
+        <v>5.25</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>-1.75</v>
+      </c>
+      <c r="Q37">
+        <v>1.8</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>1.9</v>
+      </c>
+      <c r="U37">
+        <v>1.9</v>
+      </c>
+      <c r="V37">
+        <v>-1</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>1</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>120</v>
-      </c>
-      <c r="J37">
-        <v>4.2</v>
-      </c>
-      <c r="K37">
-        <v>4.2</v>
-      </c>
-      <c r="L37">
-        <v>1.571</v>
-      </c>
-      <c r="M37">
-        <v>4.2</v>
-      </c>
-      <c r="N37">
-        <v>4.2</v>
-      </c>
-      <c r="O37">
-        <v>1.571</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1.9</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>3.75</v>
-      </c>
-      <c r="T37">
-        <v>1.925</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
-      <c r="V37">
-        <v>-1</v>
-      </c>
-      <c r="W37">
-        <v>3.2</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3928,85 +3928,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7398238</v>
+        <v>7398237</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>45228.45833333334</v>
+        <v>45228.46875</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J38">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="M38">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="N38">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O38">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="P38">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T38">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X38">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4100,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4109,13 +4109,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4124,43 +4124,43 @@
         <v>118</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4169,16 +4169,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4186,7 +4186,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4195,13 +4195,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4210,43 +4210,43 @@
         <v>118</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4255,16 +4255,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4530,19 +4530,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511941</v>
+        <v>7511939</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45254.66666666666</v>
+        <v>45254.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4554,43 +4554,43 @@
         <v>118</v>
       </c>
       <c r="J45">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
+        <v>3.6</v>
+      </c>
+      <c r="P45">
+        <v>-0.5</v>
+      </c>
+      <c r="Q45">
+        <v>1.85</v>
+      </c>
+      <c r="R45">
         <v>1.95</v>
       </c>
-      <c r="P45">
-        <v>0.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.8</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
       <c r="S45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4599,13 +4599,13 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4616,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4625,40 +4625,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4670,16 +4670,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4702,58 +4702,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511939</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45254.64583333334</v>
+        <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47">
+        <v>2.75</v>
+      </c>
+      <c r="K47">
+        <v>3.6</v>
+      </c>
+      <c r="L47">
+        <v>2.1</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>1.6</v>
+      </c>
+      <c r="P47">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
-        <v>118</v>
-      </c>
-      <c r="J47">
-        <v>2.2</v>
-      </c>
-      <c r="K47">
+      <c r="Q47">
+        <v>1.8</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>3.5</v>
-      </c>
-      <c r="L47">
-        <v>2.7</v>
-      </c>
-      <c r="M47">
-        <v>1.8</v>
-      </c>
-      <c r="N47">
-        <v>3.5</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>-0.5</v>
-      </c>
-      <c r="Q47">
-        <v>1.85</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>3.25</v>
       </c>
       <c r="T47">
         <v>1.85</v>
@@ -4762,16 +4762,16 @@
         <v>1.95</v>
       </c>
       <c r="V47">
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
         <v>0.8</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>0.8500000000000001</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4883,7 +4883,7 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
         <v>102</v>
@@ -4972,7 +4972,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5399,10 +5399,10 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -6001,7 +6001,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6508,49 +6508,49 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7969733</v>
+        <v>7969732</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45368.47916666666</v>
+        <v>45368.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J68">
-        <v>3.9</v>
+        <v>1.333</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N68">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O68">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="P68">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q68">
         <v>1.975</v>
@@ -6562,19 +6562,19 @@
         <v>3.25</v>
       </c>
       <c r="T68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6583,10 +6583,10 @@
         <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6594,49 +6594,49 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7969732</v>
+        <v>7969733</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J69">
-        <v>1.333</v>
+        <v>3.9</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="M69">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O69">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="P69">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q69">
         <v>1.975</v>
@@ -6648,19 +6648,19 @@
         <v>3.25</v>
       </c>
       <c r="T69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y69">
         <v>-1</v>
@@ -6669,10 +6669,10 @@
         <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6680,85 +6680,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7992020</v>
+        <v>7990732</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45373.66666666666</v>
+        <v>45373.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J70">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="K70">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="L70">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6766,85 +6766,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7990732</v>
+        <v>7992020</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45373.64583333334</v>
+        <v>45373.66666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J71">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="L71">
+        <v>6.5</v>
+      </c>
+      <c r="M71">
+        <v>1.444</v>
+      </c>
+      <c r="N71">
+        <v>4.75</v>
+      </c>
+      <c r="O71">
+        <v>4.75</v>
+      </c>
+      <c r="P71">
+        <v>-1.25</v>
+      </c>
+      <c r="Q71">
+        <v>1.875</v>
+      </c>
+      <c r="R71">
+        <v>1.925</v>
+      </c>
+      <c r="S71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>2.05</v>
-      </c>
-      <c r="N71">
-        <v>3.2</v>
-      </c>
-      <c r="O71">
-        <v>3.3</v>
-      </c>
-      <c r="P71">
-        <v>-0.25</v>
-      </c>
-      <c r="Q71">
-        <v>1.8</v>
-      </c>
-      <c r="R71">
-        <v>2</v>
-      </c>
-      <c r="S71">
-        <v>2.5</v>
-      </c>
       <c r="T71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W71">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6938,85 +6938,85 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8013546</v>
+        <v>8013545</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45378.65625</v>
+        <v>45378.64583333334</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
         <v>0</v>
       </c>
-      <c r="H73">
+      <c r="I73" t="s">
+        <v>118</v>
+      </c>
+      <c r="J73">
+        <v>1.333</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>1.363</v>
+      </c>
+      <c r="N73">
+        <v>4.75</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <v>-1.5</v>
+      </c>
+      <c r="Q73">
+        <v>1.9</v>
+      </c>
+      <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
+        <v>3.25</v>
+      </c>
+      <c r="T73">
+        <v>1.8</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>0.363</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>119</v>
-      </c>
-      <c r="J73">
-        <v>2.75</v>
-      </c>
-      <c r="K73">
-        <v>4</v>
-      </c>
-      <c r="L73">
-        <v>2</v>
-      </c>
-      <c r="M73">
-        <v>3</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
-      </c>
-      <c r="O73">
-        <v>1.909</v>
-      </c>
-      <c r="P73">
-        <v>0.5</v>
-      </c>
-      <c r="Q73">
-        <v>1.85</v>
-      </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>4</v>
-      </c>
-      <c r="T73">
-        <v>1.925</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>-1</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>0.909</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.95</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7024,85 +7024,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8013545</v>
+        <v>8013546</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45378.64583333334</v>
+        <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J74">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P74">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -7196,19 +7196,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8039588</v>
+        <v>8034132</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45383.60416666666</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="E76" t="s">
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7220,58 +7220,58 @@
         <v>120</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q76">
+        <v>1.775</v>
+      </c>
+      <c r="R76">
+        <v>2.025</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
         <v>1.8</v>
       </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
-      <c r="S76">
-        <v>3.25</v>
-      </c>
-      <c r="T76">
-        <v>1.875</v>
-      </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7282,19 +7282,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8034132</v>
+        <v>8039588</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.60416666666</v>
       </c>
       <c r="E77" t="s">
         <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7306,58 +7306,58 @@
         <v>120</v>
       </c>
       <c r="J77">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L77">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="M77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O77">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7380,7 +7380,7 @@
         <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7982,73 +7982,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
         <v>1.8</v>
       </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
       <c r="V85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8056,7 +8056,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8068,73 +8068,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J86">
+        <v>1.222</v>
+      </c>
+      <c r="K86">
         <v>6.5</v>
       </c>
-      <c r="K86">
-        <v>4.5</v>
-      </c>
       <c r="L86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
         <v>1.875</v>
       </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8151,7 +8151,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
         <v>111</v>
@@ -8495,7 +8495,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -106,12 +106,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SV Schott Jena</t>
+  </si>
+  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
-  </si>
-  <si>
-    <t>SF Niederwenigern</t>
   </si>
   <si>
     <t>SV Rott 1927</t>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1016,73 +1016,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1102,73 +1102,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1704,73 +1704,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12">
+        <v>3.25</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12">
-        <v>1.909</v>
-      </c>
-      <c r="K12">
-        <v>3.75</v>
-      </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1790,73 +1790,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>2.2</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
+        <v>2.625</v>
+      </c>
+      <c r="P13">
+        <v>-0.25</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>1.8</v>
-      </c>
-      <c r="M13">
-        <v>2.9</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>1.95</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.8</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.8</v>
       </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2475,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -4023,7 +4023,7 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -4972,7 +4972,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6259,7 +6259,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6603,7 +6603,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>108</v>
@@ -6778,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -7552,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7982,73 +7982,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J85">
+        <v>1.222</v>
+      </c>
+      <c r="K85">
         <v>6.5</v>
       </c>
-      <c r="K85">
-        <v>4.5</v>
-      </c>
       <c r="L85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q85">
+        <v>1.925</v>
+      </c>
+      <c r="R85">
         <v>1.875</v>
       </c>
-      <c r="R85">
-        <v>1.925</v>
-      </c>
       <c r="S85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8056,7 +8056,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8068,73 +8068,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
+        <v>1.875</v>
+      </c>
+      <c r="R86">
         <v>1.925</v>
       </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
       <c r="S86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
       <c r="V86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:28">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -106,12 +106,12 @@
     <t>SpVg Porz 1919</t>
   </si>
   <si>
+    <t>SSV Markranstadt</t>
+  </si>
+  <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>SV Rott 1927</t>
   </si>
   <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -355,10 +355,10 @@
     <t>SV Breinig</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
   </si>
   <si>
     <t>Sportfreunde Eisbachtal</t>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1016,73 +1016,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1102,73 +1102,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1704,73 +1704,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J12">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>2.2</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
+        <v>2.625</v>
+      </c>
+      <c r="P12">
+        <v>-0.25</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <v>1.8</v>
-      </c>
-      <c r="M12">
-        <v>2.9</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>1.95</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>0.8</v>
       </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1790,73 +1790,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13">
+        <v>3.25</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13">
-        <v>1.909</v>
-      </c>
-      <c r="K13">
-        <v>3.75</v>
-      </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2475,7 +2475,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -4023,7 +4023,7 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -6001,7 +6001,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6259,7 +6259,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6603,7 +6603,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
         <v>108</v>
@@ -6778,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -7552,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7807,76 +7807,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7884,7 +7884,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7893,76 +7893,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K84">
+        <v>4.75</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>5.25</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>-1.5</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>3.75</v>
       </c>
-      <c r="L84">
-        <v>2.7</v>
-      </c>
-      <c r="M84">
-        <v>2.375</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>2.45</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1.85</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8314,7 +8314,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8329,55 +8329,55 @@
         <v>113</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8386,13 +8386,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8400,7 +8400,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8415,56 +8415,56 @@
         <v>114</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+      <c r="J90">
+        <v>1.833</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
+        <v>1.833</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>3.1</v>
+      </c>
+      <c r="P90">
+        <v>-0.5</v>
+      </c>
+      <c r="Q90">
+        <v>1.875</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>3.75</v>
+      </c>
+      <c r="T90">
+        <v>1.975</v>
+      </c>
+      <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
+        <v>-1</v>
+      </c>
+      <c r="W90">
         <v>3</v>
       </c>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-      <c r="J90">
-        <v>1.142</v>
-      </c>
-      <c r="K90">
-        <v>7</v>
-      </c>
-      <c r="L90">
-        <v>10</v>
-      </c>
-      <c r="M90">
-        <v>1.083</v>
-      </c>
-      <c r="N90">
-        <v>11</v>
-      </c>
-      <c r="O90">
-        <v>19</v>
-      </c>
-      <c r="P90">
-        <v>-3.5</v>
-      </c>
-      <c r="Q90">
-        <v>1.975</v>
-      </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>5</v>
-      </c>
-      <c r="T90">
-        <v>1.825</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
       <c r="X90">
         <v>-1</v>
       </c>
@@ -8472,13 +8472,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:28">

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -100,18 +100,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>SV Rott 1927</t>
   </si>
   <si>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -262,12 +262,30 @@
     <t>SpVg Cologne Flittard</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
+    <t>SV Budberg</t>
+  </si>
+  <si>
+    <t>1 FC Burg</t>
+  </si>
+  <si>
+    <t>SG Motor Wilsdruff</t>
+  </si>
+  <si>
+    <t>Radefelder SV 90</t>
+  </si>
+  <si>
+    <t>Borussia LindenthalHohenlind</t>
+  </si>
+  <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -280,12 +298,12 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Viersen</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>VfB Frohnhausen</t>
   </si>
   <si>
@@ -322,9 +340,6 @@
     <t>Kohlscheider BC</t>
   </si>
   <si>
-    <t>SV Budberg</t>
-  </si>
-  <si>
     <t>SC Rheinbach</t>
   </si>
   <si>
@@ -355,12 +370,12 @@
     <t>SV Breinig</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
   </si>
   <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
     <t>Sportfreunde Eisbachtal</t>
   </si>
   <si>
@@ -368,6 +383,21 @@
   </si>
   <si>
     <t>TSV Elstorf</t>
+  </si>
+  <si>
+    <t>TSG Einheit Bernau</t>
+  </si>
+  <si>
+    <t>SV Victoria Seelow</t>
+  </si>
+  <si>
+    <t>SV Grohn</t>
+  </si>
+  <si>
+    <t>SC Germania Erftstadt</t>
+  </si>
+  <si>
+    <t>Radebeuler BC 08</t>
   </si>
   <si>
     <t>H</t>
@@ -738,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -844,55 +874,55 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -901,16 +931,16 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -918,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -930,73 +960,73 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
+        <v>2.6</v>
+      </c>
+      <c r="N3">
+        <v>3.5</v>
+      </c>
+      <c r="O3">
+        <v>2.25</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
         <v>1.75</v>
       </c>
-      <c r="N3">
-        <v>3.6</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>3.25</v>
+      </c>
+      <c r="T3">
+        <v>1.775</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
+        <v>1.6</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.8</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2.75</v>
-      </c>
-      <c r="T3">
-        <v>1.8</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>0.75</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>0.8</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1004,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1016,73 +1046,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1090,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1102,73 +1132,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1197,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1283,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1360,7 +1390,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1369,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1446,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1455,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1532,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1541,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1606,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1618,37 +1648,37 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -1657,34 +1687,34 @@
         <v>2</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1704,7 +1734,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1713,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1778,7 +1808,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1790,37 +1820,37 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J13">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O13">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
         <v>1.8</v>
@@ -1829,34 +1859,34 @@
         <v>2</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1885,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J14">
         <v>3.25</v>
@@ -1962,7 +1992,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1971,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J15">
         <v>2.25</v>
@@ -2057,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2134,7 +2164,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2143,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2220,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2229,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2315,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2392,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2401,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2487,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2564,7 +2594,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2573,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2659,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2736,7 +2766,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2745,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2831,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2908,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2917,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3003,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3089,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3166,7 +3196,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3175,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3261,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3338,7 +3368,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3347,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3433,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3510,7 +3540,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3519,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3596,7 +3626,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3605,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3691,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3777,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3854,7 +3884,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3863,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3940,7 +3970,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3949,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4023,10 +4053,10 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4035,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4100,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4109,58 +4139,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4169,16 +4199,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4186,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4195,58 +4225,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4255,16 +4285,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4293,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4379,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4456,7 +4486,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4465,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4542,7 +4572,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4551,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4637,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4723,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4800,7 +4830,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4809,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4886,7 +4916,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4895,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -4981,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5058,7 +5088,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5067,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5153,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5239,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5325,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5399,10 +5429,10 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5411,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5497,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5574,7 +5604,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5583,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5669,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5746,7 +5776,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5755,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5832,7 +5862,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5841,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5915,7 +5945,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -5927,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6001,7 +6031,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6013,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6090,7 +6120,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6099,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6185,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6259,7 +6289,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6271,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6348,7 +6378,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6357,7 +6387,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6434,7 +6464,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6443,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6529,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6606,7 +6636,7 @@
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6615,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6692,7 +6722,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6701,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6787,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6864,7 +6894,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6873,7 +6903,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6959,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7045,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7122,7 +7152,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7131,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7208,7 +7238,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7217,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7303,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7389,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7466,7 +7496,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7475,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7552,7 +7582,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7561,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J80">
         <v>2.2</v>
@@ -7647,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J81">
         <v>3.75</v>
@@ -7733,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7798,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7807,76 +7837,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
+        <v>4.75</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>5.25</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>-1.5</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>3.75</v>
       </c>
-      <c r="L83">
-        <v>2.7</v>
-      </c>
-      <c r="M83">
-        <v>2.375</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>2.45</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7884,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7893,76 +7923,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7982,7 +8012,7 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7991,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J85">
         <v>1.222</v>
@@ -8077,7 +8107,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J86">
         <v>6.5</v>
@@ -8154,7 +8184,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8163,7 +8193,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8240,7 +8270,7 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8249,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J88">
         <v>1.363</v>
@@ -8314,7 +8344,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8326,59 +8356,59 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+      <c r="J89">
+        <v>1.833</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>1.833</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>-0.5</v>
+      </c>
+      <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
         <v>3</v>
       </c>
-      <c r="I89" t="s">
-        <v>118</v>
-      </c>
-      <c r="J89">
-        <v>1.142</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
-      <c r="L89">
-        <v>10</v>
-      </c>
-      <c r="M89">
-        <v>1.083</v>
-      </c>
-      <c r="N89">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>19</v>
-      </c>
-      <c r="P89">
-        <v>-3.5</v>
-      </c>
-      <c r="Q89">
-        <v>1.975</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>1.825</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8386,13 +8416,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8400,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8412,58 +8442,58 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J90">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M90">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P90">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T90">
+        <v>1.825</v>
+      </c>
+      <c r="U90">
         <v>1.975</v>
       </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
       <c r="V90">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8472,13 +8502,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8495,7 +8525,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
@@ -8507,7 +8537,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8584,7 +8614,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8593,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8670,7 +8700,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8679,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8756,7 +8786,7 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -8765,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8851,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J95">
         <v>2.2</v>
@@ -8909,6 +8939,952 @@
       </c>
       <c r="AB95">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>8163122</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45412.61111111111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+      <c r="J96">
+        <v>1.6</v>
+      </c>
+      <c r="K96">
+        <v>4.2</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>1.6</v>
+      </c>
+      <c r="N96">
+        <v>4.2</v>
+      </c>
+      <c r="O96">
+        <v>4</v>
+      </c>
+      <c r="P96">
+        <v>-1</v>
+      </c>
+      <c r="Q96">
+        <v>2.025</v>
+      </c>
+      <c r="R96">
+        <v>1.775</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>1.95</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>1.025</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>8158915</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45412.625</v>
+      </c>
+      <c r="E97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+      <c r="J97">
+        <v>1.8</v>
+      </c>
+      <c r="K97">
+        <v>3.6</v>
+      </c>
+      <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>1.8</v>
+      </c>
+      <c r="N97">
+        <v>3.6</v>
+      </c>
+      <c r="O97">
+        <v>3.5</v>
+      </c>
+      <c r="P97">
+        <v>-0.5</v>
+      </c>
+      <c r="Q97">
+        <v>1.85</v>
+      </c>
+      <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>3.5</v>
+      </c>
+      <c r="T97">
+        <v>1.8</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>0.8</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>8163123</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45412.625</v>
+      </c>
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+      <c r="J98">
+        <v>1.7</v>
+      </c>
+      <c r="K98">
+        <v>3.75</v>
+      </c>
+      <c r="L98">
+        <v>3.75</v>
+      </c>
+      <c r="M98">
+        <v>1.7</v>
+      </c>
+      <c r="N98">
+        <v>3.75</v>
+      </c>
+      <c r="O98">
+        <v>3.75</v>
+      </c>
+      <c r="P98">
+        <v>-0.5</v>
+      </c>
+      <c r="Q98">
+        <v>1.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>3.75</v>
+      </c>
+      <c r="T98">
+        <v>1.85</v>
+      </c>
+      <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
+        <v>0.7</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>0.75</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>8161900</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+      <c r="J99">
+        <v>1.727</v>
+      </c>
+      <c r="K99">
+        <v>4.2</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>1.333</v>
+      </c>
+      <c r="N99">
+        <v>6</v>
+      </c>
+      <c r="O99">
+        <v>5.5</v>
+      </c>
+      <c r="P99">
+        <v>-1.75</v>
+      </c>
+      <c r="Q99">
+        <v>1.95</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>4</v>
+      </c>
+      <c r="T99">
+        <v>1.825</v>
+      </c>
+      <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
+        <v>0.333</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>0.95</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.825</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>8166044</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45414.58333333334</v>
+      </c>
+      <c r="E100" t="s">
+        <v>84</v>
+      </c>
+      <c r="F100" t="s">
+        <v>125</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+      <c r="J100">
+        <v>2.25</v>
+      </c>
+      <c r="K100">
+        <v>3.5</v>
+      </c>
+      <c r="L100">
+        <v>2.6</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <v>2.4</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>1.825</v>
+      </c>
+      <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>1.925</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>-1</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>1.4</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>8166060</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45414.625</v>
+      </c>
+      <c r="E101" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+      <c r="J101">
+        <v>1.571</v>
+      </c>
+      <c r="K101">
+        <v>4.75</v>
+      </c>
+      <c r="L101">
+        <v>3.8</v>
+      </c>
+      <c r="M101">
+        <v>1.3</v>
+      </c>
+      <c r="N101">
+        <v>5.75</v>
+      </c>
+      <c r="O101">
+        <v>5.75</v>
+      </c>
+      <c r="P101">
+        <v>-1.75</v>
+      </c>
+      <c r="Q101">
+        <v>1.875</v>
+      </c>
+      <c r="R101">
+        <v>1.925</v>
+      </c>
+      <c r="S101">
+        <v>4.25</v>
+      </c>
+      <c r="T101">
+        <v>1.825</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
+        <v>-1</v>
+      </c>
+      <c r="W101">
+        <v>4.75</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <v>0.925</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>8169516</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="E102" t="s">
+        <v>85</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>3.6</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>3.3</v>
+      </c>
+      <c r="N102">
+        <v>3.75</v>
+      </c>
+      <c r="O102">
+        <v>1.833</v>
+      </c>
+      <c r="P102">
+        <v>0.5</v>
+      </c>
+      <c r="Q102">
+        <v>1.9</v>
+      </c>
+      <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>1.875</v>
+      </c>
+      <c r="U102">
+        <v>1.925</v>
+      </c>
+      <c r="V102">
+        <v>-1</v>
+      </c>
+      <c r="W102">
+        <v>2.75</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>8169482</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45415.625</v>
+      </c>
+      <c r="E103" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" t="s">
+        <v>126</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+      <c r="J103">
+        <v>1.571</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>4.333</v>
+      </c>
+      <c r="M103">
+        <v>1.4</v>
+      </c>
+      <c r="N103">
+        <v>4.5</v>
+      </c>
+      <c r="O103">
+        <v>5.5</v>
+      </c>
+      <c r="P103">
+        <v>-1.5</v>
+      </c>
+      <c r="Q103">
+        <v>1.925</v>
+      </c>
+      <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>1.825</v>
+      </c>
+      <c r="U103">
+        <v>1.975</v>
+      </c>
+      <c r="V103">
+        <v>-1</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>4.5</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.875</v>
+      </c>
+      <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>8179934</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+      <c r="J104">
+        <v>2.3</v>
+      </c>
+      <c r="K104">
+        <v>3.2</v>
+      </c>
+      <c r="L104">
+        <v>2.75</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>3.2</v>
+      </c>
+      <c r="O104">
+        <v>2.5</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>1.9</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>2.5</v>
+      </c>
+      <c r="T104">
+        <v>1.9</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
+        <v>-1</v>
+      </c>
+      <c r="W104">
+        <v>2.2</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>8179985</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45417.42708333334</v>
+      </c>
+      <c r="E105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+      <c r="J105">
+        <v>2.15</v>
+      </c>
+      <c r="K105">
+        <v>4.5</v>
+      </c>
+      <c r="L105">
+        <v>2.35</v>
+      </c>
+      <c r="M105">
+        <v>2.15</v>
+      </c>
+      <c r="N105">
+        <v>4.5</v>
+      </c>
+      <c r="O105">
+        <v>2.375</v>
+      </c>
+      <c r="P105">
+        <v>-0.25</v>
+      </c>
+      <c r="Q105">
+        <v>2.025</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>3.75</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.8</v>
+      </c>
+      <c r="V105">
+        <v>-1</v>
+      </c>
+      <c r="W105">
+        <v>3.5</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-0.5</v>
+      </c>
+      <c r="Z105">
+        <v>0.3875</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>8180064</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45417.4375</v>
+      </c>
+      <c r="E106" t="s">
+        <v>87</v>
+      </c>
+      <c r="F106" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>128</v>
+      </c>
+      <c r="J106">
+        <v>1.3</v>
+      </c>
+      <c r="K106">
+        <v>5.25</v>
+      </c>
+      <c r="L106">
+        <v>6.5</v>
+      </c>
+      <c r="M106">
+        <v>1.3</v>
+      </c>
+      <c r="N106">
+        <v>5.5</v>
+      </c>
+      <c r="O106">
+        <v>6</v>
+      </c>
+      <c r="P106">
+        <v>-1.75</v>
+      </c>
+      <c r="Q106">
+        <v>1.875</v>
+      </c>
+      <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>1.85</v>
+      </c>
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
+        <v>0.3</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>0.875</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,12 @@
     <t>Cronenberger SC</t>
   </si>
   <si>
+    <t>Spvgg Steele 0309</t>
+  </si>
+  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
-    <t>Spvgg Steele 0309</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>SV Rott 1927</t>
   </si>
   <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -280,6 +280,12 @@
     <t>Borussia LindenthalHohenlind</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
+    <t>FC Schuttorf</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
@@ -298,9 +304,6 @@
     <t>SV Honnepel Nierdermormter</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>FC Viersen</t>
   </si>
   <si>
@@ -370,12 +373,12 @@
     <t>SV Breinig</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SC Weyhe</t>
   </si>
   <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
     <t>Sportfreunde Eisbachtal</t>
   </si>
   <si>
@@ -398,6 +401,9 @@
   </si>
   <si>
     <t>Radebeuler BC 08</t>
+  </si>
+  <si>
+    <t>BV Garrel</t>
   </si>
   <si>
     <t>H</t>
@@ -768,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -883,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J2">
         <v>2.25</v>
@@ -960,7 +966,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J3">
         <v>2.6</v>
@@ -1046,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1055,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J5">
         <v>1.25</v>
@@ -1227,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1313,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1390,7 +1396,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1399,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1476,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1485,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1562,7 +1568,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1571,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1657,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J11">
         <v>3.25</v>
@@ -1734,7 +1740,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1743,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1820,7 +1826,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1829,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1894,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1906,55 +1912,55 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>2.25</v>
+      </c>
+      <c r="N14">
+        <v>3.75</v>
+      </c>
+      <c r="O14">
+        <v>2.5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1.8</v>
       </c>
-      <c r="M14">
-        <v>3.25</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>3.5</v>
+      </c>
+      <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.975</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>3.25</v>
-      </c>
-      <c r="T14">
-        <v>1.85</v>
-      </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1963,16 +1969,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1980,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1992,56 +1998,56 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15">
+        <v>3.25</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15">
+      <c r="L15">
+        <v>1.8</v>
+      </c>
+      <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.8</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.975</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>3.25</v>
+      </c>
+      <c r="T15">
+        <v>1.85</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>2.25</v>
       </c>
-      <c r="K15">
-        <v>3.75</v>
-      </c>
-      <c r="L15">
-        <v>2.5</v>
-      </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>3.75</v>
-      </c>
-      <c r="O15">
-        <v>2.5</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1.8</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>3.5</v>
-      </c>
-      <c r="T15">
-        <v>1.8</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.25</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
@@ -2049,16 +2055,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2164,7 +2170,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2173,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2247,10 +2253,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2345,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2422,7 +2428,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2431,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2517,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2594,7 +2600,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2603,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2689,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2766,7 +2772,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2775,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2861,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2938,7 +2944,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2947,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3021,7 +3027,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -3033,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3119,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3196,7 +3202,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3205,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3291,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3368,7 +3374,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3463,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3540,7 +3546,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3549,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3626,7 +3632,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3635,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3721,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3807,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3884,7 +3890,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3893,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3970,7 +3976,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3979,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4056,7 +4062,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4065,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4130,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4139,58 +4145,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4199,16 +4205,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4216,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4225,58 +4231,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4285,16 +4291,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4323,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4409,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4486,7 +4492,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4495,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4572,7 +4578,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4581,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4646,7 +4652,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4655,40 +4661,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46">
+        <v>2.75</v>
+      </c>
+      <c r="K46">
+        <v>3.6</v>
+      </c>
+      <c r="L46">
+        <v>2.1</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>1.6</v>
+      </c>
+      <c r="P46">
         <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>128</v>
-      </c>
-      <c r="J46">
-        <v>3.4</v>
-      </c>
-      <c r="K46">
-        <v>4.2</v>
-      </c>
-      <c r="L46">
-        <v>1.727</v>
-      </c>
-      <c r="M46">
-        <v>2.8</v>
-      </c>
-      <c r="N46">
-        <v>4.2</v>
-      </c>
-      <c r="O46">
-        <v>1.95</v>
-      </c>
-      <c r="P46">
-        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4700,16 +4706,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4721,7 +4727,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4732,7 +4738,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4741,40 +4747,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>130</v>
       </c>
       <c r="J47">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K47">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L47">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O47">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q47">
         <v>1.8</v>
@@ -4786,16 +4792,16 @@
         <v>3.5</v>
       </c>
       <c r="T47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4807,7 +4813,7 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4830,7 +4836,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4839,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4913,7 +4919,7 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
         <v>83</v>
@@ -4925,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -5011,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5088,7 +5094,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5097,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5183,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5269,7 +5275,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5355,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5432,7 +5438,7 @@
         <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5441,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5527,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5604,7 +5610,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5613,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5690,7 +5696,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5699,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5776,7 +5782,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5785,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5862,7 +5868,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5871,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5957,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6043,7 +6049,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6120,7 +6126,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6129,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6215,7 +6221,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6301,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6378,7 +6384,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6387,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6464,7 +6470,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6473,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6559,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6636,7 +6642,7 @@
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6645,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6722,7 +6728,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6731,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6817,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6894,7 +6900,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6903,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6989,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7063,7 +7069,7 @@
         <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -7075,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7152,7 +7158,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7161,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7238,7 +7244,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7247,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7333,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7410,7 +7416,7 @@
         <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7419,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7496,7 +7502,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7505,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7570,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7579,76 +7585,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1.666</v>
+      </c>
+      <c r="M80">
+        <v>4.75</v>
+      </c>
+      <c r="N80">
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <v>1.5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1.975</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.7</v>
-      </c>
-      <c r="M80">
-        <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>2.625</v>
-      </c>
-      <c r="P80">
-        <v>-0.25</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7656,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7665,76 +7671,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>2.6</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-0.5</v>
+      </c>
+      <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1.975</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.9</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>0.5</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.825</v>
-      </c>
-      <c r="AA81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7763,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7849,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J83">
         <v>1.533</v>
@@ -7926,7 +7932,7 @@
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7935,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -8012,7 +8018,7 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8021,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J85">
         <v>1.222</v>
@@ -8107,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J86">
         <v>6.5</v>
@@ -8181,10 +8187,10 @@
         <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8193,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8270,7 +8276,7 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8279,7 +8285,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J88">
         <v>1.363</v>
@@ -8344,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8356,58 +8362,58 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
         <v>130</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8416,13 +8422,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8430,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8442,59 +8448,59 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90">
+        <v>1.833</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
+        <v>1.833</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>3.1</v>
+      </c>
+      <c r="P90">
+        <v>-0.5</v>
+      </c>
+      <c r="Q90">
+        <v>1.875</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>3.75</v>
+      </c>
+      <c r="T90">
+        <v>1.975</v>
+      </c>
+      <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
+        <v>-1</v>
+      </c>
+      <c r="W90">
         <v>3</v>
       </c>
-      <c r="I90" t="s">
-        <v>128</v>
-      </c>
-      <c r="J90">
-        <v>1.142</v>
-      </c>
-      <c r="K90">
-        <v>7</v>
-      </c>
-      <c r="L90">
-        <v>10</v>
-      </c>
-      <c r="M90">
-        <v>1.083</v>
-      </c>
-      <c r="N90">
-        <v>11</v>
-      </c>
-      <c r="O90">
-        <v>19</v>
-      </c>
-      <c r="P90">
-        <v>-3.5</v>
-      </c>
-      <c r="Q90">
-        <v>1.975</v>
-      </c>
-      <c r="R90">
-        <v>1.825</v>
-      </c>
-      <c r="S90">
-        <v>5</v>
-      </c>
-      <c r="T90">
-        <v>1.825</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
       <c r="X90">
         <v>-1</v>
       </c>
@@ -8502,13 +8508,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8537,7 +8543,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8614,7 +8620,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8623,7 +8629,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8700,7 +8706,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8709,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8786,7 +8792,7 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -8795,7 +8801,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8881,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J95">
         <v>2.2</v>
@@ -8958,7 +8964,7 @@
         <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8967,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J96">
         <v>1.6</v>
@@ -9032,7 +9038,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8158915</v>
+        <v>8163123</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9041,58 +9047,58 @@
         <v>45412.625</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J97">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
         <v>-0.5</v>
       </c>
       <c r="Q97">
+        <v>1.75</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>3.75</v>
+      </c>
+      <c r="T97">
         <v>1.85</v>
       </c>
-      <c r="R97">
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
-        <v>3.5</v>
-      </c>
-      <c r="T97">
-        <v>1.8</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
       <c r="V97">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9101,13 +9107,13 @@
         <v>-1</v>
       </c>
       <c r="Y97">
+        <v>0.75</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9118,7 +9124,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8163123</v>
+        <v>8158915</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9127,58 +9133,58 @@
         <v>45412.625</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F98" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J98">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
         <v>-0.5</v>
       </c>
       <c r="Q98">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9187,13 +9193,13 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9225,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J99">
         <v>1.727</v>
@@ -9302,7 +9308,7 @@
         <v>84</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9311,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J100">
         <v>2.25</v>
@@ -9397,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9483,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -9560,7 +9566,7 @@
         <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9569,7 +9575,7 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J103">
         <v>1.571</v>
@@ -9646,7 +9652,7 @@
         <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9655,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9741,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J105">
         <v>2.15</v>
@@ -9818,7 +9824,7 @@
         <v>87</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G106">
         <v>6</v>
@@ -9827,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J106">
         <v>1.3</v>
@@ -9884,6 +9890,178 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>8191237</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45420.625</v>
+      </c>
+      <c r="E107" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" t="s">
+        <v>94</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+      <c r="J107">
+        <v>2.875</v>
+      </c>
+      <c r="K107">
+        <v>3.4</v>
+      </c>
+      <c r="L107">
+        <v>2.1</v>
+      </c>
+      <c r="M107">
+        <v>2.9</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
+        <v>2.1</v>
+      </c>
+      <c r="P107">
+        <v>0.25</v>
+      </c>
+      <c r="Q107">
+        <v>1.9</v>
+      </c>
+      <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>3</v>
+      </c>
+      <c r="T107">
+        <v>1.925</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>-1</v>
+      </c>
+      <c r="W107">
+        <v>2.4</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>0.45</v>
+      </c>
+      <c r="Z107">
+        <v>-0.5</v>
+      </c>
+      <c r="AA107">
+        <v>0.925</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>8191238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45420.625</v>
+      </c>
+      <c r="E108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" t="s">
+        <v>129</v>
+      </c>
+      <c r="G108">
+        <v>6</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>130</v>
+      </c>
+      <c r="J108">
+        <v>1.615</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>1.615</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108">
+        <v>4</v>
+      </c>
+      <c r="P108">
+        <v>-0.75</v>
+      </c>
+      <c r="Q108">
+        <v>1.825</v>
+      </c>
+      <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>3</v>
+      </c>
+      <c r="T108">
+        <v>1.925</v>
+      </c>
+      <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
+        <v>0.615</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>0.825</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.925</v>
+      </c>
+      <c r="AB108">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -127,15 +127,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>SC Dsseldorf West</t>
-  </si>
-  <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>FSV Duisburg</t>
   </si>
   <si>
+    <t>Eiche Horn</t>
+  </si>
+  <si>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -286,6 +286,12 @@
     <t>FC Schuttorf</t>
   </si>
   <si>
+    <t>BSG Wismut Gera</t>
+  </si>
+  <si>
+    <t>Eintracht Cuxhaven</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
@@ -370,15 +376,15 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
     <t>SV Breinig</t>
   </si>
   <si>
-    <t>SVGO Bremen</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
     <t>Sportfreunde Eisbachtal</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
   </si>
   <si>
     <t>BV Garrel</t>
+  </si>
+  <si>
+    <t>Wacker Nordhausen</t>
+  </si>
+  <si>
+    <t>Teutonia Uelzen</t>
   </si>
   <si>
     <t>H</t>
@@ -774,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -889,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J2">
         <v>2.25</v>
@@ -966,7 +978,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -975,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J3">
         <v>2.6</v>
@@ -1052,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1061,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1147,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J5">
         <v>1.25</v>
@@ -1233,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1319,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1396,7 +1408,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1405,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1482,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1491,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1568,7 +1580,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1577,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1642,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1654,73 +1666,73 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>2.2</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11">
+        <v>2.625</v>
+      </c>
+      <c r="P11">
+        <v>-0.25</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>1.8</v>
-      </c>
-      <c r="M11">
-        <v>2.9</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>1.95</v>
-      </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <v>1.8</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>0.8</v>
       </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1728,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1740,52 +1752,52 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3.6</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12">
-        <v>1.909</v>
-      </c>
-      <c r="K12">
-        <v>3.75</v>
-      </c>
-      <c r="L12">
-        <v>3.1</v>
-      </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>3.6</v>
       </c>
       <c r="O12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2.75</v>
+      </c>
+      <c r="T12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>1.825</v>
-      </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1794,19 +1806,19 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1814,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1826,37 +1838,37 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q13">
         <v>1.8</v>
@@ -1865,34 +1877,34 @@
         <v>2</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1912,7 +1924,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1921,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -2007,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J15">
         <v>3.25</v>
@@ -2093,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2170,7 +2182,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2179,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2256,7 +2268,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2265,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2351,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2428,7 +2440,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2437,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2511,7 +2523,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2523,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2600,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2609,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2695,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2772,7 +2784,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2781,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2858,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2867,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2944,7 +2956,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2953,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3039,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3125,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3202,7 +3214,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3211,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3297,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3374,7 +3386,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3383,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3469,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3546,7 +3558,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3555,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3632,7 +3644,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3641,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3727,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3813,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3890,7 +3902,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3899,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3976,7 +3988,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3985,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4062,7 +4074,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4071,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4148,7 +4160,7 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4234,7 +4246,7 @@
         <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4243,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4329,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4415,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4492,7 +4504,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4501,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4578,7 +4590,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4587,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4652,7 +4664,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7511940</v>
+        <v>7511941</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4661,40 +4673,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J46">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q46">
         <v>1.8</v>
@@ -4706,16 +4718,16 @@
         <v>3.5</v>
       </c>
       <c r="T46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4727,7 +4739,7 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4738,7 +4750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7511941</v>
+        <v>7511940</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4747,40 +4759,40 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47">
+        <v>2.75</v>
+      </c>
+      <c r="K47">
+        <v>3.6</v>
+      </c>
+      <c r="L47">
+        <v>2.1</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>1.6</v>
+      </c>
+      <c r="P47">
         <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47">
-        <v>3.4</v>
-      </c>
-      <c r="K47">
-        <v>4.2</v>
-      </c>
-      <c r="L47">
-        <v>1.727</v>
-      </c>
-      <c r="M47">
-        <v>2.8</v>
-      </c>
-      <c r="N47">
-        <v>4.2</v>
-      </c>
-      <c r="O47">
-        <v>1.95</v>
-      </c>
-      <c r="P47">
-        <v>0.5</v>
       </c>
       <c r="Q47">
         <v>1.8</v>
@@ -4792,16 +4804,16 @@
         <v>3.5</v>
       </c>
       <c r="T47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4813,7 +4825,7 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4836,7 +4848,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4845,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4931,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -5017,7 +5029,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5094,7 +5106,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5103,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5189,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5275,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5361,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5435,7 +5447,7 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
         <v>88</v>
@@ -5447,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5533,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5610,7 +5622,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5619,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5705,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5782,7 +5794,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5791,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5868,7 +5880,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5877,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5963,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6037,7 +6049,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6049,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6126,7 +6138,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6135,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6221,7 +6233,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6307,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6384,7 +6396,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6393,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6470,7 +6482,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6479,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6565,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6639,10 +6651,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6651,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6728,7 +6740,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6737,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6814,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6823,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6900,7 +6912,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6909,7 +6921,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -6995,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7081,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7158,7 +7170,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7167,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7244,7 +7256,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7253,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7339,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7425,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7502,7 +7514,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7511,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7576,7 +7588,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7585,76 +7597,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P80">
+        <v>-0.25</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.8</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>-1</v>
+      </c>
+      <c r="W80">
+        <v>2.6</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-0.5</v>
+      </c>
+      <c r="Z80">
+        <v>0.4</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1.975</v>
-      </c>
-      <c r="R80">
-        <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>3.5</v>
-      </c>
-      <c r="T80">
-        <v>1.9</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>-1</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>0.5</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.825</v>
-      </c>
-      <c r="AA80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7662,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7671,76 +7683,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>1.666</v>
+      </c>
+      <c r="M81">
+        <v>4.75</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+      <c r="O81">
+        <v>1.5</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1.975</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
         <v>3.5</v>
       </c>
-      <c r="L81">
-        <v>2.7</v>
-      </c>
-      <c r="M81">
-        <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>2.625</v>
-      </c>
-      <c r="P81">
-        <v>-0.25</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81">
-        <v>1.8</v>
-      </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7769,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7834,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7843,76 +7855,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7920,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7929,76 +7941,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K84">
+        <v>4.75</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>5.25</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>-1.5</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>3.75</v>
       </c>
-      <c r="L84">
-        <v>2.7</v>
-      </c>
-      <c r="M84">
-        <v>2.375</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>2.45</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1.85</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8018,7 +8030,7 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8027,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J85">
         <v>1.222</v>
@@ -8113,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J86">
         <v>6.5</v>
@@ -8190,7 +8202,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8199,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8264,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076438</v>
+        <v>8077795</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8276,70 +8288,70 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J88">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="M88">
+        <v>1.083</v>
+      </c>
+      <c r="N88">
+        <v>11</v>
+      </c>
+      <c r="O88">
+        <v>19</v>
+      </c>
+      <c r="P88">
+        <v>-3.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.975</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
         <v>5</v>
       </c>
-      <c r="L88">
-        <v>5.5</v>
-      </c>
-      <c r="M88">
-        <v>1.65</v>
-      </c>
-      <c r="N88">
-        <v>4.5</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>-0.75</v>
-      </c>
-      <c r="Q88">
+      <c r="T88">
         <v>1.825</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>1.975</v>
       </c>
-      <c r="S88">
-        <v>3.5</v>
-      </c>
-      <c r="T88">
-        <v>1.975</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8350,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8362,59 +8374,59 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>136</v>
+      </c>
+      <c r="J89">
+        <v>1.833</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>1.833</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>-0.5</v>
+      </c>
+      <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
+        <v>-1</v>
+      </c>
+      <c r="W89">
         <v>3</v>
       </c>
-      <c r="I89" t="s">
-        <v>130</v>
-      </c>
-      <c r="J89">
-        <v>1.142</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
-      <c r="L89">
-        <v>10</v>
-      </c>
-      <c r="M89">
-        <v>1.083</v>
-      </c>
-      <c r="N89">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>19</v>
-      </c>
-      <c r="P89">
-        <v>-3.5</v>
-      </c>
-      <c r="Q89">
-        <v>1.975</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>1.825</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8422,13 +8434,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8436,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076477</v>
+        <v>8076438</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8448,46 +8460,46 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J90">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M90">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T90">
         <v>1.975</v>
@@ -8499,22 +8511,22 @@
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8531,7 +8543,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
@@ -8543,7 +8555,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8620,7 +8632,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8629,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8706,7 +8718,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8715,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8792,7 +8804,7 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -8801,7 +8813,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8887,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J95">
         <v>2.2</v>
@@ -8964,7 +8976,7 @@
         <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8973,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J96">
         <v>1.6</v>
@@ -9038,7 +9050,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8163123</v>
+        <v>8158915</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9047,58 +9059,58 @@
         <v>45412.625</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J97">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
         <v>-0.5</v>
       </c>
       <c r="Q97">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9107,13 +9119,13 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9124,7 +9136,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8158915</v>
+        <v>8163123</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9133,58 +9145,58 @@
         <v>45412.625</v>
       </c>
       <c r="E98" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J98">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
         <v>-0.5</v>
       </c>
       <c r="Q98">
+        <v>1.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>3.75</v>
+      </c>
+      <c r="T98">
         <v>1.85</v>
       </c>
-      <c r="R98">
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="S98">
-        <v>3.5</v>
-      </c>
-      <c r="T98">
-        <v>1.8</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
       <c r="V98">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9193,13 +9205,13 @@
         <v>-1</v>
       </c>
       <c r="Y98">
+        <v>0.75</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9231,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J99">
         <v>1.727</v>
@@ -9308,7 +9320,7 @@
         <v>84</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9317,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J100">
         <v>2.25</v>
@@ -9403,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9489,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -9566,7 +9578,7 @@
         <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9575,7 +9587,7 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J103">
         <v>1.571</v>
@@ -9652,7 +9664,7 @@
         <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9661,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9747,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J105">
         <v>2.15</v>
@@ -9824,7 +9836,7 @@
         <v>87</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G106">
         <v>6</v>
@@ -9833,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J106">
         <v>1.3</v>
@@ -9910,7 +9922,7 @@
         <v>88</v>
       </c>
       <c r="F107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9919,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J107">
         <v>2.875</v>
@@ -9996,7 +10008,7 @@
         <v>89</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G108">
         <v>6</v>
@@ -10005,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J108">
         <v>1.615</v>
@@ -10063,6 +10075,178 @@
       </c>
       <c r="AB108">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8192753</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45421.375</v>
+      </c>
+      <c r="E109" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" t="s">
+        <v>132</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+      <c r="J109">
+        <v>1.909</v>
+      </c>
+      <c r="K109">
+        <v>3.75</v>
+      </c>
+      <c r="L109">
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <v>2.15</v>
+      </c>
+      <c r="N109">
+        <v>3.6</v>
+      </c>
+      <c r="O109">
+        <v>2.7</v>
+      </c>
+      <c r="P109">
+        <v>-0.25</v>
+      </c>
+      <c r="Q109">
+        <v>1.95</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>3.5</v>
+      </c>
+      <c r="T109">
+        <v>1.875</v>
+      </c>
+      <c r="U109">
+        <v>1.925</v>
+      </c>
+      <c r="V109">
+        <v>-1</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>1.7</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA109">
+        <v>0.875</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>8192754</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45421.41666666666</v>
+      </c>
+      <c r="E110" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" t="s">
+        <v>133</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>134</v>
+      </c>
+      <c r="J110">
+        <v>2.7</v>
+      </c>
+      <c r="K110">
+        <v>3.75</v>
+      </c>
+      <c r="L110">
+        <v>2.1</v>
+      </c>
+      <c r="M110">
+        <v>2.75</v>
+      </c>
+      <c r="N110">
+        <v>3.75</v>
+      </c>
+      <c r="O110">
+        <v>2.1</v>
+      </c>
+      <c r="P110">
+        <v>0.25</v>
+      </c>
+      <c r="Q110">
+        <v>1.875</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>3.5</v>
+      </c>
+      <c r="T110">
+        <v>1.8</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
+        <v>1.75</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>0.875</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -100,18 +100,18 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SSV Markranstadt</t>
   </si>
   <si>
     <t>SV Schott Jena</t>
   </si>
   <si>
-    <t>SSV Markranstadt</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,15 +127,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
@@ -280,24 +280,27 @@
     <t>Borussia LindenthalHohenlind</t>
   </si>
   <si>
+    <t>FC Schuttorf</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Schuttorf</t>
-  </si>
-  <si>
     <t>BSG Wismut Gera</t>
   </si>
   <si>
     <t>Eintracht Cuxhaven</t>
   </si>
   <si>
+    <t>Radebeuler BC 08</t>
+  </si>
+  <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -406,9 +409,6 @@
     <t>SC Germania Erftstadt</t>
   </si>
   <si>
-    <t>Radebeuler BC 08</t>
-  </si>
-  <si>
     <t>BV Garrel</t>
   </si>
   <si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Teutonia Uelzen</t>
+  </si>
+  <si>
+    <t>FC 1910 Lobnitz</t>
   </si>
   <si>
     <t>H</t>
@@ -786,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB110"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -892,73 +895,73 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M2">
+        <v>2.6</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
         <v>1.75</v>
       </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>3.25</v>
+      </c>
+      <c r="T2">
+        <v>1.775</v>
+      </c>
+      <c r="U2">
+        <v>2.025</v>
+      </c>
+      <c r="V2">
+        <v>1.6</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2.75</v>
-      </c>
-      <c r="T2">
-        <v>1.8</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>0.75</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>0.8</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -966,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -978,55 +981,55 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -1035,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1052,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1064,73 +1067,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>135</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T4">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1138,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1150,73 +1153,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J5">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P5">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1245,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1331,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1408,7 +1411,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1494,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1503,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1580,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1589,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1654,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1666,52 +1669,52 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3.6</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11">
-        <v>1.909</v>
-      </c>
-      <c r="K11">
-        <v>3.75</v>
-      </c>
-      <c r="L11">
-        <v>3.1</v>
-      </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>3.6</v>
       </c>
       <c r="O11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>-0.25</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2.75</v>
+      </c>
+      <c r="T11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <v>1.825</v>
-      </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1720,19 +1723,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1740,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1752,37 +1755,37 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>135</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12">
         <v>1.8</v>
@@ -1791,34 +1794,34 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1826,7 +1829,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1838,73 +1841,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>2.2</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
+        <v>2.625</v>
+      </c>
+      <c r="P13">
+        <v>-0.25</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>1.8</v>
-      </c>
-      <c r="M13">
-        <v>2.9</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>1.95</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.8</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.8</v>
       </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1924,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1933,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -2019,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J15">
         <v>3.25</v>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2182,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2268,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2363,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2440,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2449,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2523,7 +2526,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2535,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2612,7 +2615,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2621,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2707,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2784,7 +2787,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2793,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2870,7 +2873,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2879,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2956,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2965,7 +2968,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3051,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3137,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3214,7 +3217,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3223,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3309,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3386,7 +3389,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3395,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3481,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3558,7 +3561,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3567,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3644,7 +3647,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3653,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3739,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3825,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3902,7 +3905,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3911,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3988,7 +3991,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3997,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4071,10 +4074,10 @@
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4148,7 +4151,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4157,58 +4160,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4217,16 +4220,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4234,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4243,58 +4246,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4303,16 +4306,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4341,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4427,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4504,7 +4507,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4513,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4590,7 +4593,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4599,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4685,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4771,7 +4774,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4848,7 +4851,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4857,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4943,7 +4946,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -5029,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5106,7 +5109,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5115,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5201,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5287,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5373,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5447,10 +5450,10 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5459,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5545,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5622,7 +5625,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5631,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5717,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5794,7 +5797,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5803,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5880,7 +5883,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5889,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5963,7 +5966,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -5975,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6049,7 +6052,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6061,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6138,7 +6141,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6147,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6233,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6307,7 +6310,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6319,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6396,7 +6399,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6405,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6482,7 +6485,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6491,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6577,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6651,10 +6654,10 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6663,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6740,7 +6743,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6749,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6826,7 +6829,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6835,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6912,7 +6915,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6921,7 +6924,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -7007,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7093,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7170,7 +7173,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7179,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7256,7 +7259,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7265,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7351,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7437,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7514,7 +7517,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7523,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7588,7 +7591,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7597,76 +7600,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
         <v>136</v>
       </c>
       <c r="J80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1.666</v>
+      </c>
+      <c r="M80">
+        <v>4.75</v>
+      </c>
+      <c r="N80">
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <v>1.5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1.975</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.7</v>
-      </c>
-      <c r="M80">
-        <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>2.625</v>
-      </c>
-      <c r="P80">
-        <v>-0.25</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7674,7 +7677,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7683,76 +7686,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>2.6</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-0.5</v>
+      </c>
+      <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1.975</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.9</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>0.5</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.825</v>
-      </c>
-      <c r="AA81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7781,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7846,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7855,76 +7858,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
+        <v>4.75</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>5.25</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>-1.5</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>3.75</v>
       </c>
-      <c r="L83">
-        <v>2.7</v>
-      </c>
-      <c r="M83">
-        <v>2.375</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>2.45</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7932,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7941,76 +7944,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>135</v>
       </c>
       <c r="J84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8030,7 +8033,7 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8039,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J85">
         <v>1.222</v>
@@ -8125,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J86">
         <v>6.5</v>
@@ -8202,7 +8205,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8211,7 +8214,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8288,7 +8291,7 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -8297,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J88">
         <v>1.142</v>
@@ -8374,7 +8377,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8383,7 +8386,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J89">
         <v>1.833</v>
@@ -8460,7 +8463,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8469,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8543,7 +8546,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
@@ -8555,7 +8558,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8632,7 +8635,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8641,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8718,7 +8721,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8727,7 +8730,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8804,7 +8807,7 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -8813,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8899,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J95">
         <v>2.2</v>
@@ -8976,7 +8979,7 @@
         <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8985,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J96">
         <v>1.6</v>
@@ -9050,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8158915</v>
+        <v>8163123</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9059,58 +9062,58 @@
         <v>45412.625</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J97">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
         <v>-0.5</v>
       </c>
       <c r="Q97">
+        <v>1.75</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>3.75</v>
+      </c>
+      <c r="T97">
         <v>1.85</v>
       </c>
-      <c r="R97">
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
-        <v>3.5</v>
-      </c>
-      <c r="T97">
-        <v>1.8</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
       <c r="V97">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9119,13 +9122,13 @@
         <v>-1</v>
       </c>
       <c r="Y97">
+        <v>0.75</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9136,7 +9139,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8163123</v>
+        <v>8158915</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9145,58 +9148,58 @@
         <v>45412.625</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J98">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
         <v>-0.5</v>
       </c>
       <c r="Q98">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9205,13 +9208,13 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9243,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J99">
         <v>1.727</v>
@@ -9320,7 +9323,7 @@
         <v>84</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9329,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J100">
         <v>2.25</v>
@@ -9415,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9492,7 +9495,7 @@
         <v>85</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9501,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -9578,7 +9581,7 @@
         <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9587,7 +9590,7 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J103">
         <v>1.571</v>
@@ -9664,7 +9667,7 @@
         <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9673,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9759,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J105">
         <v>2.15</v>
@@ -9836,7 +9839,7 @@
         <v>87</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G106">
         <v>6</v>
@@ -9845,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J106">
         <v>1.3</v>
@@ -9910,7 +9913,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8191237</v>
+        <v>8191238</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9922,43 +9925,43 @@
         <v>88</v>
       </c>
       <c r="F107" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J107">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L107">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O107">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
         <v>3</v>
@@ -9970,19 +9973,19 @@
         <v>1.875</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W107">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.925</v>
@@ -9996,7 +9999,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8191238</v>
+        <v>8191237</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -10008,43 +10011,43 @@
         <v>89</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="G108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J108">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M108">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N108">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P108">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
         <v>3</v>
@@ -10056,19 +10059,19 @@
         <v>1.875</v>
       </c>
       <c r="V108">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
         <v>0.925</v>
@@ -10103,7 +10106,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J109">
         <v>1.909</v>
@@ -10189,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J110">
         <v>2.7</v>
@@ -10247,6 +10250,92 @@
       </c>
       <c r="AB110">
         <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>8200579</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="E111" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+      <c r="J111">
+        <v>2.25</v>
+      </c>
+      <c r="K111">
+        <v>3.6</v>
+      </c>
+      <c r="L111">
+        <v>2.55</v>
+      </c>
+      <c r="M111">
+        <v>2.25</v>
+      </c>
+      <c r="N111">
+        <v>3.6</v>
+      </c>
+      <c r="O111">
+        <v>2.55</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>1.775</v>
+      </c>
+      <c r="R111">
+        <v>2.025</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="T111">
+        <v>1.8</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
+        <v>1.25</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -238,10 +238,13 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
+    <t>SV Rott 1927</t>
   </si>
   <si>
     <t>Eiche Horn</t>
@@ -250,9 +253,6 @@
     <t>BSC Hastedt</t>
   </si>
   <si>
-    <t>SV Rott 1927</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>Borussia LindenthalHohenlind</t>
   </si>
   <si>
+    <t>VfL Viktoria JuchenGarzweiler</t>
+  </si>
+  <si>
     <t>FC Schuttorf</t>
   </si>
   <si>
-    <t>VfL Viktoria JuchenGarzweiler</t>
-  </si>
-  <si>
     <t>BSG Wismut Gera</t>
   </si>
   <si>
@@ -295,6 +295,12 @@
     <t>Radebeuler BC 08</t>
   </si>
   <si>
+    <t>Werder Bremen III</t>
+  </si>
+  <si>
+    <t>TSV Bardowick</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
@@ -379,15 +385,15 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SV Breinig</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
   </si>
   <si>
     <t>SC Weyhe</t>
   </si>
   <si>
-    <t>SV Breinig</t>
-  </si>
-  <si>
     <t>Sportfreunde Eisbachtal</t>
   </si>
   <si>
@@ -419,6 +425,9 @@
   </si>
   <si>
     <t>FC 1910 Lobnitz</t>
+  </si>
+  <si>
+    <t>TuS Neetze</t>
   </si>
   <si>
     <t>H</t>
@@ -789,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -904,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -981,7 +990,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -990,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -1076,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J4">
         <v>1.25</v>
@@ -1153,7 +1162,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1162,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1248,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1334,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1411,7 +1420,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1497,7 +1506,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1506,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1583,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1592,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1669,7 +1678,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1678,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1764,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>3.25</v>
@@ -1841,7 +1850,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1850,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1927,7 +1936,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1936,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -2022,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J15">
         <v>3.25</v>
@@ -2108,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2185,7 +2194,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2194,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2271,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2280,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2366,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2443,7 +2452,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2452,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2538,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2615,7 +2624,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2624,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2710,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2787,7 +2796,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2796,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2882,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2959,7 +2968,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2968,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3054,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3140,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3217,7 +3226,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3226,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3312,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3389,7 +3398,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3398,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3484,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3561,7 +3570,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3570,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3647,7 +3656,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3656,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3742,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3828,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3905,7 +3914,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3914,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3991,7 +4000,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4000,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4077,7 +4086,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4086,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4151,7 +4160,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4160,58 +4169,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
         <v>109</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4220,16 +4229,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4237,7 +4246,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4246,58 +4255,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4306,16 +4315,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4344,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4430,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4507,7 +4516,7 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4516,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4593,7 +4602,7 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4602,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4688,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4774,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4851,7 +4860,7 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4860,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4946,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -5023,7 +5032,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5032,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5109,7 +5118,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5118,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5204,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5281,7 +5290,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5290,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5376,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5453,7 +5462,7 @@
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5462,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5548,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5625,7 +5634,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5634,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5720,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5797,7 +5806,7 @@
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5806,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5883,7 +5892,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5892,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5978,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6064,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6141,7 +6150,7 @@
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6150,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6236,7 +6245,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6322,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6399,7 +6408,7 @@
         <v>68</v>
       </c>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6408,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6485,7 +6494,7 @@
         <v>69</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6494,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6580,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6657,7 +6666,7 @@
         <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6666,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6743,7 +6752,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6752,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6838,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6915,7 +6924,7 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6924,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -7010,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7096,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7173,7 +7182,7 @@
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7182,7 +7191,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7259,7 +7268,7 @@
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7268,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7354,7 +7363,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7440,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7517,7 +7526,7 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7526,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7591,7 +7600,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7600,76 +7609,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J80">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P80">
+        <v>-0.25</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.8</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>-1</v>
+      </c>
+      <c r="W80">
+        <v>2.6</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-0.5</v>
+      </c>
+      <c r="Z80">
+        <v>0.4</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1.975</v>
-      </c>
-      <c r="R80">
-        <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>3.5</v>
-      </c>
-      <c r="T80">
-        <v>1.9</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>-1</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>0.5</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.825</v>
-      </c>
-      <c r="AA80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7677,7 +7686,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7686,76 +7695,76 @@
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J81">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>1.666</v>
+      </c>
+      <c r="M81">
+        <v>4.75</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+      <c r="O81">
+        <v>1.5</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1.975</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
         <v>3.5</v>
       </c>
-      <c r="L81">
-        <v>2.7</v>
-      </c>
-      <c r="M81">
-        <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>2.625</v>
-      </c>
-      <c r="P81">
-        <v>-0.25</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81">
-        <v>1.8</v>
-      </c>
-      <c r="S81">
-        <v>3.25</v>
-      </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7784,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7849,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7858,76 +7867,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7935,7 +7944,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7944,76 +7953,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K84">
+        <v>4.75</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>5.25</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>-1.5</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>3.75</v>
       </c>
-      <c r="L84">
-        <v>2.7</v>
-      </c>
-      <c r="M84">
-        <v>2.375</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>2.45</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1.85</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8021,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -8033,73 +8042,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
         <v>1.8</v>
       </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
       <c r="V85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8107,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8119,73 +8128,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J86">
+        <v>1.222</v>
+      </c>
+      <c r="K86">
         <v>6.5</v>
       </c>
-      <c r="K86">
-        <v>4.5</v>
-      </c>
       <c r="L86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
         <v>1.875</v>
       </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8205,7 +8214,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8214,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8279,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8077795</v>
+        <v>8076438</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8291,70 +8300,70 @@
         <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>139</v>
+      </c>
+      <c r="J88">
+        <v>1.363</v>
+      </c>
+      <c r="K88">
         <v>5</v>
       </c>
-      <c r="H88">
-        <v>3</v>
-      </c>
-      <c r="I88" t="s">
-        <v>135</v>
-      </c>
-      <c r="J88">
-        <v>1.142</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
       <c r="L88">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
-        <v>1.083</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="O88">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>-3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
+        <v>1.825</v>
+      </c>
+      <c r="R88">
         <v>1.975</v>
       </c>
-      <c r="R88">
+      <c r="S88">
+        <v>3.5</v>
+      </c>
+      <c r="T88">
+        <v>1.975</v>
+      </c>
+      <c r="U88">
         <v>1.825</v>
       </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>1.825</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
       <c r="V88">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8365,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8377,58 +8386,58 @@
         <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J89">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q89">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="U89">
-        <v>1.825</v>
-      </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,13 +8446,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8451,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076438</v>
+        <v>8076477</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8463,46 +8472,46 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>140</v>
+      </c>
+      <c r="J90">
+        <v>1.833</v>
+      </c>
+      <c r="K90">
         <v>4</v>
       </c>
-      <c r="I90" t="s">
-        <v>136</v>
-      </c>
-      <c r="J90">
-        <v>1.363</v>
-      </c>
-      <c r="K90">
-        <v>5</v>
-      </c>
       <c r="L90">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="N90">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T90">
         <v>1.975</v>
@@ -8514,22 +8523,22 @@
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8558,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8635,7 +8644,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8644,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8721,7 +8730,7 @@
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8730,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8807,7 +8816,7 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -8816,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8902,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J95">
         <v>2.2</v>
@@ -8979,7 +8988,7 @@
         <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8988,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J96">
         <v>1.6</v>
@@ -9053,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8163123</v>
+        <v>8158915</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9062,58 +9071,58 @@
         <v>45412.625</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J97">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
         <v>-0.5</v>
       </c>
       <c r="Q97">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9122,13 +9131,13 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9139,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8158915</v>
+        <v>8163123</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9148,58 +9157,58 @@
         <v>45412.625</v>
       </c>
       <c r="E98" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J98">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
         <v>-0.5</v>
       </c>
       <c r="Q98">
+        <v>1.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>3.75</v>
+      </c>
+      <c r="T98">
         <v>1.85</v>
       </c>
-      <c r="R98">
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="S98">
-        <v>3.5</v>
-      </c>
-      <c r="T98">
-        <v>1.8</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
       <c r="V98">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9208,13 +9217,13 @@
         <v>-1</v>
       </c>
       <c r="Y98">
+        <v>0.75</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9246,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J99">
         <v>1.727</v>
@@ -9323,7 +9332,7 @@
         <v>84</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9332,7 +9341,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J100">
         <v>2.25</v>
@@ -9406,7 +9415,7 @@
         <v>45414.625</v>
       </c>
       <c r="E101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F101" t="s">
         <v>44</v>
@@ -9418,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J101">
         <v>1.571</v>
@@ -9504,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -9581,7 +9590,7 @@
         <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9590,7 +9599,7 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J103">
         <v>1.571</v>
@@ -9676,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9762,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J105">
         <v>2.15</v>
@@ -9839,7 +9848,7 @@
         <v>87</v>
       </c>
       <c r="F106" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G106">
         <v>6</v>
@@ -9848,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J106">
         <v>1.3</v>
@@ -9913,7 +9922,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8191238</v>
+        <v>8191237</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9925,43 +9934,43 @@
         <v>88</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J107">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M107">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
         <v>3</v>
@@ -9973,19 +9982,19 @@
         <v>1.875</v>
       </c>
       <c r="V107">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
         <v>0.925</v>
@@ -9999,7 +10008,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8191237</v>
+        <v>8191238</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -10011,43 +10020,43 @@
         <v>89</v>
       </c>
       <c r="F108" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J108">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O108">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
         <v>3</v>
@@ -10059,19 +10068,19 @@
         <v>1.875</v>
       </c>
       <c r="V108">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W108">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
         <v>0.925</v>
@@ -10097,7 +10106,7 @@
         <v>90</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10106,7 +10115,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J109">
         <v>1.909</v>
@@ -10183,7 +10192,7 @@
         <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10192,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J110">
         <v>2.7</v>
@@ -10269,7 +10278,7 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10278,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J111">
         <v>2.25</v>
@@ -10336,6 +10345,178 @@
       </c>
       <c r="AB111">
         <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>8213032</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45426.60416666666</v>
+      </c>
+      <c r="E112" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+      <c r="J112">
+        <v>1.071</v>
+      </c>
+      <c r="K112">
+        <v>11</v>
+      </c>
+      <c r="L112">
+        <v>26</v>
+      </c>
+      <c r="M112">
+        <v>1.02</v>
+      </c>
+      <c r="N112">
+        <v>23</v>
+      </c>
+      <c r="O112">
+        <v>41</v>
+      </c>
+      <c r="P112">
+        <v>-4.5</v>
+      </c>
+      <c r="Q112">
+        <v>1.7</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>5.5</v>
+      </c>
+      <c r="T112">
+        <v>1.7</v>
+      </c>
+      <c r="U112">
+        <v>2.1</v>
+      </c>
+      <c r="V112">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>1.1</v>
+      </c>
+      <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>8219233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="E113" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" t="s">
+        <v>137</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+      <c r="J113">
+        <v>2.55</v>
+      </c>
+      <c r="K113">
+        <v>3.75</v>
+      </c>
+      <c r="L113">
+        <v>2.2</v>
+      </c>
+      <c r="M113">
+        <v>2.55</v>
+      </c>
+      <c r="N113">
+        <v>3.75</v>
+      </c>
+      <c r="O113">
+        <v>2.2</v>
+      </c>
+      <c r="P113">
+        <v>0.25</v>
+      </c>
+      <c r="Q113">
+        <v>1.775</v>
+      </c>
+      <c r="R113">
+        <v>2.025</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
+        <v>-1</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>1.2</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>1.025</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -127,10 +127,10 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
   </si>
   <si>
     <t>SC Dsseldorf West</t>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1678,37 +1678,37 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q11">
         <v>1.8</v>
@@ -1717,34 +1717,34 @@
         <v>2</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1752,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035048</v>
+        <v>7035046</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1764,37 +1764,37 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q12">
         <v>1.8</v>
@@ -1803,34 +1803,34 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -5459,7 +5459,7 @@
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
         <v>88</v>
@@ -6061,7 +6061,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -7612,7 +7612,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -100,12 +100,12 @@
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>SpVg Porz 1919</t>
+  </si>
+  <si>
     <t>BSC Rapid Chemnitz</t>
   </si>
   <si>
-    <t>SpVg Porz 1919</t>
-  </si>
-  <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
@@ -127,21 +127,21 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>SC Dsseldorf West</t>
+  </si>
+  <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
     <t>SG Unterrath</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SC Dsseldorf West</t>
+    <t>ASV Mettmann</t>
   </si>
   <si>
     <t>Spvgg Steele 0309</t>
   </si>
   <si>
-    <t>ASV Mettmann</t>
-  </si>
-  <si>
     <t>ESC Rellinghausen</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>SF Niederwenigern</t>
+  </si>
+  <si>
     <t>FSV Duisburg</t>
   </si>
   <si>
-    <t>SF Niederwenigern</t>
+    <t>Eiche Horn</t>
   </si>
   <si>
     <t>SV Rott 1927</t>
   </si>
   <si>
-    <t>Eiche Horn</t>
-  </si>
-  <si>
     <t>BSC Hastedt</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>TSV Bardowick</t>
   </si>
   <si>
+    <t>Bonn Endenich 1908</t>
+  </si>
+  <si>
     <t>FV Dresden 06 Laubegast</t>
   </si>
   <si>
-    <t>Bonn Endenich 1908</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -385,10 +385,10 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SVGO Bremen</t>
+  </si>
+  <si>
     <t>SV Breinig</t>
-  </si>
-  <si>
-    <t>SVGO Bremen</t>
   </si>
   <si>
     <t>SC Weyhe</t>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -907,52 +907,52 @@
         <v>95</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M2">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -993,70 +993,70 @@
         <v>96</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>138</v>
       </c>
       <c r="J3">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
+        <v>2.6</v>
+      </c>
+      <c r="N3">
+        <v>3.5</v>
+      </c>
+      <c r="O3">
+        <v>2.25</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
+      </c>
+      <c r="Q3">
         <v>1.75</v>
       </c>
-      <c r="N3">
-        <v>3.6</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>3.25</v>
+      </c>
+      <c r="T3">
+        <v>1.775</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
+        <v>1.6</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.8</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2.75</v>
-      </c>
-      <c r="T3">
-        <v>1.8</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>0.75</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>0.8</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1076,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1678,73 +1678,73 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>2.2</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11">
+        <v>2.625</v>
+      </c>
+      <c r="P11">
+        <v>-0.25</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>1.8</v>
-      </c>
-      <c r="M11">
-        <v>2.9</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>1.95</v>
-      </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <v>1.8</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>0.8</v>
       </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035047</v>
+        <v>7035048</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1850,73 +1850,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13">
+        <v>3.25</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13">
-        <v>1.909</v>
-      </c>
-      <c r="K13">
-        <v>3.75</v>
-      </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1924,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7089911</v>
+        <v>7089910</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1936,56 +1936,56 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
       </c>
       <c r="J14">
+        <v>3.25</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1.8</v>
+      </c>
+      <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>1.975</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>3.25</v>
+      </c>
+      <c r="T14">
+        <v>1.85</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>2.25</v>
       </c>
-      <c r="K14">
-        <v>3.75</v>
-      </c>
-      <c r="L14">
-        <v>2.5</v>
-      </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>3.75</v>
-      </c>
-      <c r="O14">
-        <v>2.5</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>3.5</v>
-      </c>
-      <c r="T14">
-        <v>1.8</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.25</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
@@ -1993,16 +1993,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2010,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7089910</v>
+        <v>7089911</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2022,55 +2022,55 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>138</v>
       </c>
       <c r="J15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1.8</v>
       </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3.5</v>
+      </c>
+      <c r="T15">
         <v>1.8</v>
       </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <v>1.975</v>
-      </c>
-      <c r="R15">
-        <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>3.25</v>
-      </c>
-      <c r="T15">
-        <v>1.85</v>
-      </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -2079,16 +2079,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2277,7 +2277,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -2535,7 +2535,7 @@
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2882,7 +2882,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -3051,7 +3051,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -4160,7 +4160,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7465502</v>
+        <v>7465503</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4169,13 +4169,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4184,43 +4184,43 @@
         <v>138</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
         <v>3.75</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4229,16 +4229,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4246,7 +4246,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7465503</v>
+        <v>7465502</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4255,13 +4255,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4270,43 +4270,43 @@
         <v>138</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>3.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4315,16 +4315,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4943,7 +4943,7 @@
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
         <v>83</v>
@@ -5032,7 +5032,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5290,7 +5290,7 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5720,7 +5720,7 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5975,7 +5975,7 @@
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
         <v>63</v>
@@ -6061,7 +6061,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -6663,7 +6663,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
         <v>119</v>
@@ -6838,7 +6838,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -7093,7 +7093,7 @@
         <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -7440,7 +7440,7 @@
         <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7867,76 +7867,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K83">
+        <v>4.75</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1.4</v>
+      </c>
+      <c r="N83">
+        <v>5.25</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83">
+        <v>-1.5</v>
+      </c>
+      <c r="Q83">
+        <v>1.975</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
         <v>3.75</v>
       </c>
-      <c r="L83">
-        <v>2.7</v>
-      </c>
-      <c r="M83">
-        <v>2.375</v>
-      </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>2.45</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1.85</v>
-      </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7944,7 +7944,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7953,76 +7953,76 @@
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J84">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M84">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N84">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -8042,73 +8042,73 @@
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J85">
+        <v>1.222</v>
+      </c>
+      <c r="K85">
         <v>6.5</v>
       </c>
-      <c r="K85">
-        <v>4.5</v>
-      </c>
       <c r="L85">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O85">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P85">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q85">
+        <v>1.925</v>
+      </c>
+      <c r="R85">
         <v>1.875</v>
       </c>
-      <c r="R85">
-        <v>1.925</v>
-      </c>
       <c r="S85">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8128,73 +8128,73 @@
         <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J86">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K86">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L86">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M86">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
+        <v>1.875</v>
+      </c>
+      <c r="R86">
         <v>1.925</v>
       </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
       <c r="S86">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
       <c r="V86">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8211,7 +8211,7 @@
         <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
         <v>122</v>
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8076438</v>
+        <v>8077795</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8303,67 +8303,67 @@
         <v>123</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J88">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="M88">
+        <v>1.083</v>
+      </c>
+      <c r="N88">
+        <v>11</v>
+      </c>
+      <c r="O88">
+        <v>19</v>
+      </c>
+      <c r="P88">
+        <v>-3.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.975</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
         <v>5</v>
       </c>
-      <c r="L88">
-        <v>5.5</v>
-      </c>
-      <c r="M88">
-        <v>1.65</v>
-      </c>
-      <c r="N88">
-        <v>4.5</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
-      <c r="P88">
-        <v>-0.75</v>
-      </c>
-      <c r="Q88">
+      <c r="T88">
         <v>1.825</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>1.975</v>
       </c>
-      <c r="S88">
-        <v>3.5</v>
-      </c>
-      <c r="T88">
-        <v>1.975</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8077795</v>
+        <v>8076438</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8389,67 +8389,67 @@
         <v>124</v>
       </c>
       <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J89">
+        <v>1.363</v>
+      </c>
+      <c r="K89">
         <v>5</v>
       </c>
-      <c r="H89">
-        <v>3</v>
-      </c>
-      <c r="I89" t="s">
-        <v>138</v>
-      </c>
-      <c r="J89">
-        <v>1.142</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
       <c r="L89">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="M89">
-        <v>1.083</v>
+        <v>1.65</v>
       </c>
       <c r="N89">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="O89">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>-3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q89">
+        <v>1.825</v>
+      </c>
+      <c r="R89">
         <v>1.975</v>
       </c>
-      <c r="R89">
+      <c r="S89">
+        <v>3.5</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
         <v>1.825</v>
       </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>1.825</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
       <c r="V89">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>45414.625</v>
       </c>
       <c r="E101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F101" t="s">
         <v>44</v>

--- a/Germany Landesliga/Germany Landesliga.xlsx
+++ b/Germany Landesliga/Germany Landesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -97,21 +97,27 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>8244270</t>
+  </si>
+  <si>
+    <t>8244271</t>
+  </si>
+  <si>
     <t>Germany Landesliga</t>
   </si>
   <si>
+    <t>BSC Rapid Chemnitz</t>
+  </si>
+  <si>
     <t>SpVg Porz 1919</t>
   </si>
   <si>
-    <t>BSC Rapid Chemnitz</t>
+    <t>SV Schott Jena</t>
   </si>
   <si>
     <t>SSV Markranstadt</t>
   </si>
   <si>
-    <t>SV Schott Jena</t>
-  </si>
-  <si>
     <t>ASV Suchteln</t>
   </si>
   <si>
@@ -127,15 +133,15 @@
     <t>FC Kray</t>
   </si>
   <si>
+    <t>Cronenberger SC</t>
+  </si>
+  <si>
+    <t>SG Unterrath</t>
+  </si>
+  <si>
     <t>SC Dsseldorf West</t>
   </si>
   <si>
-    <t>Cronenberger SC</t>
-  </si>
-  <si>
-    <t>SG Unterrath</t>
-  </si>
-  <si>
     <t>ASV Mettmann</t>
   </si>
   <si>
@@ -238,21 +244,21 @@
     <t>SGS EssenSchonebeck</t>
   </si>
   <si>
+    <t>FSV Duisburg</t>
+  </si>
+  <si>
     <t>SF Niederwenigern</t>
   </si>
   <si>
-    <t>FSV Duisburg</t>
+    <t>BSC Hastedt</t>
+  </si>
+  <si>
+    <t>SV Rott 1927</t>
   </si>
   <si>
     <t>Eiche Horn</t>
   </si>
   <si>
-    <t>SV Rott 1927</t>
-  </si>
-  <si>
-    <t>BSC Hastedt</t>
-  </si>
-  <si>
     <t>TuS Immendorf</t>
   </si>
   <si>
@@ -280,12 +286,12 @@
     <t>Borussia LindenthalHohenlind</t>
   </si>
   <si>
+    <t>FC Schuttorf</t>
+  </si>
+  <si>
     <t>VfL Viktoria JuchenGarzweiler</t>
   </si>
   <si>
-    <t>FC Schuttorf</t>
-  </si>
-  <si>
     <t>BSG Wismut Gera</t>
   </si>
   <si>
@@ -301,12 +307,24 @@
     <t>TSV Bardowick</t>
   </si>
   <si>
+    <t>Luneburger SK Hansa</t>
+  </si>
+  <si>
+    <t>ATS Buntentor</t>
+  </si>
+  <si>
+    <t>FC Huchting</t>
+  </si>
+  <si>
+    <t>TSV Wulsdorf</t>
+  </si>
+  <si>
+    <t>FV Dresden 06 Laubegast</t>
+  </si>
+  <si>
     <t>Bonn Endenich 1908</t>
   </si>
   <si>
-    <t>FV Dresden 06 Laubegast</t>
-  </si>
-  <si>
     <t>SV 09 Arnstadt</t>
   </si>
   <si>
@@ -385,15 +403,15 @@
     <t>VfB Speldorf</t>
   </si>
   <si>
+    <t>SC Weyhe</t>
+  </si>
+  <si>
+    <t>SV Breinig</t>
+  </si>
+  <si>
     <t>SVGO Bremen</t>
   </si>
   <si>
-    <t>SV Breinig</t>
-  </si>
-  <si>
-    <t>SC Weyhe</t>
-  </si>
-  <si>
     <t>Sportfreunde Eisbachtal</t>
   </si>
   <si>
@@ -428,6 +446,12 @@
   </si>
   <si>
     <t>TuS Neetze</t>
+  </si>
+  <si>
+    <t>SV LindwedelHope</t>
+  </si>
+  <si>
+    <t>VfL 07 Bremen</t>
   </si>
   <si>
     <t>H</t>
@@ -798,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,85 +916,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6760228</v>
+        <v>6757276</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
         <v>3.5</v>
       </c>
       <c r="L2">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M2">
+        <v>2.6</v>
+      </c>
+      <c r="N2">
+        <v>3.5</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
         <v>1.75</v>
       </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2">
-        <v>3.8</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>3.25</v>
+      </c>
+      <c r="T2">
+        <v>1.775</v>
+      </c>
+      <c r="U2">
+        <v>2.025</v>
+      </c>
+      <c r="V2">
+        <v>1.6</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2.75</v>
-      </c>
-      <c r="T2">
-        <v>1.8</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>0.75</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>0.8</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -978,67 +1002,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6757276</v>
+        <v>6760228</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45088.41666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
         <v>3.5</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -1047,16 +1071,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1064,85 +1088,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6781315</v>
+        <v>6781316</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1150,85 +1174,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781316</v>
+        <v>6781315</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
-        <v>1.363</v>
+        <v>8.5</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1239,16 +1263,16 @@
         <v>7013106</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45142.60416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1257,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1325,16 +1349,16 @@
         <v>7018664</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1343,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1411,16 +1435,16 @@
         <v>7021985</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45144.41666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1429,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J8">
         <v>1.833</v>
@@ -1497,16 +1521,16 @@
         <v>7021984</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45144.4375</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1515,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J9">
         <v>1.666</v>
@@ -1583,16 +1607,16 @@
         <v>7035049</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45147.60416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1601,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1666,64 +1690,64 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7035047</v>
+        <v>7035046</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45147.625</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3.6</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11">
-        <v>1.909</v>
-      </c>
-      <c r="K11">
-        <v>3.75</v>
-      </c>
-      <c r="L11">
-        <v>3.1</v>
-      </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>3.6</v>
       </c>
       <c r="O11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>-0.25</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2.75</v>
+      </c>
+      <c r="T11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <v>1.825</v>
-      </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1732,19 +1756,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1752,49 +1776,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7035046</v>
+        <v>7035048</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45147.625</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12">
         <v>1.8</v>
@@ -1803,34 +1827,34 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1838,85 +1862,85 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7035048</v>
+        <v>7035047</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45147.625</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="J13">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>2.2</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
+        <v>2.625</v>
+      </c>
+      <c r="P13">
+        <v>-0.25</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>1.8</v>
-      </c>
-      <c r="M13">
-        <v>2.9</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>1.95</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.8</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.8</v>
       </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1927,16 +1951,16 @@
         <v>7089910</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1945,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J14">
         <v>3.25</v>
@@ -2013,16 +2037,16 @@
         <v>7089911</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -2031,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J15">
         <v>2.25</v>
@@ -2099,16 +2123,16 @@
         <v>7117276</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45163.58333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2117,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -2185,16 +2209,16 @@
         <v>7142347</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45169.60416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2203,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2271,16 +2295,16 @@
         <v>7157093</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2289,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2357,16 +2381,16 @@
         <v>7178367</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45177.625</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2375,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2443,16 +2467,16 @@
         <v>7189272</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45178.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2461,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2529,16 +2553,16 @@
         <v>7212747</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45184.625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2547,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2615,16 +2639,16 @@
         <v>7219907</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2633,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J22">
         <v>1.5</v>
@@ -2701,16 +2725,16 @@
         <v>7221816</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2719,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2787,16 +2811,16 @@
         <v>7235837</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45190.625</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2805,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J24">
         <v>2.75</v>
@@ -2873,16 +2897,16 @@
         <v>7239956</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2891,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2959,16 +2983,16 @@
         <v>7244414</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2977,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3045,16 +3069,16 @@
         <v>7271358</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45198.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3063,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J27">
         <v>3.4</v>
@@ -3131,16 +3155,16 @@
         <v>7280312</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3149,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -3217,16 +3241,16 @@
         <v>7280311</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45200.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3235,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J29">
         <v>2.7</v>
@@ -3303,16 +3327,16 @@
         <v>7325273</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45210.625</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3321,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3389,16 +3413,16 @@
         <v>7338519</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45213.375</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3407,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3475,16 +3499,16 @@
         <v>7343910</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45214.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -3493,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J32">
         <v>1.222</v>
@@ -3561,16 +3585,16 @@
         <v>7354380</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45217.625</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3579,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J33">
         <v>1.5</v>
@@ -3647,16 +3671,16 @@
         <v>7357613</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45218.60416666666</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3665,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3733,16 +3757,16 @@
         <v>7371459</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3751,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3819,16 +3843,16 @@
         <v>7388066</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45225.60416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3837,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J36">
         <v>1.666</v>
@@ -3905,16 +3929,16 @@
         <v>7398238</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3923,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J37">
         <v>1.333</v>
@@ -3991,16 +4015,16 @@
         <v>7398237</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45228.46875</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4009,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J38">
         <v>4.2</v>
@@ -4077,16 +4101,16 @@
         <v>7426706</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45234.375</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4095,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -4163,16 +4187,16 @@
         <v>7465503</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4181,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -4249,16 +4273,16 @@
         <v>7465502</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -4267,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -4335,16 +4359,16 @@
         <v>7485798</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45247.66666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4353,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J42">
         <v>2.7</v>
@@ -4421,16 +4445,16 @@
         <v>7492563</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45249.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4439,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J43">
         <v>4.5</v>
@@ -4507,16 +4531,16 @@
         <v>7505166</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45252.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4525,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4593,16 +4617,16 @@
         <v>7511939</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4611,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J45">
         <v>2.2</v>
@@ -4679,16 +4703,16 @@
         <v>7511941</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4697,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -4765,16 +4789,16 @@
         <v>7511940</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4783,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4851,16 +4875,16 @@
         <v>7521305</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45256.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4869,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4937,16 +4961,16 @@
         <v>7538685</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45261.625</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4955,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -5023,16 +5047,16 @@
         <v>7559508</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5041,7 +5065,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -5109,16 +5133,16 @@
         <v>7562219</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45267.67013888889</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5127,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J51">
         <v>2.1</v>
@@ -5195,16 +5219,16 @@
         <v>7566096</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -5213,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5281,16 +5305,16 @@
         <v>7583056</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45273.66666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5299,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J53">
         <v>3.6</v>
@@ -5367,16 +5391,16 @@
         <v>7598132</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5385,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J54">
         <v>4.2</v>
@@ -5453,16 +5477,16 @@
         <v>7783594</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5471,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5539,16 +5563,16 @@
         <v>7847639</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45340.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5557,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J56">
         <v>2.15</v>
@@ -5625,16 +5649,16 @@
         <v>7865257</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45344.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5643,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J57">
         <v>3.5</v>
@@ -5711,16 +5735,16 @@
         <v>7871297</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5729,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J58">
         <v>1.6</v>
@@ -5797,16 +5821,16 @@
         <v>7873626</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5815,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J59">
         <v>1.333</v>
@@ -5883,16 +5907,16 @@
         <v>7873625</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45346.64583333334</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5901,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5969,16 +5993,16 @@
         <v>7890341</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45350.625</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5987,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J61">
         <v>13</v>
@@ -6055,16 +6079,16 @@
         <v>7897140</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45352.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6073,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J62">
         <v>2.15</v>
@@ -6141,16 +6165,16 @@
         <v>7905567</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45354.46875</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6159,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -6227,16 +6251,16 @@
         <v>7930369</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6245,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6313,16 +6337,16 @@
         <v>7940440</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6331,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J65">
         <v>2.45</v>
@@ -6399,16 +6423,16 @@
         <v>7951581</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45363.66666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6417,7 +6441,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J66">
         <v>2.9</v>
@@ -6485,16 +6509,16 @@
         <v>7950775</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45364.66666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -6503,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6571,16 +6595,16 @@
         <v>7969732</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6589,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J68">
         <v>1.333</v>
@@ -6657,16 +6681,16 @@
         <v>7969733</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45368.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6675,7 +6699,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J69">
         <v>3.9</v>
@@ -6743,16 +6767,16 @@
         <v>7990732</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6761,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6829,16 +6853,16 @@
         <v>7992020</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45373.66666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6847,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J71">
         <v>1.285</v>
@@ -6915,16 +6939,16 @@
         <v>7999992</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45375.47916666666</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F72" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6933,7 +6957,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J72">
         <v>4.5</v>
@@ -7001,16 +7025,16 @@
         <v>8013545</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45378.64583333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -7019,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J73">
         <v>1.333</v>
@@ -7087,16 +7111,16 @@
         <v>8013546</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45378.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7105,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -7173,16 +7197,16 @@
         <v>8017334</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45379.625</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7191,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -7259,16 +7283,16 @@
         <v>8034132</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7277,7 +7301,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J76">
         <v>2.2</v>
@@ -7345,17 +7369,17 @@
         <v>8039588</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s">
         <v>71</v>
       </c>
-      <c r="F77" t="s">
-        <v>69</v>
-      </c>
       <c r="G77">
         <v>2</v>
       </c>
@@ -7363,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7431,16 +7455,16 @@
         <v>8050870</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45387.58333333334</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7449,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7517,16 +7541,16 @@
         <v>8050971</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45387.61458333334</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7535,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7600,85 +7624,85 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8059643</v>
+        <v>8059644</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45389.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J80">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1.666</v>
+      </c>
+      <c r="M80">
+        <v>4.75</v>
+      </c>
+      <c r="N80">
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <v>1.5</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1.975</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.7</v>
-      </c>
-      <c r="M80">
-        <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>2.625</v>
-      </c>
-      <c r="P80">
-        <v>-0.25</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>3.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7686,85 +7710,85 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8059644</v>
+        <v>8059643</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45389.4375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="J81">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="P81">
+        <v>-0.25</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.8</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>2.6</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-0.5</v>
+      </c>
+      <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1.975</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>3.5</v>
-      </c>
-      <c r="T81">
-        <v>1.9</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>-1</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>0.5</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.825</v>
-      </c>
-      <c r="AA81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7775,16 +7799,16 @@
         <v>8075592</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45392.58333333334</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7793,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J82">
         <v>2.4</v>
@@ -7858,85 +7882,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8075296</v>
+        <v>8075530</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45392.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J83">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7944,85 +7968,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8075530</v>
+        <v>8075296</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45392.60416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K84">
+        <v>4.75</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1.4</v>
+      </c>
+      <c r="N84">
+        <v>5.25</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>-1.5</v>
+      </c>
+      <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>3.75</v>
       </c>
-      <c r="L84">
-        <v>2.7</v>
-      </c>
-      <c r="M84">
-        <v>2.375</v>
-      </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>2.45</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>1.85</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
-      </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -8030,85 +8054,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8075670</v>
+        <v>8075593</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45392.625</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="J85">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L85">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="M85">
-        <v>1.181</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P85">
-        <v>-2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
         <v>1.8</v>
       </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
       <c r="V85">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8116,85 +8140,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8075593</v>
+        <v>8075670</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45392.625</v>
       </c>
       <c r="E86" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J86">
+        <v>1.222</v>
+      </c>
+      <c r="K86">
         <v>6.5</v>
       </c>
-      <c r="K86">
-        <v>4.5</v>
-      </c>
       <c r="L86">
-        <v>1.363</v>
+        <v>9.5</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.181</v>
       </c>
       <c r="N86">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O86">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P86">
-        <v>1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
         <v>1.875</v>
       </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8205,16 +8229,16 @@
         <v>8076436</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45393.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8223,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J87">
         <v>2.7</v>
@@ -8288,71 +8312,71 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8077795</v>
+        <v>8076477</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45393.60416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88">
+        <v>1.833</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88">
+        <v>1.833</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>-0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.875</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.975</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
         <v>3</v>
       </c>
-      <c r="I88" t="s">
-        <v>138</v>
-      </c>
-      <c r="J88">
-        <v>1.142</v>
-      </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>10</v>
-      </c>
-      <c r="M88">
-        <v>1.083</v>
-      </c>
-      <c r="N88">
-        <v>11</v>
-      </c>
-      <c r="O88">
-        <v>19</v>
-      </c>
-      <c r="P88">
-        <v>-3.5</v>
-      </c>
-      <c r="Q88">
-        <v>1.975</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>1.825</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>0.08299999999999996</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
@@ -8360,13 +8384,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8377,16 +8401,16 @@
         <v>8076438</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45393.60416666666</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8395,7 +8419,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J89">
         <v>1.363</v>
@@ -8460,70 +8484,70 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8076477</v>
+        <v>8077795</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45393.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J90">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="M90">
-        <v>1.833</v>
+        <v>1.083</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="P90">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T90">
+        <v>1.825</v>
+      </c>
+      <c r="U90">
         <v>1.975</v>
       </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
       <c r="V90">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8532,13 +8556,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8549,16 +8573,16 @@
         <v>8076435</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45393.625</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8567,7 +8591,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8635,16 +8659,16 @@
         <v>8086837</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8653,7 +8677,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -8721,16 +8745,16 @@
         <v>8121115</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45403.42708333334</v>
       </c>
     